--- a/data_final/dictionaries/T_Dict.xlsx
+++ b/data_final/dictionaries/T_Dict.xlsx
@@ -1,1198 +1,1269 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wataru_Morioka\Desktop\HeRoP\Meta_Dictionary\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B60E1F6-C19F-4AAF-B61F-509ED4AA6D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="tractsDataDictionary" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="tractsDataDictionary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="387">
-  <si>
-    <t xml:space="preserve">Theme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitudinal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source Long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OEPSv1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Limitations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geography</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEROP_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A derived unique id corresponding to the relevant geographic unit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Healthy Regions &amp; Policies Lab, UIUC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140US01001020100-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The HEROP_ID is generated as follows: Summary Level Code + "US" + GEOID + “-” + Year. In the case of Census Tract geographies, Summary Level Code is 140 and GEOID is State FP + County FP + Tract CE.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEOID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleven digit unique geographic identifier consisting of the STATEFP, COUNTYFP, and TRACTCE.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiger/Line 2018; Tiger/Line 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiger/Line 2018 Shapefiles; Tiger/Line 2010 Shapefiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01003010705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRACTCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Six digit geographic key that identifies tracts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Predominant zip code.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUD's PD&amp;R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Housing and Urban Development Office of Policy and Development and Research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Census tracts align poorly with zips, so merging in zip data in this way will likely be very lossy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COUNTYFP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Three digit geographic key that identifies counties within a given state.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATEFP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two digit geographic key that uniquely identifies states and territories.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotPop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimated total population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1980, 1990, and 2000 data from respective decennial censuses downloaded from IPUMS NHGIS and crosswalked to 2010 census tracts using the Longitudinal Tract Database crosswalk files. For more on the crosswalk files, see https://s4.ad.brown.edu/Projects/Diversity/researcher/bridging.htm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotVetPop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total veteran population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACS 2018, 5-Year; ACS 2012, 5-Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5 Year Estimate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotPopHh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total number of people in households</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACS 2018, 5-Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Community Survey 2014-2018 5 Year Estimates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotUnits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of total housing units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACS 2018, 5-Year; Census 2010; Social Explorer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012; Social Explorer Historic Census Data on 2010 Geometries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1980, 1990, and 2000 data from respective decennial censuses downloaded from Social Explorer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotWrkE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimated count of working population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WhiteP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of population with race identified as white alone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Float</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlackP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of population with race identified as Black or African American alone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AmIndP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of population with race identified as Native American or Alaska Native alone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AsianP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of population with race identified as Asian alone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PacIsP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of population with race identified as Native Hawaiian and Other Pacific Islander alone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OtherP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of Population with race not mentioned in any of the options above (includes two race or more races)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HispP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of population with ethnicity identified as of Hispanic or Latinx origin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChildrenP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of population under age 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Community Survey 2014-2018 5 Year Estimate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age15_24P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of population between ages of 15 &amp; 24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Und45P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of population below 45 years of age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ovr65P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of population over 65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age0_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total population between age 0-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age5_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total population between age 5-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age15_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total population between age 15-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age20_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total population between age 20-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age15_44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total population between age 15-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age45_49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total population between age 45-49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age50_54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total population between age 50-54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age45_54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total population between 45 and 54 years of age.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPUMS NHGIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrated Public Use Microdata Series National Historic Geographic Information System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The 1980 Census data does not allow for disaggregation into Age45_49 and Age50_54 variables, so this variable is used instead. The data itself is from its respective decennial census as downloaded from IPUMS NHGIS and crosswalked to 2010 census tracts using Longitudinal Tract Database crosswalk files. For more on the crosswalk files, see https://s4.ad.brown.edu/Projects/Diversity/researcher/bridging.htm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age55_59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total population between age 55-59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age60_64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total population between age 60-64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AgeOv65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total population at or over age 65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AgeOv18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total population at or over age 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age18_64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total adult population under age 65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DisbP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of civilian non institutionalized population with a disability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACS 2018, 5-Year; ACS 2012, 5-Year; IPUMS NHGIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5 Year Estimate; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000 data from respective decennial censuses downloaded from IPUMS NHGIS and crosswalked to 2010 census tracts using the Longitudinal Tract Database crosswalk files. For more on the crosswalk files, see https://s4.ad.brown.edu/Projects/Diversity/researcher/bridging.htm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Economic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NoHsP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of population 25 years and over without a high school degree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VetP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of population that are veterans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACS 2017, 5-Year; ACS 2012, 5-Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Community Survey 2013-2017 5 Year Estimate; American Community Survey 2008-2012 5 Year Estimates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NonRelFhhP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of people living in family households that are not related to family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACS 2018, 5-Year; Acs 2012, 5-Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NonRelNfhhP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of people living in non-family households that are not related</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BedCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of beds available to homeless individuals in a continuum of care available at the time of the census</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUD, 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department of Housing and Urban Development Homeless Census, 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is the taken by a team of individuals in a continuum of care in one day. It is difficult to measure homelessness at a local and Federal level as the population is relatively mobile, homelessness can be cyclical and there are visibility issues for the homeless community, so the annual point in time count was used as a proxy for homelessness in this dataset. Data was geocoded then spatially joined at the tract, ZCTA, state and county level to see where continuums of care are located and the availibility of temporary housing solutions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PntInTm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of housing-insecure individuals at a shelter on the day of the count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YrlyBedCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of beds available to homeless populations in group quarters available year-round</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UnempP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of unemployed individuals as a percentage of the civilian labor force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PovP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of individuals earning below the poverty income threshold as a percentage of the total population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MedInc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5 Year Estimates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PciE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Per capita income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="412">
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>Latest</t>
+  </si>
+  <si>
+    <t>Longitudinal</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Source Long</t>
+  </si>
+  <si>
+    <t>OEPSv1</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Data Limitations</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>HEROP_ID</t>
+  </si>
+  <si>
+    <t>A derived unique id corresponding to the relevant geographic unit.</t>
+  </si>
+  <si>
+    <t>Healthy Regions &amp; Policies Lab, UIUC</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>140US01001020100-2018</t>
+  </si>
+  <si>
+    <t>The HEROP_ID is generated as follows: Summary Level Code + "US" + GEOID + “-” + Year. In the case of Census Tract geographies, Summary Level Code is 140 and GEOID is State FP + County FP + Tract CE.</t>
+  </si>
+  <si>
+    <t>GEOID</t>
+  </si>
+  <si>
+    <t>Eleven digit unique geographic identifier consisting of the STATEFP, COUNTYFP, and TRACTCE.</t>
+  </si>
+  <si>
+    <t>Tiger/Line 2018; Tiger/Line 2010</t>
+  </si>
+  <si>
+    <t>Tiger/Line 2018 Shapefiles; Tiger/Line 2010 Shapefiles</t>
+  </si>
+  <si>
+    <t>01003010705</t>
+  </si>
+  <si>
+    <t>TRACTCE</t>
+  </si>
+  <si>
+    <t>Six digit geographic key that identifies tracts.</t>
+  </si>
+  <si>
+    <t>010705</t>
+  </si>
+  <si>
+    <t>ZIP</t>
+  </si>
+  <si>
+    <t>Predominant zip code.</t>
+  </si>
+  <si>
+    <t>HUD's PD&amp;R</t>
+  </si>
+  <si>
+    <t>Housing and Urban Development Office of Policy and Development and Research</t>
+  </si>
+  <si>
+    <t>Census tracts align poorly with zips, so merging in zip data in this way will likely be very lossy.</t>
+  </si>
+  <si>
+    <t>COUNTYFP</t>
+  </si>
+  <si>
+    <t>Three digit geographic key that identifies counties within a given state.</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>STATEFP</t>
+  </si>
+  <si>
+    <t>Two digit geographic key that uniquely identifies states and territories.</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>TotPop</t>
+  </si>
+  <si>
+    <t>Estimated total population</t>
+  </si>
+  <si>
+    <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+  </si>
+  <si>
+    <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+  </si>
+  <si>
+    <t>DS01</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>1980, 1990, and 2000 data from respective decennial censuses downloaded from IPUMS NHGIS and crosswalked to 2010 census tracts using the Longitudinal Tract Database crosswalk files. For more on the crosswalk files, see https://s4.ad.brown.edu/Projects/Diversity/researcher/bridging.htm</t>
+  </si>
+  <si>
+    <t>TotVetPop</t>
+  </si>
+  <si>
+    <t>Total veteran population</t>
+  </si>
+  <si>
+    <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+  </si>
+  <si>
+    <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5 Year Estimate</t>
+  </si>
+  <si>
+    <t>DS04</t>
+  </si>
+  <si>
+    <t>TotPopHh</t>
+  </si>
+  <si>
+    <t>Total number of people in households</t>
+  </si>
+  <si>
+    <t>ACS 2018, 5-Year</t>
+  </si>
+  <si>
+    <t>American Community Survey 2014-2018 5 Year Estimates</t>
+  </si>
+  <si>
+    <t>DS05</t>
+  </si>
+  <si>
+    <t>TotUnits</t>
+  </si>
+  <si>
+    <t>Count of total housing units</t>
+  </si>
+  <si>
+    <t>ACS 2018, 5-Year; Census 2010; Social Explorer</t>
+  </si>
+  <si>
+    <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012; Social Explorer Historic Census Data on 2010 Geometries</t>
+  </si>
+  <si>
+    <t>BE01</t>
+  </si>
+  <si>
+    <t>1980, 1990, and 2000 data from respective decennial censuses downloaded from Social Explorer.</t>
+  </si>
+  <si>
+    <t>TotWrkE</t>
+  </si>
+  <si>
+    <t>Estimated count of working population</t>
+  </si>
+  <si>
+    <t>EC01</t>
+  </si>
+  <si>
+    <t>WhiteP</t>
+  </si>
+  <si>
+    <t>Percentage of population with race identified as white alone</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>BlackP</t>
+  </si>
+  <si>
+    <t>Percentage of population with race identified as Black or African American alone</t>
+  </si>
+  <si>
+    <t>AmIndP</t>
+  </si>
+  <si>
+    <t>Percentage of population with race identified as Native American or Alaska Native alone</t>
+  </si>
+  <si>
+    <t>AsianP</t>
+  </si>
+  <si>
+    <t>Percentage of population with race identified as Asian alone</t>
+  </si>
+  <si>
+    <t>PacIsP</t>
+  </si>
+  <si>
+    <t>Percentage of population with race identified as Native Hawaiian and Other Pacific Islander alone</t>
+  </si>
+  <si>
+    <t>OtherP</t>
+  </si>
+  <si>
+    <t>Percentage of Population with race not mentioned in any of the options above (includes two race or more races)</t>
+  </si>
+  <si>
+    <t>HispP</t>
+  </si>
+  <si>
+    <t>Percentage of population with ethnicity identified as of Hispanic or Latinx origin</t>
+  </si>
+  <si>
+    <t>ChildrenP</t>
+  </si>
+  <si>
+    <t>Percentage of population under age 18</t>
+  </si>
+  <si>
+    <t>American Community Survey 2014-2018 5 Year Estimate</t>
+  </si>
+  <si>
+    <t>Age15_24P</t>
+  </si>
+  <si>
+    <t>Percentage of population between ages of 15 &amp; 24</t>
+  </si>
+  <si>
+    <t>Und45P</t>
+  </si>
+  <si>
+    <t>Percentage of population below 45 years of age</t>
+  </si>
+  <si>
+    <t>Ovr65P</t>
+  </si>
+  <si>
+    <t>Percentage of population over 65</t>
+  </si>
+  <si>
+    <t>Age0_4</t>
+  </si>
+  <si>
+    <t>Total population between age 0-4</t>
+  </si>
+  <si>
+    <t>Age5_14</t>
+  </si>
+  <si>
+    <t>Total population between age 5-14</t>
+  </si>
+  <si>
+    <t>Age15_19</t>
+  </si>
+  <si>
+    <t>Total population between age 15-19</t>
+  </si>
+  <si>
+    <t>Age20_24</t>
+  </si>
+  <si>
+    <t>Total population between age 20-24</t>
+  </si>
+  <si>
+    <t>Age15_44</t>
+  </si>
+  <si>
+    <t>Total population between age 15-44</t>
+  </si>
+  <si>
+    <t>Age45_49</t>
+  </si>
+  <si>
+    <t>Total population between age 45-49</t>
+  </si>
+  <si>
+    <t>Age50_54</t>
+  </si>
+  <si>
+    <t>Total population between age 50-54</t>
+  </si>
+  <si>
+    <t>Age45_54</t>
+  </si>
+  <si>
+    <t>Total population between 45 and 54 years of age.</t>
+  </si>
+  <si>
+    <t>IPUMS NHGIS</t>
+  </si>
+  <si>
+    <t>Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+  </si>
+  <si>
+    <t>The 1980 Census data does not allow for disaggregation into Age45_49 and Age50_54 variables, so this variable is used instead. The data itself is from its respective decennial census as downloaded from IPUMS NHGIS and crosswalked to 2010 census tracts using Longitudinal Tract Database crosswalk files. For more on the crosswalk files, see https://s4.ad.brown.edu/Projects/Diversity/researcher/bridging.htm</t>
+  </si>
+  <si>
+    <t>Age55_59</t>
+  </si>
+  <si>
+    <t>Total population between age 55-59</t>
+  </si>
+  <si>
+    <t>Age60_64</t>
+  </si>
+  <si>
+    <t>Total population between age 60-64</t>
+  </si>
+  <si>
+    <t>AgeOv65</t>
+  </si>
+  <si>
+    <t>Total population at or over age 65</t>
+  </si>
+  <si>
+    <t>AgeOv18</t>
+  </si>
+  <si>
+    <t>Total population at or over age 18</t>
+  </si>
+  <si>
+    <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census</t>
+  </si>
+  <si>
+    <t>Age18_64</t>
+  </si>
+  <si>
+    <t>Total adult population under age 65</t>
+  </si>
+  <si>
+    <t>DisbP</t>
+  </si>
+  <si>
+    <t>Percentage of civilian non institutionalized population with a disability</t>
+  </si>
+  <si>
+    <t>ACS 2018, 5-Year; ACS 2012, 5-Year; IPUMS NHGIS</t>
+  </si>
+  <si>
+    <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5 Year Estimate; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+  </si>
+  <si>
+    <t>2000 data from respective decennial censuses downloaded from IPUMS NHGIS and crosswalked to 2010 census tracts using the Longitudinal Tract Database crosswalk files. For more on the crosswalk files, see https://s4.ad.brown.edu/Projects/Diversity/researcher/bridging.htm</t>
+  </si>
+  <si>
+    <t>Economic</t>
+  </si>
+  <si>
+    <t>NoHsP</t>
+  </si>
+  <si>
+    <t>Percentage of population 25 years and over without a high school degree</t>
+  </si>
+  <si>
+    <t>VetP</t>
+  </si>
+  <si>
+    <t>Percent of population that are veterans</t>
+  </si>
+  <si>
+    <t>ACS 2017, 5-Year; ACS 2012, 5-Year</t>
+  </si>
+  <si>
+    <t>American Community Survey 2013-2017 5 Year Estimate; American Community Survey 2008-2012 5 Year Estimates</t>
+  </si>
+  <si>
+    <t>NonRelFhhP</t>
+  </si>
+  <si>
+    <t>Percent of people living in family households that are not related to family</t>
+  </si>
+  <si>
+    <t>ACS 2018, 5-Year; Acs 2012, 5-Year</t>
+  </si>
+  <si>
+    <t>NonRelNfhhP</t>
+  </si>
+  <si>
+    <t>Percent of people living in non-family households that are not related</t>
+  </si>
+  <si>
+    <t>BedCnt</t>
+  </si>
+  <si>
+    <t>Number of beds available to homeless individuals in a continuum of care available at the time of the census</t>
+  </si>
+  <si>
+    <t>HUD, 2018</t>
+  </si>
+  <si>
+    <t>Department of Housing and Urban Development Homeless Census, 2018</t>
+  </si>
+  <si>
+    <t>DS06</t>
+  </si>
+  <si>
+    <t>This is the taken by a team of individuals in a continuum of care in one day. It is difficult to measure homelessness at a local and Federal level as the population is relatively mobile, homelessness can be cyclical and there are visibility issues for the homeless community, so the annual point in time count was used as a proxy for homelessness in this dataset. Data was geocoded then spatially joined at the tract, ZCTA, state and county level to see where continuums of care are located and the availibility of temporary housing solutions.</t>
+  </si>
+  <si>
+    <t>PntInTm</t>
+  </si>
+  <si>
+    <t>Number of housing-insecure individuals at a shelter on the day of the count</t>
+  </si>
+  <si>
+    <t>YrlyBedCnt</t>
+  </si>
+  <si>
+    <t>Number of beds available to homeless populations in group quarters available year-round</t>
+  </si>
+  <si>
+    <t>UnempP</t>
+  </si>
+  <si>
+    <t>The number of unemployed individuals as a percentage of the civilian labor force</t>
+  </si>
+  <si>
+    <t>EC03</t>
+  </si>
+  <si>
+    <t>PovP</t>
+  </si>
+  <si>
+    <t>Number of individuals earning below the poverty income threshold as a percentage of the total population</t>
+  </si>
+  <si>
+    <t>MedInc</t>
+  </si>
+  <si>
+    <t>Median income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
+  </si>
+  <si>
+    <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5 Year Estimates</t>
+  </si>
+  <si>
+    <t>PciE</t>
+  </si>
+  <si>
+    <t>Per capita income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
   </si>
   <si>
     <t xml:space="preserve"> 2000 data from respective decennial censuses downloaded from Social Explorer.</t>
   </si>
   <si>
-    <t xml:space="preserve">ForDqP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimated percent of mortgages to start foreclosure process or be seriously delinquent during the 2008 Recession</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Department of Housing and Urban Development Neighborhood Stabilization Program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect "real" numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ForDqTot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimated number of mortgages to start foreclosure process or be seriously delinquent during the 2008 Recession</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GiniCoeff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Income Inequality (Gini Coefficient)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EduP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of population employed in educational services industry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HghRskP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of population employed in following industries: agriculture, rorestry, fishing and hunting, mining, quarrying, oil and gas extraction, construction, manufacturing, utilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HltCrP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of population employed in health care and social assistance industries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RetailP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of population employed in retail trade industry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EssnWrkE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimated count of population employed in essential occupations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EssnWrkP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of population employed in essential occupations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NoIntP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of Households without Internet access</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACS, 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Community Survey 2015-2019 5 Year Estimate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VacantP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of vacant housing units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5 Year Estimate; Social Explorer Historic Data on 2010 Geographies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MobileP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of total housing units categorized as mobile housing structures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LngTermP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of population who moved into their current housing more than 20 years ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RentalP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of occupied housing units that are rented</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UnitDens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of housing units per square mile of land area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruca1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary RUCA Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Character / Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruca2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secondary RUCA Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rurality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urban/Suburban/Rural</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String / Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urban</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaSqMi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land area of geography in sq miles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InfoGroup, 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InfoGroup's 2018 Business and Consumer Historical Datafile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
+    <t>ForDqP</t>
+  </si>
+  <si>
+    <t>Estimated percent of mortgages to start foreclosure process or be seriously delinquent during the 2008 Recession</t>
+  </si>
+  <si>
+    <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program</t>
+  </si>
+  <si>
+    <t>EC04</t>
+  </si>
+  <si>
+    <t>The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect "real" numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure.</t>
+  </si>
+  <si>
+    <t>For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau.</t>
+  </si>
+  <si>
+    <t>ForDqTot</t>
+  </si>
+  <si>
+    <t>Estimated number of mortgages to start foreclosure process or be seriously delinquent during the 2008 Recession</t>
+  </si>
+  <si>
+    <t>GiniCoeff</t>
+  </si>
+  <si>
+    <t>Income Inequality (Gini Coefficient)</t>
+  </si>
+  <si>
+    <t>EduP</t>
+  </si>
+  <si>
+    <t>Percentage of population employed in educational services industry</t>
+  </si>
+  <si>
+    <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
+  </si>
+  <si>
+    <t>HghRskP</t>
+  </si>
+  <si>
+    <t>Percentage of population employed in following industries: agriculture, rorestry, fishing and hunting, mining, quarrying, oil and gas extraction, construction, manufacturing, utilities</t>
+  </si>
+  <si>
+    <t>HltCrP</t>
+  </si>
+  <si>
+    <t>Percentage of population employed in health care and social assistance industries</t>
+  </si>
+  <si>
+    <t>RetailP</t>
+  </si>
+  <si>
+    <t>Percentage of population employed in retail trade industry</t>
+  </si>
+  <si>
+    <t>EssnWrkE</t>
+  </si>
+  <si>
+    <t>Estimated count of population employed in essential occupations.</t>
+  </si>
+  <si>
+    <t>EC02</t>
+  </si>
+  <si>
+    <t>EssnWrkP</t>
+  </si>
+  <si>
+    <t>Percentage of population employed in essential occupations.</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>NoIntP</t>
+  </si>
+  <si>
+    <t>Percentage of Households without Internet access</t>
+  </si>
+  <si>
+    <t>ACS, 2019</t>
+  </si>
+  <si>
+    <t>American Community Survey 2015-2019 5 Year Estimate</t>
+  </si>
+  <si>
+    <t>EC05</t>
+  </si>
+  <si>
+    <t>VacantP</t>
+  </si>
+  <si>
+    <t>Percentage of vacant housing units</t>
+  </si>
+  <si>
+    <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
+  </si>
+  <si>
+    <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5 Year Estimate; Social Explorer Historic Data on 2010 Geographies</t>
+  </si>
+  <si>
+    <t>MobileP</t>
+  </si>
+  <si>
+    <t>Percentage of total housing units categorized as mobile housing structures</t>
+  </si>
+  <si>
+    <t>LngTermP</t>
+  </si>
+  <si>
+    <t>Percentage of population who moved into their current housing more than 20 years ago</t>
+  </si>
+  <si>
+    <t>RentalP</t>
+  </si>
+  <si>
+    <t>Percentage of occupied housing units that are rented</t>
+  </si>
+  <si>
+    <t>UnitDens</t>
+  </si>
+  <si>
+    <t>Number of housing units per square mile of land area</t>
+  </si>
+  <si>
+    <t>Ruca1</t>
+  </si>
+  <si>
+    <t>Primary RUCA Code</t>
+  </si>
+  <si>
+    <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
+  </si>
+  <si>
+    <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+  </si>
+  <si>
+    <t>BE02</t>
+  </si>
+  <si>
+    <t>Character / Factor</t>
+  </si>
+  <si>
+    <t>Ruca2</t>
+  </si>
+  <si>
+    <t>Secondary RUCA Code</t>
+  </si>
+  <si>
+    <t>Rurality</t>
+  </si>
+  <si>
+    <t>Urban/Suburban/Rural</t>
+  </si>
+  <si>
+    <t>String / Factor</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>AreaSqMi</t>
+  </si>
+  <si>
+    <t>Land area of geography in sq miles</t>
+  </si>
+  <si>
+    <t>InfoGroup, 2018</t>
+  </si>
+  <si>
+    <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
+  </si>
+  <si>
+    <t>BE03</t>
+  </si>
+  <si>
+    <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
 The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
   </si>
   <si>
-    <t xml:space="preserve">AlcTot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total number of alcohol outlets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AlcDens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of alcohol outlets per square mile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AlcPerCap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of alcohol outlets per capita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ndvi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average normalized difference vegetation index, a measure of greenness used to determine the amount of vegetation in an area, value from all pixel values in each Census tract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sentinel-2 MSI, 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sentinel 2 MSI: MultiSpectral Instrument Level-1 C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Despite removing identified influences of cloud interferences, there may still be clouds or other atmospheric conditions that alter pixel values used in calculations. See the original source for greater documentation of these effects. Furthermore, summarizing NDVI to the census tract simplifies inter-census tract variability.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MoudMinDis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euclidean distance (miles) to nearest MOUD (all types)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BupMinDis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euclidean distance (miles) to nearest buprenorphine provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BupTmDr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driving time (minutes) to nearest buprenorphine provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BupCntDr30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of methadone providers in 30 minute drive time threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MetMinDis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euclidean distance (miles) to nearest methadone provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MetTmDr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driving time (minutes) to nearest methadone provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MetCntDr30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NalMinDis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euclidean distance (miles) to nearest naltrexone/Vivitrol provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NalTmDr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driving time (minutes) to nearest naltrexone provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NalCntDr30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of naltrexone providers in 30 minute drive time threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BupTmWk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walking time (minutes) to nearest buprenorphine provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BupCntWk60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of buprenorphine providers in 60 minute walking time threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BupCntWk30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of buprenorphine providers in 30 minute walking time threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MetTmWk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walking time (minutes) to nearest methadone provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MetCntWk30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of methadone providers in 60 minute walking time threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MetCntWk60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of methadone providers in 30 minute walking time threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NalTmWk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walking time (minutes) to nearest naltrexone provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NalCntWk60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of naltrexone providers in 60 minute walking time threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NalCntWk30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of naltrexone providers in 30 minute walking time threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BupTmBk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biking time (minutes) to nearest buprenorphine provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BupCntBk60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of buprenorphine providers in 60 minute biking time threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BupCntBk30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of buprenorphine providers in 30 minute biking time threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MetTmBk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biking time (minutes) to nearest methadone provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MetCntBk60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of methadone providers in 60 minute biking time threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MetCntBk30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of methadone providers in 30 minute biking time threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NalTmBk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biking time (minutes) to nearest naltrexone provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NalCntBk60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of naltrexone providers in 60 minute biking time threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NalCntBk30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of naltrexone providers in 30 minute biking time threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FqhcMinDis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euclidean distance* from tract/zip centroid to nearest FQHC, in miles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Covid Atlas via HRSA, 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FqhcTmDr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driving time from tract/zip origin centroid to the nearest tract/zip FQHC destination centroid, in minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FqhcCntDr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of FQHCs within a 30-minute driving threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HospMinDis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euclidean distance* from tract/zip centroid to nearest hospital, in miles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CovidCareMap, 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HospTmDr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driving time from tract/zip origin centroid to the nearest tract/zip hospital destination centroid, in minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HospCntDr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of hospitals within a 30-minute driving threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RxMinDis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euclidean distance* from tract/zip centroid to nearest pharmacy, in miles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InfoGroup, 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RxTmDr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driving time from tract/zip origin centroid to the nearest tract/zip pharmacy destination centroid, in minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RxCntDr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of pharmacies within a 30-minute driving threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MhMinDis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euclidean distance* from tract/zip centroid to nearest mental health provider, in miles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMHSA, 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MhTmDr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driving time from tract/zip origin centroid to the nearest tract/zip mental health provider destination centroid, in minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MhCntDr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of MH providers within a 30-minute driving threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SutMinDis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euclidean distance* from tract/zip centroid to nearest SUT service location, in miles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SutTmDr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driving time from tract/zip origin centroid to the nearest tract/zip SUT destination centroid, in minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SutCntDr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of SUT services within a 30-minute driving threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OtpMinDis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euclidean distance* from tract/zip centroid to nearest OTP service location, in miles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSHA, 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OtpTmDr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driving time from tract/zip origin centroid to the nearest tract/zip OTP destination centroid, in minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OtpCntDr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of OTPs within a 30-minute driving threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotPcp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of PCPs in area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dartmouth Atlas, 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dartmouth Atlas' Primary Care Service Area (PCSA) Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does not include U.S. territories Puerto Rico, Guam, Northern Mariana Islands, American Samoa, Virgin Islands, or Washington, D.C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotSp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of specialty physicains in area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PcpPer100k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCPs per total Population X 100,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpPer100k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specialty Physicians per total Population X 100,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Composite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SocEcAdvIn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raw Socioeconomic Advantage Index (https://sdohatlas.github.io/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeoDa Data and Lab; SDOH Atlas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeoDa Data and Lab; Spatial Deterimants of Health Atlas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LimMobInd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raw Limited Mobility Index (https://sdohatlas.github.io/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UrbCoreInd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raw Urban Core Opportunity Index (https://sdohatlas.github.io/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MicaInd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raw Mixed Immigrant Cohesion and Accessibility (MICA) Index (https://sdohatlas.github.io/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NeighbTyp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Categorical, one of seven neighborhood (tract-level) typologies: 1 = Rural Affordable; 2 = Suburban Affluent; 3 = Suburban Affordable; 4 = Extreme Poverty; 5 = Multilingual Working; 6 = Urban Core Opportunity; 7 = Sparse Areas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kolak et al., 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some tracts are not assigned with any typologies because data are missing for factor analysis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SviTh1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SVI Ranking, Theme 1: Socioeconomic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC, 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centers for Disease Control, 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numeric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SviTh2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SVI Ranking, Theme 2: Household Composition &amp; Disability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SviTh3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SVI Ranking, Theme 3: Minority Status &amp; Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SviTh4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SVI Ranking, Theme 4: Housing Type &amp; Transportation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SviSmryRnk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall summary ranking</t>
+    <t>AlcTot</t>
+  </si>
+  <si>
+    <t>Total number of alcohol outlets</t>
+  </si>
+  <si>
+    <t>AlcDens</t>
+  </si>
+  <si>
+    <t>Number of alcohol outlets per square mile</t>
+  </si>
+  <si>
+    <t>AlcPerCap</t>
+  </si>
+  <si>
+    <t>Number of alcohol outlets per capita</t>
+  </si>
+  <si>
+    <t>Ndvi</t>
+  </si>
+  <si>
+    <t>Average normalized difference vegetation index, a measure of greenness used to determine the amount of vegetation in an area, value from all pixel values in each Census tract</t>
+  </si>
+  <si>
+    <t>Sentinel-2 MSI, 2018</t>
+  </si>
+  <si>
+    <t>Sentinel 2 MSI: MultiSpectral Instrument Level-1 C</t>
+  </si>
+  <si>
+    <t>BE06</t>
+  </si>
+  <si>
+    <t>Despite removing identified influences of cloud interferences, there may still be clouds or other atmospheric conditions that alter pixel values used in calculations. See the original source for greater documentation of these effects. Furthermore, summarizing NDVI to the census tract simplifies inter-census tract variability.</t>
+  </si>
+  <si>
+    <t>MoudMinDis</t>
+  </si>
+  <si>
+    <t>Euclidean distance (miles) to nearest MOUD (all types)</t>
+  </si>
+  <si>
+    <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+  </si>
+  <si>
+    <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+  </si>
+  <si>
+    <t>Access01</t>
+  </si>
+  <si>
+    <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
+  </si>
+  <si>
+    <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
+  </si>
+  <si>
+    <t>BupMinDis</t>
+  </si>
+  <si>
+    <t>Euclidean distance (miles) to nearest buprenorphine provider</t>
+  </si>
+  <si>
+    <t>BupTmDr</t>
+  </si>
+  <si>
+    <t>Driving time (minutes) to nearest buprenorphine provider</t>
+  </si>
+  <si>
+    <t>BupCntDr30</t>
+  </si>
+  <si>
+    <t>Count of methadone providers in 30 minute drive time threshold</t>
+  </si>
+  <si>
+    <t>MetMinDis</t>
+  </si>
+  <si>
+    <t>Euclidean distance (miles) to nearest methadone provider</t>
+  </si>
+  <si>
+    <t>MetTmDr</t>
+  </si>
+  <si>
+    <t>Driving time (minutes) to nearest methadone provider</t>
+  </si>
+  <si>
+    <t>MetCntDr30</t>
+  </si>
+  <si>
+    <t>NalMinDis</t>
+  </si>
+  <si>
+    <t>Euclidean distance (miles) to nearest naltrexone/Vivitrol provider</t>
+  </si>
+  <si>
+    <t>NalTmDr</t>
+  </si>
+  <si>
+    <t>Driving time (minutes) to nearest naltrexone provider</t>
+  </si>
+  <si>
+    <t>NalCntDr30</t>
+  </si>
+  <si>
+    <t>Count of naltrexone providers in 30 minute drive time threshold</t>
+  </si>
+  <si>
+    <t>BupTmWk</t>
+  </si>
+  <si>
+    <t>Walking time (minutes) to nearest buprenorphine provider</t>
+  </si>
+  <si>
+    <t>BupCntWk60</t>
+  </si>
+  <si>
+    <t>Count of buprenorphine providers in 60 minute walking time threshold</t>
+  </si>
+  <si>
+    <t>BupCntWk30</t>
+  </si>
+  <si>
+    <t>Count of buprenorphine providers in 30 minute walking time threshold</t>
+  </si>
+  <si>
+    <t>MetTmWk</t>
+  </si>
+  <si>
+    <t>Walking time (minutes) to nearest methadone provider</t>
+  </si>
+  <si>
+    <t>MetCntWk30</t>
+  </si>
+  <si>
+    <t>Count of methadone providers in 60 minute walking time threshold</t>
+  </si>
+  <si>
+    <t>MetCntWk60</t>
+  </si>
+  <si>
+    <t>Count of methadone providers in 30 minute walking time threshold</t>
+  </si>
+  <si>
+    <t>NalTmWk</t>
+  </si>
+  <si>
+    <t>Walking time (minutes) to nearest naltrexone provider</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>NalCntWk60</t>
+  </si>
+  <si>
+    <t>Count of naltrexone providers in 60 minute walking time threshold</t>
+  </si>
+  <si>
+    <t>NalCntWk30</t>
+  </si>
+  <si>
+    <t>Count of naltrexone providers in 30 minute walking time threshold</t>
+  </si>
+  <si>
+    <t>BupTmBk</t>
+  </si>
+  <si>
+    <t>Biking time (minutes) to nearest buprenorphine provider</t>
+  </si>
+  <si>
+    <t>BupCntBk60</t>
+  </si>
+  <si>
+    <t>Count of buprenorphine providers in 60 minute biking time threshold</t>
+  </si>
+  <si>
+    <t>BupCntBk30</t>
+  </si>
+  <si>
+    <t>Count of buprenorphine providers in 30 minute biking time threshold</t>
+  </si>
+  <si>
+    <t>MetTmBk</t>
+  </si>
+  <si>
+    <t>Biking time (minutes) to nearest methadone provider</t>
+  </si>
+  <si>
+    <t>MetCntBk60</t>
+  </si>
+  <si>
+    <t>Count of methadone providers in 60 minute biking time threshold</t>
+  </si>
+  <si>
+    <t>MetCntBk30</t>
+  </si>
+  <si>
+    <t>Count of methadone providers in 30 minute biking time threshold</t>
+  </si>
+  <si>
+    <t>NalTmBk</t>
+  </si>
+  <si>
+    <t>Biking time (minutes) to nearest naltrexone provider</t>
+  </si>
+  <si>
+    <t>NalCntBk60</t>
+  </si>
+  <si>
+    <t>Count of naltrexone providers in 60 minute biking time threshold</t>
+  </si>
+  <si>
+    <t>NalCntBk30</t>
+  </si>
+  <si>
+    <t>Count of naltrexone providers in 30 minute biking time threshold</t>
+  </si>
+  <si>
+    <t>FqhcMinDis</t>
+  </si>
+  <si>
+    <t>Euclidean distance* from tract/zip centroid to nearest FQHC, in miles</t>
+  </si>
+  <si>
+    <t>US Covid Atlas via HRSA, 2020</t>
+  </si>
+  <si>
+    <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
+  </si>
+  <si>
+    <t>Access02</t>
+  </si>
+  <si>
+    <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
+  </si>
+  <si>
+    <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
+  </si>
+  <si>
+    <t>FqhcTmDr</t>
+  </si>
+  <si>
+    <t>Driving time from tract/zip origin centroid to the nearest tract/zip FQHC destination centroid, in minutes</t>
+  </si>
+  <si>
+    <t>FqhcCntDr</t>
+  </si>
+  <si>
+    <t>Count of FQHCs within a 30-minute driving threshold</t>
+  </si>
+  <si>
+    <t>HospMinDis</t>
+  </si>
+  <si>
+    <t>Euclidean distance* from tract/zip centroid to nearest hospital, in miles</t>
+  </si>
+  <si>
+    <t>CovidCareMap, 2020</t>
+  </si>
+  <si>
+    <t>Access03</t>
+  </si>
+  <si>
+    <t>HospTmDr</t>
+  </si>
+  <si>
+    <t>Driving time from tract/zip origin centroid to the nearest tract/zip hospital destination centroid, in minutes</t>
+  </si>
+  <si>
+    <t>HospCntDr</t>
+  </si>
+  <si>
+    <t>Count of hospitals within a 30-minute driving threshold</t>
+  </si>
+  <si>
+    <t>RxMinDis</t>
+  </si>
+  <si>
+    <t>Euclidean distance* from tract/zip centroid to nearest pharmacy, in miles</t>
+  </si>
+  <si>
+    <t>InfoGroup, 2019</t>
+  </si>
+  <si>
+    <t>Access04</t>
+  </si>
+  <si>
+    <t>RxTmDr</t>
+  </si>
+  <si>
+    <t>Driving time from tract/zip origin centroid to the nearest tract/zip pharmacy destination centroid, in minutes</t>
+  </si>
+  <si>
+    <t>RxCntDr</t>
+  </si>
+  <si>
+    <t>Count of pharmacies within a 30-minute driving threshold</t>
+  </si>
+  <si>
+    <t>MhMinDis</t>
+  </si>
+  <si>
+    <t>Euclidean distance* from tract/zip centroid to nearest mental health provider, in miles</t>
+  </si>
+  <si>
+    <t>SAMHSA, 2020</t>
+  </si>
+  <si>
+    <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+  </si>
+  <si>
+    <t>Access05</t>
+  </si>
+  <si>
+    <t>MhTmDr</t>
+  </si>
+  <si>
+    <t>Driving time from tract/zip origin centroid to the nearest tract/zip mental health provider destination centroid, in minutes</t>
+  </si>
+  <si>
+    <t>MhCntDr</t>
+  </si>
+  <si>
+    <t>Count of MH providers within a 30-minute driving threshold</t>
+  </si>
+  <si>
+    <t>SutMinDis</t>
+  </si>
+  <si>
+    <t>Euclidean distance* from tract/zip centroid to nearest SUT service location, in miles</t>
+  </si>
+  <si>
+    <t>Access06</t>
+  </si>
+  <si>
+    <t>SutTmDr</t>
+  </si>
+  <si>
+    <t>Driving time from tract/zip origin centroid to the nearest tract/zip SUT destination centroid, in minutes</t>
+  </si>
+  <si>
+    <t>SutCntDr</t>
+  </si>
+  <si>
+    <t>Count of SUT services within a 30-minute driving threshold</t>
+  </si>
+  <si>
+    <t>OtpMinDis</t>
+  </si>
+  <si>
+    <t>Euclidean distance* from tract/zip centroid to nearest OTP service location, in miles</t>
+  </si>
+  <si>
+    <t>SAMSHA, 2021</t>
+  </si>
+  <si>
+    <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
+  </si>
+  <si>
+    <t>Access07</t>
+  </si>
+  <si>
+    <t>OtpTmDr</t>
+  </si>
+  <si>
+    <t>Driving time from tract/zip origin centroid to the nearest tract/zip OTP destination centroid, in minutes</t>
+  </si>
+  <si>
+    <t>OtpCntDr</t>
+  </si>
+  <si>
+    <t>Count of OTPs within a 30-minute driving threshold</t>
+  </si>
+  <si>
+    <t>TotPcp</t>
+  </si>
+  <si>
+    <t>Number of PCPs in area</t>
+  </si>
+  <si>
+    <t>Dartmouth Atlas, 2010</t>
+  </si>
+  <si>
+    <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project</t>
+  </si>
+  <si>
+    <t>Health03</t>
+  </si>
+  <si>
+    <t>Does not include U.S. territories Puerto Rico, Guam, Northern Mariana Islands, American Samoa, Virgin Islands, or Washington, D.C.</t>
+  </si>
+  <si>
+    <t>TotSp</t>
+  </si>
+  <si>
+    <t>Number of specialty physicains in area</t>
+  </si>
+  <si>
+    <t>PcpPer100k</t>
+  </si>
+  <si>
+    <t>PCPs per total Population X 100,000</t>
+  </si>
+  <si>
+    <t>SpPer100k</t>
+  </si>
+  <si>
+    <t>Specialty Physicians per total Population X 100,000</t>
+  </si>
+  <si>
+    <t>Composite</t>
+  </si>
+  <si>
+    <t>SocEcAdvIn</t>
+  </si>
+  <si>
+    <t>Raw Socioeconomic Advantage Index (https://sdohatlas.github.io/)</t>
+  </si>
+  <si>
+    <t>GeoDa Data and Lab; SDOH Atlas</t>
+  </si>
+  <si>
+    <t>GeoDa Data and Lab; Spatial Deterimants of Health Atlas</t>
+  </si>
+  <si>
+    <t>LimMobInd</t>
+  </si>
+  <si>
+    <t>Raw Limited Mobility Index (https://sdohatlas.github.io/)</t>
+  </si>
+  <si>
+    <t>UrbCoreInd</t>
+  </si>
+  <si>
+    <t>Raw Urban Core Opportunity Index (https://sdohatlas.github.io/)</t>
+  </si>
+  <si>
+    <t>MicaInd</t>
+  </si>
+  <si>
+    <t>Raw Mixed Immigrant Cohesion and Accessibility (MICA) Index (https://sdohatlas.github.io/)</t>
+  </si>
+  <si>
+    <t>NeighbTyp</t>
+  </si>
+  <si>
+    <t>Categorical, one of seven neighborhood (tract-level) typologies: 1 = Rural Affordable; 2 = Suburban Affluent; 3 = Suburban Affordable; 4 = Extreme Poverty; 5 = Multilingual Working; 6 = Urban Core Opportunity; 7 = Sparse Areas</t>
+  </si>
+  <si>
+    <t>Kolak et al., 2020</t>
+  </si>
+  <si>
+    <t>DS02</t>
+  </si>
+  <si>
+    <t>Some tracts are not assigned with any typologies because data are missing for factor analysis.</t>
+  </si>
+  <si>
+    <t>SviTh1</t>
+  </si>
+  <si>
+    <t>SVI Ranking, Theme 1: Socioeconomic</t>
+  </si>
+  <si>
+    <t>CDC, 2018</t>
+  </si>
+  <si>
+    <t>Centers for Disease Control, 2018</t>
+  </si>
+  <si>
+    <t>DS03</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
+  </si>
+  <si>
+    <t>SviTh2</t>
+  </si>
+  <si>
+    <t>SVI Ranking, Theme 2: Household Composition &amp; Disability</t>
+  </si>
+  <si>
+    <t>SviTh3</t>
+  </si>
+  <si>
+    <t>SVI Ranking, Theme 3: Minority Status &amp; Language</t>
+  </si>
+  <si>
+    <t>SviTh4</t>
+  </si>
+  <si>
+    <t>SVI Ranking, Theme 4: Housing Type &amp; Transportation</t>
+  </si>
+  <si>
+    <t>SviSmryRnk</t>
+  </si>
+  <si>
+    <t>Overall summary ranking</t>
+  </si>
+  <si>
+    <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
+  </si>
+  <si>
+    <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/VetPop.md</t>
+  </si>
+  <si>
+    <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+  </si>
+  <si>
+    <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
+  </si>
+  <si>
+    <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+  </si>
+  <si>
+    <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
+  </si>
+  <si>
+    <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Other_Demographic_2018.md</t>
+  </si>
+  <si>
+    <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HomelessPop.md</t>
+  </si>
+  <si>
+    <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
+  </si>
+  <si>
+    <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/ForeclosureRate.md</t>
+  </si>
+  <si>
+    <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byOccupation_2018.md</t>
+  </si>
+  <si>
+    <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Internet_2019.md</t>
+  </si>
+  <si>
+    <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+  </si>
+  <si>
+    <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/NDVI.md</t>
+  </si>
+  <si>
+    <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+  </si>
+  <si>
+    <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
+  </si>
+  <si>
+    <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
+  </si>
+  <si>
+    <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
+  </si>
+  <si>
+    <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
+  </si>
+  <si>
+    <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
+  </si>
+  <si>
+    <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Health_PCPs.md</t>
+  </si>
+  <si>
+    <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
+  </si>
+  <si>
+    <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI_2018.md</t>
+  </si>
+  <si>
+    <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SDOH_2014.md</t>
+  </si>
+  <si>
+    <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1201,22 +1272,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1245,7 +1308,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1253,127 +1316,390 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Q131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="1:1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="6.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="5.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="5.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="7.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="7.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="11.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="187.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="42.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="168.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="8.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="15.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="76.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="12.84"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="18" style="1" width="11"/>
+    <col min="1" max="1" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.69921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.8984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.19921875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.796875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.09765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11" style="2"/>
+    <col min="9" max="9" width="13.3984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="59.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="163" style="1" customWidth="1"/>
+    <col min="12" max="12" width="42.69921875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="32.3984375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.69921875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.796875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="76.8984375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.796875" style="1" customWidth="1"/>
+    <col min="19" max="1025" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="n">
+      <c r="B1" s="4">
         <v>1980</v>
       </c>
-      <c r="C1" s="4" t="n">
+      <c r="C1" s="4">
         <v>1990</v>
       </c>
-      <c r="D1" s="4" t="n">
+      <c r="D1" s="4">
         <v>2000</v>
       </c>
-      <c r="E1" s="4" t="n">
+      <c r="E1" s="4">
         <v>2010</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -1391,29 +1717,29 @@
       <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1442,23 +1768,23 @@
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="3"/>
+      <c r="O2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1487,20 +1813,20 @@
       <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1529,20 +1855,20 @@
       <c r="J4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1563,23 +1889,23 @@
       <c r="J5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="P5" s="7">
         <v>36526</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1608,20 +1934,20 @@
       <c r="J6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1650,20 +1976,20 @@
       <c r="J7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -1694,26 +2020,29 @@
       <c r="J8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="1" t="n">
+      <c r="P8" s="1">
         <v>9744</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -1730,22 +2059,25 @@
         <v>49</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O9" s="1" t="n">
+      <c r="P9" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1759,22 +2091,25 @@
         <v>54</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="1" t="n">
+      <c r="P10" s="1">
         <v>9670</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -1803,25 +2138,28 @@
         <v>59</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O11" s="1" t="n">
+      <c r="P11" s="1">
         <v>4532</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -1835,22 +2173,25 @@
         <v>65</v>
       </c>
       <c r="K12" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="1" t="n">
+      <c r="P12" s="1">
         <v>5556</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1882,25 +2223,28 @@
         <v>68</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O13" s="1" t="n">
-        <v>80.29</v>
-      </c>
-      <c r="Q13" s="1" t="s">
+      <c r="P13" s="1">
+        <v>80.290000000000006</v>
+      </c>
+      <c r="R13" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -1932,25 +2276,28 @@
         <v>71</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O14" s="1" t="n">
+      <c r="P14" s="1">
         <v>13.78</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -1982,25 +2329,28 @@
         <v>73</v>
       </c>
       <c r="K15" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O15" s="1" t="n">
+      <c r="P15" s="1">
         <v>0</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -2032,25 +2382,28 @@
         <v>75</v>
       </c>
       <c r="K16" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O16" s="1" t="n">
+      <c r="P16" s="1">
         <v>0.38</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -2082,25 +2435,28 @@
         <v>77</v>
       </c>
       <c r="K17" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O17" s="1" t="n">
+      <c r="P17" s="1">
         <v>0</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -2132,25 +2488,28 @@
         <v>79</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O18" s="1" t="n">
+      <c r="P18" s="1">
         <v>5.55</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -2182,25 +2541,28 @@
         <v>81</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O19" s="1" t="n">
+      <c r="P19" s="1">
         <v>8.18</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -2226,19 +2588,22 @@
         <v>83</v>
       </c>
       <c r="K20" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O20" s="1" t="n">
+      <c r="P20" s="1">
         <v>0.23</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -2270,25 +2635,28 @@
         <v>86</v>
       </c>
       <c r="K21" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O21" s="1" t="n">
+      <c r="P21" s="1">
         <v>14.63</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -2317,25 +2685,28 @@
         <v>88</v>
       </c>
       <c r="K22" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O22" s="1" t="n">
+      <c r="P22" s="1">
         <v>66.83</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -2364,25 +2735,28 @@
         <v>90</v>
       </c>
       <c r="K23" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O23" s="1" t="n">
+      <c r="P23" s="1">
         <v>11.45</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="R23" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -2411,25 +2785,28 @@
         <v>92</v>
       </c>
       <c r="K24" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O24" s="1" t="n">
+      <c r="P24" s="1">
         <v>607</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="R24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -2458,25 +2835,28 @@
         <v>94</v>
       </c>
       <c r="K25" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O25" s="1" t="n">
+      <c r="P25" s="1">
         <v>1070</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="R25" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -2505,25 +2885,28 @@
         <v>96</v>
       </c>
       <c r="K26" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="O26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O26" s="1" t="n">
+      <c r="P26" s="1">
         <v>722</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -2552,25 +2935,28 @@
         <v>98</v>
       </c>
       <c r="K27" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O27" s="1" t="n">
+      <c r="P27" s="1">
         <v>704</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="R27" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,25 +2985,28 @@
         <v>100</v>
       </c>
       <c r="K28" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O28" s="1" t="n">
+      <c r="P28" s="1">
         <v>4835</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="R28" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -2640,22 +3029,25 @@
         <v>102</v>
       </c>
       <c r="K29" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="O29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O29" s="1" t="n">
+      <c r="P29" s="1">
         <v>495</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -2678,22 +3070,25 @@
         <v>104</v>
       </c>
       <c r="K30" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="O30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O30" s="1" t="n">
+      <c r="P30" s="1">
         <v>531</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
@@ -2707,19 +3102,22 @@
         <v>106</v>
       </c>
       <c r="K31" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L31" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="O31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="R31" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -2748,25 +3146,28 @@
         <v>111</v>
       </c>
       <c r="K32" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="O32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O32" s="1" t="n">
+      <c r="P32" s="1">
         <v>718</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="R32" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
@@ -2795,25 +3196,28 @@
         <v>113</v>
       </c>
       <c r="K33" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="O33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O33" s="1" t="n">
+      <c r="P33" s="1">
         <v>372</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="R33" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -2842,25 +3246,28 @@
         <v>115</v>
       </c>
       <c r="K34" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="O34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O34" s="1" t="n">
+      <c r="P34" s="1">
         <v>1116</v>
       </c>
-      <c r="Q34" s="1" t="s">
+      <c r="R34" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
@@ -2874,22 +3281,25 @@
         <v>117</v>
       </c>
       <c r="K35" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="N35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="O35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O35" s="1" t="n">
+      <c r="P35" s="1">
         <v>7468</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,25 +3331,28 @@
         <v>120</v>
       </c>
       <c r="K36" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="N36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="O36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O36" s="1" t="n">
+      <c r="P36" s="1">
         <v>6352</v>
       </c>
-      <c r="Q36" s="1" t="s">
+      <c r="R36" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -2962,27 +3375,30 @@
         <v>122</v>
       </c>
       <c r="K37" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="N37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="O37" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O37" s="1" t="n">
+      <c r="P37" s="1">
         <v>8.9</v>
       </c>
-      <c r="Q37" s="1" t="s">
+      <c r="R37" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>14</v>
@@ -3012,25 +3428,28 @@
         <v>128</v>
       </c>
       <c r="K38" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="N38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="O38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O38" s="1" t="n">
+      <c r="P38" s="1">
         <v>3.78</v>
       </c>
-      <c r="Q38" s="1" t="s">
+      <c r="R38" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -3050,22 +3469,25 @@
         <v>130</v>
       </c>
       <c r="K39" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L39" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="N39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="O39" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O39" s="1" t="n">
+      <c r="P39" s="1">
         <v>15.7</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -3082,22 +3504,25 @@
         <v>134</v>
       </c>
       <c r="K40" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L40" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="N40" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="O40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O40" s="1" t="n">
+      <c r="P40" s="1">
         <v>4.26</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -3114,22 +3539,25 @@
         <v>137</v>
       </c>
       <c r="K41" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L41" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="M41" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="N41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="O41" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O41" s="1" t="n">
+      <c r="P41" s="1">
         <v>18.39</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -3143,25 +3571,28 @@
         <v>139</v>
       </c>
       <c r="K42" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L42" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="M42" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="N42" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="O42" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O42" s="1" t="n">
+      <c r="P42" s="1">
         <v>0</v>
       </c>
-      <c r="P42" s="1" t="s">
+      <c r="Q42" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
@@ -3175,25 +3606,28 @@
         <v>145</v>
       </c>
       <c r="K43" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="N43" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="O43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O43" s="1" t="n">
+      <c r="P43" s="1">
         <v>0</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="Q43" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
@@ -3207,25 +3641,28 @@
         <v>147</v>
       </c>
       <c r="K44" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="M44" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="N44" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="O44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O44" s="1" t="n">
+      <c r="P44" s="1">
         <v>0</v>
       </c>
-      <c r="P44" s="1" t="s">
+      <c r="Q44" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>126</v>
       </c>
@@ -3257,25 +3694,28 @@
         <v>149</v>
       </c>
       <c r="K45" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="L45" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="O45" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O45" s="1" t="n">
+      <c r="P45" s="1">
         <v>5.6</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="R45" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>126</v>
       </c>
@@ -3307,25 +3747,28 @@
         <v>152</v>
       </c>
       <c r="K46" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="L46" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="O46" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O46" s="1" t="n">
+      <c r="P46" s="1">
         <v>14.2</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="R46" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>126</v>
       </c>
@@ -3345,19 +3788,22 @@
         <v>154</v>
       </c>
       <c r="K47" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="L47" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="M47" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="O47" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O47" s="1" t="n">
+      <c r="P47" s="1">
         <v>31504</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>126</v>
       </c>
@@ -3377,25 +3823,28 @@
         <v>157</v>
       </c>
       <c r="K48" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="L48" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="M48" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="N48" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="O48" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O48" s="1" t="n">
+      <c r="P48" s="1">
         <v>29969</v>
       </c>
-      <c r="Q48" s="1" t="s">
+      <c r="R48" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>126</v>
       </c>
@@ -3409,28 +3858,31 @@
         <v>160</v>
       </c>
       <c r="K49" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="L49" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="M49" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="N49" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="O49" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O49" s="1" t="n">
+      <c r="P49" s="1">
         <v>9.1</v>
       </c>
-      <c r="P49" s="1" t="s">
+      <c r="Q49" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="Q49" s="6" t="s">
+      <c r="R49" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>126</v>
       </c>
@@ -3444,28 +3896,31 @@
         <v>166</v>
       </c>
       <c r="K50" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="L50" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="M50" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="N50" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="O50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O50" s="1" t="n">
+      <c r="P50" s="1">
         <v>128</v>
       </c>
-      <c r="P50" s="1" t="s">
+      <c r="Q50" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="Q50" s="6" t="s">
+      <c r="R50" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>126</v>
       </c>
@@ -3485,19 +3940,22 @@
         <v>168</v>
       </c>
       <c r="K51" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="L51" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="M51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="O51" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O51" s="1" t="n">
+      <c r="P51" s="1">
         <v>0.38</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>126</v>
       </c>
@@ -3511,25 +3969,28 @@
         <v>170</v>
       </c>
       <c r="K52" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="L52" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="M52" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="N52" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N52" s="1" t="s">
+      <c r="O52" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O52" s="1" t="n">
-        <v>8.03</v>
-      </c>
-      <c r="P52" s="6" t="s">
+      <c r="P52" s="1">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="Q52" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>126</v>
       </c>
@@ -3546,25 +4007,28 @@
         <v>173</v>
       </c>
       <c r="K53" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="L53" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="M53" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="N53" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="O53" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O53" s="1" t="n">
+      <c r="P53" s="1">
         <v>16.18</v>
       </c>
-      <c r="P53" s="6" t="s">
+      <c r="Q53" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>126</v>
       </c>
@@ -3578,25 +4042,28 @@
         <v>175</v>
       </c>
       <c r="K54" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="L54" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="M54" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="N54" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="O54" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O54" s="1" t="n">
+      <c r="P54" s="1">
         <v>14.7</v>
       </c>
-      <c r="P54" s="6" t="s">
+      <c r="Q54" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>126</v>
       </c>
@@ -3610,25 +4077,28 @@
         <v>177</v>
       </c>
       <c r="K55" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="M55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="N55" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="O55" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O55" s="1" t="n">
+      <c r="P55" s="1">
         <v>15.39</v>
       </c>
-      <c r="P55" s="6" t="s">
+      <c r="Q55" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>126</v>
       </c>
@@ -3642,22 +4112,25 @@
         <v>179</v>
       </c>
       <c r="K56" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="L56" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="M56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="N56" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="O56" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O56" s="1" t="n">
+      <c r="P56" s="1">
         <v>2092</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>126</v>
       </c>
@@ -3674,22 +4147,25 @@
         <v>182</v>
       </c>
       <c r="K57" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="L57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="M57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="N57" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N57" s="1" t="s">
+      <c r="O57" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O57" s="1" t="n">
+      <c r="P57" s="1">
         <v>37.65</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>183</v>
       </c>
@@ -3706,22 +4182,25 @@
         <v>185</v>
       </c>
       <c r="K58" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="L58" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="M58" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="N58" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="N58" s="1" t="s">
+      <c r="O58" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O58" s="1" t="n">
+      <c r="P58" s="1">
         <v>6.64</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>183</v>
       </c>
@@ -3753,25 +4232,28 @@
         <v>190</v>
       </c>
       <c r="K59" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L59" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="M59" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="N59" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N59" s="1" t="s">
+      <c r="O59" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O59" s="1" t="n">
+      <c r="P59" s="1">
         <v>11.72</v>
       </c>
-      <c r="Q59" s="1" t="s">
+      <c r="R59" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>183</v>
       </c>
@@ -3785,22 +4267,25 @@
         <v>194</v>
       </c>
       <c r="K60" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L60" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="M60" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="N60" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="O60" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O60" s="1" t="n">
+      <c r="P60" s="1">
         <v>0.68</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>183</v>
       </c>
@@ -3814,22 +4299,25 @@
         <v>196</v>
       </c>
       <c r="K61" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L61" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="M61" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="N61" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N61" s="1" t="s">
+      <c r="O61" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O61" s="1" t="n">
+      <c r="P61" s="1">
         <v>8.66</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>183</v>
       </c>
@@ -3843,22 +4331,25 @@
         <v>198</v>
       </c>
       <c r="K62" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="M62" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="N62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N62" s="1" t="s">
+      <c r="O62" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O62" s="1" t="n">
-        <v>19.9</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P62" s="1">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>183</v>
       </c>
@@ -3872,22 +4363,25 @@
         <v>200</v>
       </c>
       <c r="K63" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L63" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="M63" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="N63" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N63" s="1" t="s">
+      <c r="O63" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O63" s="1" t="n">
+      <c r="P63" s="1">
         <v>673.09</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>183</v>
       </c>
@@ -3901,22 +4395,25 @@
         <v>202</v>
       </c>
       <c r="K64" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L64" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="M64" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="N64" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="O64" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="O64" s="1" t="n">
+      <c r="P64" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>183</v>
       </c>
@@ -3930,22 +4427,25 @@
         <v>208</v>
       </c>
       <c r="K65" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L65" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="M65" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="N65" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="N65" s="1" t="s">
+      <c r="O65" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="O65" s="1" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P65" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>183</v>
       </c>
@@ -3962,150 +4462,189 @@
         <v>210</v>
       </c>
       <c r="K66" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L66" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="M66" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="N66" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="N66" s="1" t="s">
+      <c r="O66" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="O66" s="1" t="s">
+      <c r="P66" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="131.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I67" s="1" t="s">
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="J67" s="8" t="s">
         <v>214</v>
       </c>
       <c r="K67" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="L67" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="M67" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="N67" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="N67" s="1" t="s">
+      <c r="O67" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="O67" s="1" t="n">
+      <c r="P67" s="8">
         <v>6.73</v>
       </c>
-      <c r="P67" s="8" t="s">
+      <c r="Q67" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="131.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A68" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I68" s="1" t="s">
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="J68" s="8" t="s">
         <v>220</v>
       </c>
       <c r="K68" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="L68" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="M68" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="N68" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="N68" s="1" t="s">
+      <c r="O68" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="O68" s="1" t="n">
+      <c r="P68" s="8">
         <v>1</v>
       </c>
-      <c r="P68" s="8" t="s">
+      <c r="Q68" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="131.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A69" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I69" s="1" t="s">
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="J69" s="8" t="s">
         <v>222</v>
       </c>
       <c r="K69" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="L69" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="M69" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="M69" s="1" t="s">
+      <c r="N69" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="N69" s="1" t="s">
+      <c r="O69" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="O69" s="1" t="n">
+      <c r="P69" s="8">
         <v>0.15</v>
       </c>
-      <c r="P69" s="8" t="s">
+      <c r="Q69" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="131.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A70" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I70" s="1" t="s">
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="J70" s="8" t="s">
         <v>224</v>
       </c>
       <c r="K70" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="L70" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="M70" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="M70" s="1" t="s">
+      <c r="N70" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="N70" s="1" t="s">
+      <c r="O70" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="O70" s="1" t="n">
+      <c r="P70" s="8">
         <v>0</v>
       </c>
-      <c r="P70" s="8" t="s">
+      <c r="Q70" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>183</v>
       </c>
@@ -4122,25 +4661,28 @@
         <v>226</v>
       </c>
       <c r="K71" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="L71" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="M71" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="M71" s="1" t="s">
+      <c r="N71" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="N71" s="1" t="s">
+      <c r="O71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O71" s="1" t="n">
+      <c r="P71" s="1">
         <v>0.15</v>
       </c>
-      <c r="P71" s="1" t="s">
+      <c r="Q71" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>183</v>
       </c>
@@ -4154,28 +4696,31 @@
         <v>232</v>
       </c>
       <c r="K72" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L72" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="M72" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="N72" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N72" s="1" t="s">
+      <c r="O72" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O72" s="1" t="n">
+      <c r="P72" s="1">
         <v>0.81</v>
       </c>
-      <c r="P72" s="6" t="s">
+      <c r="Q72" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q72" s="6" t="s">
+      <c r="R72" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>183</v>
       </c>
@@ -4189,28 +4734,31 @@
         <v>239</v>
       </c>
       <c r="K73" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L73" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L73" s="1" t="s">
+      <c r="M73" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M73" s="1" t="s">
+      <c r="N73" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N73" s="1" t="s">
+      <c r="O73" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O73" s="1" t="n">
+      <c r="P73" s="1">
         <v>0.81</v>
       </c>
-      <c r="P73" s="6" t="s">
+      <c r="Q73" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q73" s="6" t="s">
+      <c r="R73" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>183</v>
       </c>
@@ -4227,28 +4775,31 @@
         <v>241</v>
       </c>
       <c r="K74" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L74" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="M74" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M74" s="1" t="s">
+      <c r="N74" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N74" s="1" t="s">
+      <c r="O74" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O74" s="1" t="n">
+      <c r="P74" s="1">
         <v>0</v>
       </c>
-      <c r="P74" s="6" t="s">
+      <c r="Q74" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q74" s="6" t="s">
+      <c r="R74" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>183</v>
       </c>
@@ -4262,28 +4813,31 @@
         <v>243</v>
       </c>
       <c r="K75" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L75" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="M75" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M75" s="1" t="s">
+      <c r="N75" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N75" s="1" t="s">
+      <c r="O75" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O75" s="1" t="n">
+      <c r="P75" s="1">
         <v>21</v>
       </c>
-      <c r="P75" s="6" t="s">
+      <c r="Q75" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q75" s="6" t="s">
+      <c r="R75" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>183</v>
       </c>
@@ -4297,28 +4851,31 @@
         <v>245</v>
       </c>
       <c r="K76" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L76" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="M76" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M76" s="1" t="s">
+      <c r="N76" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N76" s="1" t="s">
+      <c r="O76" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O76" s="1" t="n">
+      <c r="P76" s="1">
         <v>13.22</v>
       </c>
-      <c r="P76" s="6" t="s">
+      <c r="Q76" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q76" s="6" t="s">
+      <c r="R76" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>183</v>
       </c>
@@ -4335,28 +4892,31 @@
         <v>247</v>
       </c>
       <c r="K77" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L77" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L77" s="1" t="s">
+      <c r="M77" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M77" s="1" t="s">
+      <c r="N77" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N77" s="1" t="s">
+      <c r="O77" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O77" s="1" t="n">
+      <c r="P77" s="1">
         <v>27.39</v>
       </c>
-      <c r="P77" s="6" t="s">
+      <c r="Q77" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q77" s="6" t="s">
+      <c r="R77" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>183</v>
       </c>
@@ -4370,28 +4930,31 @@
         <v>243</v>
       </c>
       <c r="K78" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L78" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L78" s="1" t="s">
+      <c r="M78" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M78" s="1" t="s">
+      <c r="N78" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N78" s="1" t="s">
+      <c r="O78" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O78" s="1" t="n">
+      <c r="P78" s="1">
         <v>1</v>
       </c>
-      <c r="P78" s="6" t="s">
+      <c r="Q78" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q78" s="6" t="s">
+      <c r="R78" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>183</v>
       </c>
@@ -4405,28 +4968,31 @@
         <v>250</v>
       </c>
       <c r="K79" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L79" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L79" s="1" t="s">
+      <c r="M79" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M79" s="1" t="s">
+      <c r="N79" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N79" s="1" t="s">
+      <c r="O79" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O79" s="1" t="n">
+      <c r="P79" s="1">
         <v>18.04</v>
       </c>
-      <c r="P79" s="6" t="s">
+      <c r="Q79" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q79" s="6" t="s">
+      <c r="R79" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>183</v>
       </c>
@@ -4443,28 +5009,31 @@
         <v>252</v>
       </c>
       <c r="K80" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L80" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L80" s="1" t="s">
+      <c r="M80" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M80" s="1" t="s">
+      <c r="N80" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N80" s="1" t="s">
+      <c r="O80" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O80" s="1" t="n">
-        <v>35.34</v>
-      </c>
-      <c r="P80" s="6" t="s">
+      <c r="P80" s="1">
+        <v>35.340000000000003</v>
+      </c>
+      <c r="Q80" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q80" s="6" t="s">
+      <c r="R80" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>183</v>
       </c>
@@ -4478,28 +5047,31 @@
         <v>254</v>
       </c>
       <c r="K81" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L81" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L81" s="1" t="s">
+      <c r="M81" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M81" s="1" t="s">
+      <c r="N81" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N81" s="1" t="s">
+      <c r="O81" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O81" s="1" t="n">
+      <c r="P81" s="1">
         <v>0</v>
       </c>
-      <c r="P81" s="6" t="s">
+      <c r="Q81" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q81" s="6" t="s">
+      <c r="R81" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>183</v>
       </c>
@@ -4516,28 +5088,31 @@
         <v>256</v>
       </c>
       <c r="K82" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L82" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L82" s="1" t="s">
+      <c r="M82" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M82" s="1" t="s">
+      <c r="N82" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N82" s="1" t="s">
+      <c r="O82" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O82" s="1" t="n">
+      <c r="P82" s="1">
         <v>0</v>
       </c>
-      <c r="P82" s="6" t="s">
+      <c r="Q82" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q82" s="6" t="s">
+      <c r="R82" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>183</v>
       </c>
@@ -4551,28 +5126,31 @@
         <v>258</v>
       </c>
       <c r="K83" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L83" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="M83" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M83" s="1" t="s">
+      <c r="N83" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N83" s="1" t="s">
+      <c r="O83" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O83" s="1" t="n">
+      <c r="P83" s="1">
         <v>2</v>
       </c>
-      <c r="P83" s="6" t="s">
+      <c r="Q83" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q83" s="6" t="s">
+      <c r="R83" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>183</v>
       </c>
@@ -4586,28 +5164,31 @@
         <v>260</v>
       </c>
       <c r="K84" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L84" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L84" s="1" t="s">
+      <c r="M84" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M84" s="1" t="s">
+      <c r="N84" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N84" s="1" t="s">
+      <c r="O84" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O84" s="1" t="n">
+      <c r="P84" s="1">
         <v>2</v>
       </c>
-      <c r="P84" s="6" t="s">
+      <c r="Q84" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q84" s="6" t="s">
+      <c r="R84" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>183</v>
       </c>
@@ -4624,28 +5205,31 @@
         <v>262</v>
       </c>
       <c r="K85" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L85" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L85" s="1" t="s">
+      <c r="M85" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M85" s="1" t="s">
+      <c r="N85" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N85" s="1" t="s">
+      <c r="O85" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O85" s="1" t="n">
+      <c r="P85" s="1">
         <v>1744.66</v>
       </c>
-      <c r="P85" s="6" t="s">
+      <c r="Q85" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q85" s="6" t="s">
+      <c r="R85" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>183</v>
       </c>
@@ -4659,28 +5243,31 @@
         <v>264</v>
       </c>
       <c r="K86" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L86" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L86" s="1" t="s">
+      <c r="M86" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M86" s="1" t="s">
+      <c r="N86" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N86" s="1" t="s">
+      <c r="O86" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O86" s="1" t="n">
+      <c r="P86" s="1">
         <v>0</v>
       </c>
-      <c r="P86" s="6" t="s">
+      <c r="Q86" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q86" s="6" t="s">
+      <c r="R86" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>183</v>
       </c>
@@ -4694,28 +5281,31 @@
         <v>266</v>
       </c>
       <c r="K87" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L87" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L87" s="1" t="s">
+      <c r="M87" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M87" s="1" t="s">
+      <c r="N87" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N87" s="1" t="s">
+      <c r="O87" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O87" s="1" t="n">
+      <c r="P87" s="1">
         <v>0</v>
       </c>
-      <c r="P87" s="6" t="s">
+      <c r="Q87" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q87" s="6" t="s">
+      <c r="R87" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>183</v>
       </c>
@@ -4732,28 +5322,31 @@
         <v>268</v>
       </c>
       <c r="K88" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L88" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L88" s="1" t="s">
+      <c r="M88" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M88" s="1" t="s">
+      <c r="N88" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N88" s="1" t="s">
+      <c r="O88" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O88" s="1" t="s">
+      <c r="P88" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="P88" s="6" t="s">
+      <c r="Q88" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q88" s="6" t="s">
+      <c r="R88" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>183</v>
       </c>
@@ -4767,28 +5360,31 @@
         <v>271</v>
       </c>
       <c r="K89" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L89" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L89" s="1" t="s">
+      <c r="M89" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M89" s="1" t="s">
+      <c r="N89" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N89" s="1" t="s">
+      <c r="O89" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O89" s="1" t="n">
+      <c r="P89" s="1">
         <v>0</v>
       </c>
-      <c r="P89" s="6" t="s">
+      <c r="Q89" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q89" s="6" t="s">
+      <c r="R89" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>183</v>
       </c>
@@ -4802,28 +5398,31 @@
         <v>273</v>
       </c>
       <c r="K90" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L90" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L90" s="1" t="s">
+      <c r="M90" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M90" s="1" t="s">
+      <c r="N90" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N90" s="1" t="s">
+      <c r="O90" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O90" s="1" t="n">
+      <c r="P90" s="1">
         <v>0</v>
       </c>
-      <c r="P90" s="6" t="s">
+      <c r="Q90" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q90" s="6" t="s">
+      <c r="R90" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>183</v>
       </c>
@@ -4840,28 +5439,31 @@
         <v>275</v>
       </c>
       <c r="K91" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L91" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L91" s="1" t="s">
+      <c r="M91" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M91" s="1" t="s">
+      <c r="N91" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N91" s="1" t="s">
+      <c r="O91" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O91" s="1" t="n">
+      <c r="P91" s="1">
         <v>0</v>
       </c>
-      <c r="P91" s="6" t="s">
+      <c r="Q91" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q91" s="6" t="s">
+      <c r="R91" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>183</v>
       </c>
@@ -4875,28 +5477,31 @@
         <v>277</v>
       </c>
       <c r="K92" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L92" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L92" s="1" t="s">
+      <c r="M92" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M92" s="1" t="s">
+      <c r="N92" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N92" s="1" t="s">
+      <c r="O92" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O92" s="1" t="n">
+      <c r="P92" s="1">
         <v>4</v>
       </c>
-      <c r="P92" s="6" t="s">
+      <c r="Q92" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q92" s="6" t="s">
+      <c r="R92" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>183</v>
       </c>
@@ -4910,28 +5515,31 @@
         <v>279</v>
       </c>
       <c r="K93" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L93" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L93" s="1" t="s">
+      <c r="M93" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M93" s="1" t="s">
+      <c r="N93" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N93" s="1" t="s">
+      <c r="O93" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O93" s="1" t="n">
+      <c r="P93" s="1">
         <v>3</v>
       </c>
-      <c r="P93" s="6" t="s">
+      <c r="Q93" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q93" s="6" t="s">
+      <c r="R93" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>183</v>
       </c>
@@ -4948,28 +5556,31 @@
         <v>281</v>
       </c>
       <c r="K94" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L94" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L94" s="1" t="s">
+      <c r="M94" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M94" s="1" t="s">
+      <c r="N94" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N94" s="1" t="s">
+      <c r="O94" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O94" s="1" t="n">
+      <c r="P94" s="1">
         <v>148.18</v>
       </c>
-      <c r="P94" s="6" t="s">
+      <c r="Q94" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q94" s="6" t="s">
+      <c r="R94" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>183</v>
       </c>
@@ -4983,28 +5594,31 @@
         <v>283</v>
       </c>
       <c r="K95" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L95" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L95" s="1" t="s">
+      <c r="M95" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M95" s="1" t="s">
+      <c r="N95" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N95" s="1" t="s">
+      <c r="O95" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O95" s="1" t="n">
+      <c r="P95" s="1">
         <v>0</v>
       </c>
-      <c r="P95" s="6" t="s">
+      <c r="Q95" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q95" s="6" t="s">
+      <c r="R95" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>183</v>
       </c>
@@ -5018,28 +5632,31 @@
         <v>285</v>
       </c>
       <c r="K96" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L96" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L96" s="1" t="s">
+      <c r="M96" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M96" s="1" t="s">
+      <c r="N96" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N96" s="1" t="s">
+      <c r="O96" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O96" s="1" t="n">
+      <c r="P96" s="1">
         <v>0</v>
       </c>
-      <c r="P96" s="6" t="s">
+      <c r="Q96" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q96" s="6" t="s">
+      <c r="R96" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>183</v>
       </c>
@@ -5056,28 +5673,31 @@
         <v>287</v>
       </c>
       <c r="K97" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L97" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L97" s="1" t="s">
+      <c r="M97" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M97" s="1" t="s">
+      <c r="N97" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N97" s="1" t="s">
+      <c r="O97" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O97" s="1" t="n">
+      <c r="P97" s="1">
         <v>165.18</v>
       </c>
-      <c r="P97" s="6" t="s">
+      <c r="Q97" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q97" s="6" t="s">
+      <c r="R97" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>183</v>
       </c>
@@ -5091,28 +5711,31 @@
         <v>289</v>
       </c>
       <c r="K98" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L98" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L98" s="1" t="s">
+      <c r="M98" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M98" s="1" t="s">
+      <c r="N98" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N98" s="1" t="s">
+      <c r="O98" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O98" s="1" t="n">
+      <c r="P98" s="1">
         <v>0</v>
       </c>
-      <c r="P98" s="6" t="s">
+      <c r="Q98" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q98" s="6" t="s">
+      <c r="R98" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>183</v>
       </c>
@@ -5126,28 +5749,31 @@
         <v>291</v>
       </c>
       <c r="K99" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L99" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L99" s="1" t="s">
+      <c r="M99" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M99" s="1" t="s">
+      <c r="N99" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N99" s="1" t="s">
+      <c r="O99" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O99" s="1" t="n">
+      <c r="P99" s="1">
         <v>0</v>
       </c>
-      <c r="P99" s="6" t="s">
+      <c r="Q99" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Q99" s="6" t="s">
+      <c r="R99" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>183</v>
       </c>
@@ -5161,28 +5787,31 @@
         <v>293</v>
       </c>
       <c r="K100" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="L100" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="L100" s="1" t="s">
+      <c r="M100" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="M100" s="1" t="s">
+      <c r="N100" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="N100" s="1" t="s">
+      <c r="O100" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O100" s="1" t="n">
+      <c r="P100" s="1">
         <v>10.23</v>
       </c>
-      <c r="P100" s="6" t="s">
+      <c r="Q100" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="Q100" s="6" t="s">
+      <c r="R100" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>183</v>
       </c>
@@ -5199,28 +5828,31 @@
         <v>300</v>
       </c>
       <c r="K101" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="L101" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="L101" s="1" t="s">
+      <c r="M101" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="M101" s="1" t="s">
+      <c r="N101" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="N101" s="1" t="s">
+      <c r="O101" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O101" s="1" t="n">
+      <c r="P101" s="1">
         <v>19.16</v>
       </c>
-      <c r="P101" s="6" t="s">
+      <c r="Q101" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="Q101" s="6" t="s">
+      <c r="R101" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>183</v>
       </c>
@@ -5234,28 +5866,31 @@
         <v>302</v>
       </c>
       <c r="K102" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="L102" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="L102" s="1" t="s">
+      <c r="M102" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="M102" s="1" t="s">
+      <c r="N102" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="N102" s="1" t="s">
+      <c r="O102" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O102" s="1" t="n">
+      <c r="P102" s="1">
         <v>17</v>
       </c>
-      <c r="P102" s="6" t="s">
+      <c r="Q102" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="Q102" s="6" t="s">
+      <c r="R102" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>183</v>
       </c>
@@ -5269,28 +5904,31 @@
         <v>304</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>305</v>
+        <v>403</v>
       </c>
       <c r="L103" s="1" t="s">
         <v>305</v>
       </c>
       <c r="M103" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="N103" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="N103" s="1" t="s">
+      <c r="O103" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O103" s="1" t="n">
+      <c r="P103" s="1">
         <v>0.31</v>
       </c>
-      <c r="P103" s="6" t="s">
+      <c r="Q103" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="Q103" s="6" t="s">
+      <c r="R103" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>183</v>
       </c>
@@ -5307,28 +5945,31 @@
         <v>308</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>305</v>
+        <v>403</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>305</v>
       </c>
       <c r="M104" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="N104" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="N104" s="1" t="s">
+      <c r="O104" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O104" s="1" t="n">
+      <c r="P104" s="1">
         <v>0</v>
       </c>
-      <c r="P104" s="6" t="s">
+      <c r="Q104" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="Q104" s="6" t="s">
+      <c r="R104" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>183</v>
       </c>
@@ -5342,28 +5983,31 @@
         <v>310</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>305</v>
+        <v>403</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>305</v>
       </c>
       <c r="M105" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="N105" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="N105" s="1" t="s">
+      <c r="O105" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O105" s="1" t="n">
+      <c r="P105" s="1">
         <v>6</v>
       </c>
-      <c r="P105" s="6" t="s">
+      <c r="Q105" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="Q105" s="6" t="s">
+      <c r="R105" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>183</v>
       </c>
@@ -5377,28 +6021,31 @@
         <v>312</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>313</v>
+        <v>404</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>313</v>
       </c>
       <c r="M106" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="N106" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="N106" s="1" t="s">
+      <c r="O106" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O106" s="1" t="n">
+      <c r="P106" s="1">
         <v>0.84</v>
       </c>
-      <c r="P106" s="6" t="s">
+      <c r="Q106" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="Q106" s="6" t="s">
+      <c r="R106" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>183</v>
       </c>
@@ -5415,28 +6062,31 @@
         <v>316</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>313</v>
+        <v>404</v>
       </c>
       <c r="L107" s="1" t="s">
         <v>313</v>
       </c>
       <c r="M107" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="N107" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="N107" s="1" t="s">
+      <c r="O107" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O107" s="1" t="n">
+      <c r="P107" s="1">
         <v>0</v>
       </c>
-      <c r="P107" s="6" t="s">
+      <c r="Q107" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="Q107" s="6" t="s">
+      <c r="R107" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>183</v>
       </c>
@@ -5450,28 +6100,31 @@
         <v>318</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>313</v>
+        <v>404</v>
       </c>
       <c r="L108" s="1" t="s">
         <v>313</v>
       </c>
       <c r="M108" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="N108" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="N108" s="1" t="s">
+      <c r="O108" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O108" s="1" t="n">
+      <c r="P108" s="1">
         <v>58</v>
       </c>
-      <c r="P108" s="6" t="s">
+      <c r="Q108" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="Q108" s="6" t="s">
+      <c r="R108" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>183</v>
       </c>
@@ -5485,28 +6138,31 @@
         <v>320</v>
       </c>
       <c r="K109" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="L109" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="L109" s="1" t="s">
+      <c r="M109" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="M109" s="1" t="s">
+      <c r="N109" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="N109" s="1" t="s">
+      <c r="O109" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O109" s="1" t="n">
+      <c r="P109" s="1">
         <v>0.2</v>
       </c>
-      <c r="P109" s="6" t="s">
+      <c r="Q109" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="Q109" s="6" t="s">
+      <c r="R109" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>183</v>
       </c>
@@ -5523,28 +6179,31 @@
         <v>325</v>
       </c>
       <c r="K110" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="L110" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="L110" s="1" t="s">
+      <c r="M110" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="M110" s="1" t="s">
+      <c r="N110" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="N110" s="1" t="s">
+      <c r="O110" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O110" s="1" t="n">
+      <c r="P110" s="1">
         <v>0</v>
       </c>
-      <c r="P110" s="6" t="s">
+      <c r="Q110" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="Q110" s="6" t="s">
+      <c r="R110" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>183</v>
       </c>
@@ -5558,28 +6217,31 @@
         <v>327</v>
       </c>
       <c r="K111" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="L111" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="L111" s="1" t="s">
+      <c r="M111" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="M111" s="1" t="s">
+      <c r="N111" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="N111" s="1" t="s">
+      <c r="O111" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O111" s="1" t="n">
+      <c r="P111" s="1">
         <v>3</v>
       </c>
-      <c r="P111" s="6" t="s">
+      <c r="Q111" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="Q111" s="6" t="s">
+      <c r="R111" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>183</v>
       </c>
@@ -5593,28 +6255,31 @@
         <v>329</v>
       </c>
       <c r="K112" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="L112" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="L112" s="1" t="s">
+      <c r="M112" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="M112" s="1" t="s">
+      <c r="N112" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="N112" s="1" t="s">
+      <c r="O112" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O112" s="1" t="n">
+      <c r="P112" s="1">
         <v>4.99</v>
       </c>
-      <c r="P112" s="6" t="s">
+      <c r="Q112" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="Q112" s="6" t="s">
+      <c r="R112" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>183</v>
       </c>
@@ -5631,28 +6296,31 @@
         <v>332</v>
       </c>
       <c r="K113" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="L113" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="L113" s="1" t="s">
+      <c r="M113" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="M113" s="1" t="s">
+      <c r="N113" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="N113" s="1" t="s">
+      <c r="O113" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O113" s="1" t="n">
-        <v>17.76</v>
-      </c>
-      <c r="P113" s="6" t="s">
+      <c r="P113" s="1">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="Q113" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="Q113" s="6" t="s">
+      <c r="R113" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>183</v>
       </c>
@@ -5666,28 +6334,31 @@
         <v>334</v>
       </c>
       <c r="K114" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="L114" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="L114" s="1" t="s">
+      <c r="M114" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="M114" s="1" t="s">
+      <c r="N114" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="N114" s="1" t="s">
+      <c r="O114" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O114" s="1" t="n">
+      <c r="P114" s="1">
         <v>4</v>
       </c>
-      <c r="P114" s="6" t="s">
+      <c r="Q114" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="Q114" s="6" t="s">
+      <c r="R114" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>183</v>
       </c>
@@ -5700,29 +6371,32 @@
       <c r="J115" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="K115" s="1" t="s">
+      <c r="K115" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="L115" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="L115" s="1" t="s">
+      <c r="M115" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="M115" s="1" t="s">
+      <c r="N115" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="N115" s="1" t="s">
+      <c r="O115" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O115" s="1" t="n">
+      <c r="P115" s="1">
         <v>13.12</v>
       </c>
-      <c r="P115" s="6" t="s">
+      <c r="Q115" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="Q115" s="6" t="s">
+      <c r="R115" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>183</v>
       </c>
@@ -5738,29 +6412,32 @@
       <c r="J116" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="K116" s="1" t="s">
+      <c r="K116" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="L116" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="L116" s="1" t="s">
+      <c r="M116" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="M116" s="1" t="s">
+      <c r="N116" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="N116" s="1" t="s">
+      <c r="O116" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O116" s="1" t="n">
+      <c r="P116" s="1">
         <v>27.39</v>
       </c>
-      <c r="P116" s="6" t="s">
+      <c r="Q116" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="Q116" s="6" t="s">
+      <c r="R116" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>183</v>
       </c>
@@ -5773,29 +6450,32 @@
       <c r="J117" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K117" s="1" t="s">
+      <c r="K117" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="L117" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="L117" s="1" t="s">
+      <c r="M117" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="M117" s="1" t="s">
+      <c r="N117" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="N117" s="1" t="s">
+      <c r="O117" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O117" s="1" t="n">
+      <c r="P117" s="1">
         <v>1</v>
       </c>
-      <c r="P117" s="6" t="s">
+      <c r="Q117" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="Q117" s="6" t="s">
+      <c r="R117" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>183</v>
       </c>
@@ -5812,25 +6492,28 @@
         <v>345</v>
       </c>
       <c r="K118" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="L118" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="L118" s="1" t="s">
+      <c r="M118" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="M118" s="1" t="s">
+      <c r="N118" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="N118" s="1" t="s">
+      <c r="O118" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O118" s="1" t="n">
+      <c r="P118" s="1">
         <v>13</v>
       </c>
-      <c r="P118" s="6" t="s">
+      <c r="Q118" s="6" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>183</v>
       </c>
@@ -5844,25 +6527,28 @@
         <v>351</v>
       </c>
       <c r="K119" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="L119" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="L119" s="1" t="s">
+      <c r="M119" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="M119" s="1" t="s">
+      <c r="N119" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="N119" s="1" t="s">
+      <c r="O119" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O119" s="1" t="n">
+      <c r="P119" s="1">
         <v>4</v>
       </c>
-      <c r="P119" s="6" t="s">
+      <c r="Q119" s="6" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>183</v>
       </c>
@@ -5879,22 +6565,25 @@
         <v>353</v>
       </c>
       <c r="K120" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="L120" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="L120" s="1" t="s">
+      <c r="M120" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="N120" s="1" t="s">
+      <c r="O120" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O120" s="1" t="n">
-        <v>133.42</v>
-      </c>
-      <c r="P120" s="6" t="s">
+      <c r="P120" s="1">
+        <v>133.41999999999999</v>
+      </c>
+      <c r="Q120" s="6" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>183</v>
       </c>
@@ -5908,22 +6597,25 @@
         <v>355</v>
       </c>
       <c r="K121" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="L121" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="L121" s="1" t="s">
+      <c r="M121" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="N121" s="1" t="s">
+      <c r="O121" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O121" s="1" t="n">
+      <c r="P121" s="1">
         <v>41.05</v>
       </c>
-      <c r="P121" s="6" t="s">
+      <c r="Q121" s="6" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>356</v>
       </c>
@@ -5939,20 +6631,20 @@
       <c r="J122" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="K122" s="1" t="s">
+      <c r="L122" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="L122" s="1" t="s">
+      <c r="M122" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="N122" s="1" t="s">
+      <c r="O122" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O122" s="1" t="n">
+      <c r="P122" s="1">
         <v>1.17</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>356</v>
       </c>
@@ -5968,20 +6660,20 @@
       <c r="J123" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="K123" s="1" t="s">
+      <c r="L123" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="L123" s="1" t="s">
+      <c r="M123" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="N123" s="1" t="s">
+      <c r="O123" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O123" s="1" t="n">
+      <c r="P123" s="1">
         <v>0.54</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>356</v>
       </c>
@@ -5997,20 +6689,20 @@
       <c r="J124" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="K124" s="1" t="s">
+      <c r="L124" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="L124" s="1" t="s">
+      <c r="M124" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="N124" s="1" t="s">
+      <c r="O124" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O124" s="1" t="n">
+      <c r="P124" s="1">
         <v>-0.06</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>356</v>
       </c>
@@ -6026,20 +6718,20 @@
       <c r="J125" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="K125" s="1" t="s">
+      <c r="L125" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="L125" s="1" t="s">
+      <c r="M125" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="N125" s="1" t="s">
+      <c r="O125" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O125" s="1" t="n">
+      <c r="P125" s="1">
         <v>0.59</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>356</v>
       </c>
@@ -6053,25 +6745,28 @@
         <v>368</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>369</v>
       </c>
       <c r="M126" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="N126" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="N126" s="1" t="s">
+      <c r="O126" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="O126" s="1" t="n">
+      <c r="P126" s="1">
         <v>3</v>
       </c>
-      <c r="P126" s="1" t="s">
+      <c r="Q126" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>356</v>
       </c>
@@ -6088,25 +6783,28 @@
         <v>373</v>
       </c>
       <c r="K127" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L127" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="L127" s="1" t="s">
+      <c r="M127" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="M127" s="1" t="s">
+      <c r="N127" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="N127" s="1" t="s">
+      <c r="O127" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="O127" s="1" t="n">
+      <c r="P127" s="1">
         <v>0.43</v>
       </c>
-      <c r="P127" s="1" t="s">
+      <c r="Q127" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>356</v>
       </c>
@@ -6120,25 +6818,28 @@
         <v>380</v>
       </c>
       <c r="K128" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L128" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="L128" s="1" t="s">
+      <c r="M128" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="M128" s="1" t="s">
+      <c r="N128" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="N128" s="1" t="s">
+      <c r="O128" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="O128" s="1" t="n">
+      <c r="P128" s="1">
         <v>0.3</v>
       </c>
-      <c r="P128" s="1" t="s">
+      <c r="Q128" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>356</v>
       </c>
@@ -6152,25 +6853,28 @@
         <v>382</v>
       </c>
       <c r="K129" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L129" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="L129" s="1" t="s">
+      <c r="M129" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="M129" s="1" t="s">
+      <c r="N129" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="N129" s="1" t="s">
+      <c r="O129" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="O129" s="1" t="n">
+      <c r="P129" s="1">
         <v>0.2</v>
       </c>
-      <c r="P129" s="1" t="s">
+      <c r="Q129" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>356</v>
       </c>
@@ -6187,25 +6891,28 @@
         <v>384</v>
       </c>
       <c r="K130" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L130" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="L130" s="1" t="s">
+      <c r="M130" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="M130" s="1" t="s">
+      <c r="N130" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="N130" s="1" t="s">
+      <c r="O130" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="O130" s="1" t="n">
+      <c r="P130" s="1">
         <v>0.61</v>
       </c>
-      <c r="P130" s="1" t="s">
+      <c r="Q130" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>356</v>
       </c>
@@ -6219,37 +6926,35 @@
         <v>386</v>
       </c>
       <c r="K131" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L131" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="L131" s="1" t="s">
+      <c r="M131" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="M131" s="1" t="s">
+      <c r="N131" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="N131" s="1" t="s">
+      <c r="O131" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="O131" s="1" t="n">
+      <c r="P131" s="1">
         <v>0.38</v>
       </c>
-      <c r="P131" s="1" t="s">
+      <c r="Q131" s="1" t="s">
         <v>378</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P49" r:id="rId1" display="The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect &quot;real&quot; numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure."/>
-    <hyperlink ref="Q49" r:id="rId2" display="For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau."/>
-    <hyperlink ref="P50" r:id="rId3" display="The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect &quot;real&quot; numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure."/>
-    <hyperlink ref="Q50" r:id="rId4" display="For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau."/>
+    <hyperlink ref="Q49" r:id="rId1" display="The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect &quot;real&quot; numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure." xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="R49" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="Q50" r:id="rId3" display="The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect &quot;real&quot; numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure." xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="R50" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data_final/dictionaries/T_Dict.xlsx
+++ b/data_final/dictionaries/T_Dict.xlsx
@@ -358,7 +358,7 @@
     <t xml:space="preserve">Age45_54</t>
   </si>
   <si>
-    <t xml:space="preserve">Total population between 45 and 54 years of age.</t>
+    <t xml:space="preserve">Total population between age 45-54</t>
   </si>
   <si>
     <t xml:space="preserve">IPUMS NHGIS</t>
@@ -1421,8 +1421,8 @@
   </sheetPr>
   <dimension ref="A1:R131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O31" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O51" activeCellId="0" sqref="O51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L25" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q37" activeCellId="0" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2875,6 +2875,9 @@
       <c r="O31" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="P31" s="1" t="n">
+        <v>1020</v>
+      </c>
       <c r="R31" s="1" t="s">
         <v>115</v>
       </c>

--- a/data_final/dictionaries/T_Dict.xlsx
+++ b/data_final/dictionaries/T_Dict.xlsx
@@ -1421,8 +1421,8 @@
   </sheetPr>
   <dimension ref="A1:R131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L25" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q37" activeCellId="0" sqref="Q37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H98" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I111" activeCellId="0" sqref="I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data_final/dictionaries/T_Dict.xlsx
+++ b/data_final/dictionaries/T_Dict.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="415">
   <si>
     <t xml:space="preserve">Theme</t>
   </si>
@@ -37,16 +37,22 @@
     <t xml:space="preserve">Variable</t>
   </si>
   <si>
+    <t xml:space="preserve">Title</t>
+  </si>
+  <si>
     <t xml:space="preserve">Description</t>
   </si>
   <si>
+    <t xml:space="preserve">Metadata Location</t>
+  </si>
+  <si>
     <t xml:space="preserve">Source</t>
   </si>
   <si>
     <t xml:space="preserve">Source Long</t>
   </si>
   <si>
-    <t xml:space="preserve">OEPSv1</t>
+    <t xml:space="preserve">OEPS v1 Table</t>
   </si>
   <si>
     <t xml:space="preserve">Type</t>
@@ -146,6 +152,9 @@
   </si>
   <si>
     <t xml:space="preserve">TotPop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Population</t>
   </si>
   <si>
     <t xml:space="preserve">Estimated total population</t>
@@ -1419,10 +1428,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R131"/>
+  <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H98" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I111" activeCellId="0" sqref="I111"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1436,16 +1445,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="11.1"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="59.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="163"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="42.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="32.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="12.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="76.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="12.8"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="19" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="59.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="163"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="42.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="32.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="15.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="12.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="76.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="12.8"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="20" style="1" width="11"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1479,5245 +1489,5259 @@
       <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="L1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="N2" s="3"/>
-      <c r="O2" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="O2" s="3"/>
       <c r="P2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="3"/>
+      <c r="S2" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="M3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="P4" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="K5" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="M5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="7" t="n">
+        <v>33</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="n">
         <v>36526</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>33</v>
+      <c r="R5" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="K8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="M8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="1" t="n">
         <v>9744</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>48</v>
+      <c r="S8" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P9" s="1" t="n">
+      <c r="Q9" s="1" t="n">
         <v>52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P10" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="1" t="n">
         <v>9670</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P11" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="1" t="n">
         <v>4532</v>
       </c>
-      <c r="R11" s="1" t="s">
-        <v>67</v>
+      <c r="S11" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P12" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="1" t="n">
         <v>5556</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="1" t="n">
         <v>80.29</v>
       </c>
-      <c r="R13" s="1" t="s">
-        <v>48</v>
+      <c r="S13" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="M14" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P14" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="1" t="n">
         <v>13.78</v>
       </c>
-      <c r="R14" s="1" t="s">
-        <v>48</v>
+      <c r="S14" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P15" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R15" s="1" t="s">
-        <v>48</v>
+      <c r="S15" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P16" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="1" t="n">
         <v>0.38</v>
       </c>
-      <c r="R16" s="1" t="s">
-        <v>48</v>
+      <c r="S16" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P17" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R17" s="1" t="s">
-        <v>48</v>
+      <c r="S17" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P18" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q18" s="1" t="n">
         <v>5.55</v>
       </c>
-      <c r="R18" s="1" t="s">
-        <v>48</v>
+      <c r="S18" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P19" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q19" s="1" t="n">
         <v>8.18</v>
       </c>
-      <c r="R19" s="1" t="s">
-        <v>48</v>
+      <c r="S19" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P20" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q20" s="1" t="n">
         <v>0.23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P21" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q21" s="1" t="n">
         <v>14.63</v>
       </c>
-      <c r="R21" s="1" t="s">
-        <v>48</v>
+      <c r="S21" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P22" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q22" s="1" t="n">
         <v>66.83</v>
       </c>
-      <c r="R22" s="1" t="s">
-        <v>48</v>
+      <c r="S22" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P23" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q23" s="1" t="n">
         <v>11.45</v>
       </c>
-      <c r="R23" s="1" t="s">
-        <v>48</v>
+      <c r="S23" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P24" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q24" s="1" t="n">
         <v>607</v>
       </c>
-      <c r="R24" s="1" t="s">
-        <v>48</v>
+      <c r="S24" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P25" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q25" s="1" t="n">
         <v>1070</v>
       </c>
-      <c r="R25" s="1" t="s">
-        <v>48</v>
+      <c r="S25" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P26" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q26" s="1" t="n">
         <v>722</v>
       </c>
-      <c r="R26" s="1" t="s">
-        <v>48</v>
+      <c r="S26" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P27" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q27" s="1" t="n">
         <v>704</v>
       </c>
-      <c r="R27" s="1" t="s">
-        <v>48</v>
+      <c r="S27" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P28" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q28" s="1" t="n">
         <v>4835</v>
       </c>
-      <c r="R28" s="1" t="s">
-        <v>48</v>
+      <c r="S28" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P29" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q29" s="1" t="n">
         <v>495</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P30" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q30" s="1" t="n">
         <v>531</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P31" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q31" s="1" t="n">
         <v>1020</v>
       </c>
-      <c r="R31" s="1" t="s">
-        <v>115</v>
+      <c r="S31" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P32" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q32" s="1" t="n">
         <v>718</v>
       </c>
-      <c r="R32" s="1" t="s">
-        <v>48</v>
+      <c r="S32" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P33" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q33" s="1" t="n">
         <v>372</v>
       </c>
-      <c r="R33" s="1" t="s">
-        <v>48</v>
+      <c r="S33" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P34" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q34" s="1" t="n">
         <v>1116</v>
       </c>
-      <c r="R34" s="1" t="s">
-        <v>48</v>
+      <c r="S34" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P35" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q35" s="1" t="n">
         <v>7468</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P36" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q36" s="1" t="n">
         <v>6352</v>
       </c>
-      <c r="R36" s="1" t="s">
-        <v>48</v>
+      <c r="S36" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P37" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q37" s="1" t="n">
         <v>8.9</v>
       </c>
-      <c r="R37" s="1" t="s">
-        <v>132</v>
+      <c r="S37" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N38" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="O38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P38" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q38" s="1" t="n">
         <v>3.78</v>
       </c>
-      <c r="R38" s="1" t="s">
-        <v>48</v>
+      <c r="S38" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P39" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q39" s="1" t="n">
         <v>15.7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="L40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N40" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="O40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P40" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q40" s="1" t="n">
         <v>4.26</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="L41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N41" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="M41" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="O41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P41" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q41" s="1" t="n">
         <v>18.39</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P42" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q42" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q42" s="1" t="s">
-        <v>150</v>
+      <c r="R42" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I43" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N43" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="O43" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P43" s="1" t="n">
+      <c r="P43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q43" s="1" t="s">
-        <v>150</v>
+      <c r="R43" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P45" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q45" s="1" t="n">
         <v>5.6</v>
       </c>
-      <c r="R45" s="1" t="s">
-        <v>67</v>
+      <c r="S45" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J46" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L46" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="M46" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P46" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q46" s="1" t="n">
         <v>14.2</v>
       </c>
-      <c r="R46" s="1" t="s">
-        <v>67</v>
+      <c r="S46" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P47" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q47" s="1" t="n">
         <v>31504</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P48" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q48" s="1" t="n">
         <v>29969</v>
       </c>
-      <c r="R48" s="1" t="s">
-        <v>167</v>
+      <c r="S48" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P49" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q49" s="1" t="n">
         <v>9.1</v>
       </c>
-      <c r="Q49" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="R49" s="6" t="s">
-        <v>174</v>
+      <c r="R49" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="S49" s="6" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I50" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O50" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="P50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q50" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="R50" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P50" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="R50" s="6" t="s">
-        <v>174</v>
+      <c r="S50" s="6" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P51" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q51" s="1" t="n">
         <v>0.38</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P52" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q52" s="1" t="n">
         <v>8.03</v>
       </c>
-      <c r="Q52" s="6" t="s">
-        <v>181</v>
+      <c r="R52" s="6" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P53" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q53" s="1" t="n">
         <v>16.18</v>
       </c>
-      <c r="Q53" s="6" t="s">
-        <v>181</v>
+      <c r="R53" s="6" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I54" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q54" s="1" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="R54" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P54" s="1" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="Q54" s="6" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P55" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q55" s="1" t="n">
         <v>15.39</v>
       </c>
-      <c r="Q55" s="6" t="s">
-        <v>181</v>
+      <c r="R55" s="6" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P56" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q56" s="1" t="n">
         <v>2092</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J57" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L57" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="K57" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="M57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P57" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q57" s="1" t="n">
         <v>37.65</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P58" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q58" s="1" t="n">
         <v>6.64</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>63</v>
+        <v>205</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>66</v>
+        <v>207</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P59" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q59" s="1" t="n">
         <v>11.72</v>
       </c>
-      <c r="R59" s="1" t="s">
-        <v>48</v>
+      <c r="S59" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P60" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q60" s="1" t="n">
         <v>0.68</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P61" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q61" s="1" t="n">
         <v>8.66</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P62" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q62" s="1" t="n">
         <v>19.9</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P63" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q63" s="1" t="n">
         <v>673.09</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P64" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q64" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I65" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N65" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="O65" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="K65" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P65" s="1" t="n">
+      <c r="P65" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q65" s="1" t="n">
         <v>1.1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>227</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
       <c r="F67" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
       <c r="I67" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="J67" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="L67" s="9" t="s">
         <v>229</v>
       </c>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="M67" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N67" s="9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O67" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="P67" s="9" t="n">
+        <v>234</v>
+      </c>
+      <c r="P67" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q67" s="9" t="n">
         <v>6.73</v>
       </c>
-      <c r="Q67" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R67" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
       <c r="F68" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="N68" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="J68" s="9" t="s">
+      <c r="O68" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="K68" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="L68" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="M68" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="N68" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="O68" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="P68" s="9" t="n">
+      <c r="P68" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q68" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="Q68" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R68" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="O69" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="P69" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q69" s="9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R69" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="J69" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="L69" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="N69" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="O69" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="P69" s="9" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Q69" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="70" customFormat="false" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
       <c r="F70" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="J70" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="L70" s="9" t="s">
-        <v>229</v>
+        <v>240</v>
+      </c>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O70" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="P70" s="9" t="n">
+        <v>234</v>
+      </c>
+      <c r="P70" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q70" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="Q70" s="11" t="s">
-        <v>232</v>
+      <c r="R70" s="11" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P71" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q71" s="1" t="n">
         <v>0.15</v>
       </c>
-      <c r="Q71" s="1" t="s">
-        <v>245</v>
+      <c r="R71" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P72" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q72" s="1" t="n">
         <v>0.81</v>
       </c>
-      <c r="Q72" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="R72" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="S72" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I73" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="O73" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="P73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q73" s="1" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="R73" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="K73" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P73" s="1" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="Q73" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="R73" s="6" t="s">
-        <v>253</v>
+      <c r="S73" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I74" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="S74" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="R74" s="6" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P75" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q75" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="Q75" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="R75" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="S75" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P76" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q76" s="1" t="n">
         <v>13.22</v>
       </c>
-      <c r="Q76" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="R76" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="S76" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P77" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q77" s="1" t="n">
         <v>27.39</v>
       </c>
-      <c r="Q77" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="R77" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="S77" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P78" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q78" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q78" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="R78" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="S78" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P79" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q79" s="1" t="n">
         <v>18.04</v>
       </c>
-      <c r="Q79" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="R79" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="S79" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P80" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q80" s="1" t="n">
         <v>35.34</v>
       </c>
-      <c r="Q80" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="R80" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="S80" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P81" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q81" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q81" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="R81" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="S81" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P82" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q82" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q82" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="R82" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="S82" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P83" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q83" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q83" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="R83" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="S83" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P84" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q84" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q84" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="R84" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="S84" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P85" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q85" s="1" t="n">
         <v>1744.66</v>
       </c>
-      <c r="Q85" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="R85" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="S85" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P86" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q86" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q86" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="R86" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="S86" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P87" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q87" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q87" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="R87" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="S87" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q88" s="6" t="s">
-        <v>252</v>
+        <v>78</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="R88" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="S88" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P89" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q89" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q89" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="R89" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="S89" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P90" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q90" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q90" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="R90" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="S90" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P91" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q91" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q91" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="R91" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="S91" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P92" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q92" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="Q92" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="R92" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="S92" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P93" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q93" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q93" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="R93" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="S93" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P94" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q94" s="1" t="n">
         <v>148.18</v>
       </c>
-      <c r="Q94" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="R94" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="S94" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P95" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q95" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q95" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="R95" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="S95" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P96" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q96" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q96" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="R96" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="S96" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>248</v>
+        <v>306</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P97" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q97" s="1" t="n">
         <v>165.18</v>
       </c>
-      <c r="Q97" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="R97" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="S97" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>248</v>
+        <v>308</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P98" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q98" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q98" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="R98" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="S98" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>248</v>
+        <v>310</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P99" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q99" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q99" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="R99" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="S99" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P100" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q100" s="1" t="n">
         <v>10.23</v>
       </c>
-      <c r="Q100" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="R100" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
+      </c>
+      <c r="S100" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I101" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O101" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="J101" s="1" t="s">
+      <c r="P101" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q101" s="1" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="R101" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="K101" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="N101" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="O101" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P101" s="1" t="n">
-        <v>19.16</v>
-      </c>
-      <c r="Q101" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="R101" s="6" t="s">
-        <v>315</v>
+      <c r="S101" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I102" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q102" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="R102" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="S102" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="N102" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="O102" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P102" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q102" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="R102" s="6" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P103" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q103" s="1" t="n">
         <v>0.31</v>
       </c>
-      <c r="Q103" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="R103" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
+      </c>
+      <c r="S103" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I104" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L104" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J104" s="1" t="s">
+      <c r="M104" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="K104" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="N104" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P104" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q104" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q104" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="R104" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
+      </c>
+      <c r="S104" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I105" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="O105" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J105" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="N105" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="O105" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P105" s="1" t="n">
+      <c r="P105" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q105" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="Q105" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="R105" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
+      </c>
+      <c r="S105" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P106" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q106" s="1" t="n">
         <v>0.84</v>
       </c>
-      <c r="Q106" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="R106" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
+      </c>
+      <c r="S106" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I107" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="L107" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J107" s="1" t="s">
+      <c r="M107" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="K107" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="N107" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P107" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q107" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q107" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="R107" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
+      </c>
+      <c r="S107" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I108" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="O108" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="J108" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P108" s="1" t="n">
+      <c r="P108" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q108" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="Q108" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="R108" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
+      </c>
+      <c r="S108" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P109" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q109" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="Q109" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="R109" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
+      </c>
+      <c r="S109" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I110" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="M110" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="J110" s="1" t="s">
+      <c r="N110" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="K110" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="M110" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="N110" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="O110" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P110" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q110" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q110" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="R110" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
+      </c>
+      <c r="S110" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I111" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="O111" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="J111" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="L111" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="M111" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="N111" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="O111" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P111" s="1" t="n">
+      <c r="P111" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q111" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q111" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="R111" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
+      </c>
+      <c r="S111" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P112" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q112" s="1" t="n">
         <v>4.99</v>
       </c>
-      <c r="Q112" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="R112" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
+      </c>
+      <c r="S112" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="J113" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="L113" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="K113" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="M113" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P113" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q113" s="1" t="n">
         <v>17.76</v>
       </c>
-      <c r="Q113" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="R113" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
+      </c>
+      <c r="S113" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I114" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="O114" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="J114" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="M114" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="N114" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="O114" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P114" s="1" t="n">
+      <c r="P114" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q114" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="Q114" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="R114" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
+      </c>
+      <c r="S114" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="K115" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="L115" s="1" t="s">
         <v>359</v>
       </c>
+      <c r="K115" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="L115" s="8" t="s">
+        <v>361</v>
+      </c>
       <c r="M115" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P115" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q115" s="1" t="n">
         <v>13.12</v>
       </c>
-      <c r="Q115" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="R115" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
+      </c>
+      <c r="S115" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I116" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="L116" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="M116" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="J116" s="1" t="s">
+      <c r="N116" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="K116" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="M116" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="N116" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="O116" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P116" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q116" s="1" t="n">
         <v>27.39</v>
       </c>
-      <c r="Q116" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="R116" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
+      </c>
+      <c r="S116" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I117" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="L117" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="O117" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="J117" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="K117" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="M117" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="N117" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="O117" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P117" s="1" t="n">
+      <c r="P117" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q117" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q117" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="R117" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
+      </c>
+      <c r="S117" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P118" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q118" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="Q118" s="6" t="s">
-        <v>372</v>
+      <c r="R118" s="6" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I119" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N119" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="J119" s="1" t="s">
+      <c r="O119" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="K119" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="M119" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="N119" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="O119" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P119" s="1" t="n">
+      <c r="P119" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q119" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="Q119" s="6" t="s">
-        <v>372</v>
+      <c r="R119" s="6" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I120" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P120" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q120" s="1" t="n">
+        <v>133.42</v>
+      </c>
+      <c r="R120" s="6" t="s">
         <v>375</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="L120" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="M120" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="O120" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P120" s="1" t="n">
-        <v>133.42</v>
-      </c>
-      <c r="Q120" s="6" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="O121" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P121" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P121" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q121" s="1" t="n">
         <v>41.05</v>
       </c>
-      <c r="Q121" s="6" t="s">
-        <v>372</v>
+      <c r="R121" s="6" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="O122" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P122" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q122" s="1" t="n">
         <v>1.17</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="J123" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="M123" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="L123" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="M123" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="O123" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P123" s="1" t="n">
+      <c r="N123" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q123" s="1" t="n">
         <v>0.54</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I124" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="N124" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="J124" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="L124" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="M124" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="O124" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P124" s="1" t="n">
+      <c r="P124" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q124" s="1" t="n">
         <v>-0.06</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="L125" s="1" t="s">
-        <v>382</v>
+        <v>391</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="O125" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P125" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q125" s="1" t="n">
         <v>0.59</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P126" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q126" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q126" s="1" t="s">
-        <v>395</v>
+      <c r="R126" s="1" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="P127" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="P127" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q127" s="1" t="n">
         <v>0.43</v>
       </c>
-      <c r="Q127" s="1" t="s">
-        <v>403</v>
+      <c r="R127" s="1" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I128" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O128" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="J128" s="1" t="s">
+      <c r="P128" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="K128" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="L128" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="M128" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="N128" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="O128" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="P128" s="1" t="n">
+      <c r="Q128" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="Q128" s="1" t="s">
-        <v>403</v>
+      <c r="R128" s="1" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I129" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="P129" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q129" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R129" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="K129" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="L129" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="M129" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="N129" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="O129" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="P129" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q129" s="1" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="P130" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="P130" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q130" s="1" t="n">
         <v>0.61</v>
       </c>
-      <c r="Q130" s="1" t="s">
-        <v>403</v>
+      <c r="R130" s="1" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="P131" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="P131" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q131" s="1" t="n">
         <v>0.38</v>
       </c>
-      <c r="Q131" s="1" t="s">
-        <v>403</v>
+      <c r="R131" s="1" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q49" r:id="rId1" display="The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect &quot;real&quot; numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure."/>
-    <hyperlink ref="R49" r:id="rId2" display="For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau."/>
-    <hyperlink ref="Q50" r:id="rId3" display="The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect &quot;real&quot; numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure."/>
-    <hyperlink ref="R50" r:id="rId4" display="For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau."/>
+    <hyperlink ref="R49" r:id="rId1" display="The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect &quot;real&quot; numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure."/>
+    <hyperlink ref="S49" r:id="rId2" display="For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau."/>
+    <hyperlink ref="R50" r:id="rId3" display="The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect &quot;real&quot; numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure."/>
+    <hyperlink ref="S50" r:id="rId4" display="For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau."/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/data_final/dictionaries/T_Dict.xlsx
+++ b/data_final/dictionaries/T_Dict.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="413">
   <si>
     <t xml:space="preserve">Theme</t>
   </si>
@@ -37,9 +37,6 @@
     <t xml:space="preserve">Variable</t>
   </si>
   <si>
-    <t xml:space="preserve">Title</t>
-  </si>
-  <si>
     <t xml:space="preserve">Description</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
   </si>
   <si>
     <t xml:space="preserve">TotPop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Population</t>
   </si>
   <si>
     <t xml:space="preserve">Estimated total population</t>
@@ -1428,10 +1422,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S131"/>
+  <dimension ref="A1:AMJ131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1445,17 +1439,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="11.1"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="59.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="163"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="42.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="32.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="15.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="12.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="76.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="12.8"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="20" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="59.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="163"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="42.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="32.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="12.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="76.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="12.8"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="19" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="8.36"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1513,5235 +1507,5225 @@
       <c r="R1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
       <c r="P2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>29</v>
+      <c r="L4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>26</v>
+      <c r="O4" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="7" t="n">
+        <v>36526</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="7" t="n">
-        <v>36526</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>37</v>
+      <c r="L6" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>26</v>
+      <c r="O6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>40</v>
+      <c r="L7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>26</v>
+      <c r="O7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="M8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="n">
+        <v>9744</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q8" s="1" t="n">
-        <v>9744</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="O9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="P9" s="1" t="n">
         <v>52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="O10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q10" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="P10" s="1" t="n">
         <v>9670</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>4532</v>
+      </c>
+      <c r="R11" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="1" t="n">
-        <v>4532</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="O12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q12" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="P12" s="1" t="n">
         <v>5556</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="M13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="O13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>80.29</v>
+      </c>
+      <c r="R13" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q13" s="1" t="n">
-        <v>80.29</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="M14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="O14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="1" t="n">
-        <v>13.78</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="M15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="O15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="M16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="O16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="1" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="R16" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q16" s="1" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="M17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="O17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="M18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="O18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" s="1" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q18" s="1" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="M19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="O19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="R19" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q19" s="1" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q20" s="1" t="n">
+      <c r="O20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" s="1" t="n">
         <v>0.23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="L21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="O21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P21" s="1" t="n">
+        <v>14.63</v>
+      </c>
+      <c r="R21" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q21" s="1" t="n">
-        <v>14.63</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="L22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="O22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P22" s="1" t="n">
+        <v>66.83</v>
+      </c>
+      <c r="R22" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q22" s="1" t="n">
-        <v>66.83</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="L23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="O23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P23" s="1" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="R23" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q23" s="1" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="L24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="R24" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q24" s="1" t="n">
-        <v>607</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="L25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="P25" s="1" t="n">
+        <v>1070</v>
+      </c>
+      <c r="R25" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q25" s="1" t="n">
-        <v>1070</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="L26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="O26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="P26" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="R26" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q26" s="1" t="n">
-        <v>722</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="L27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="P27" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="R27" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q27" s="1" t="n">
-        <v>704</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="L28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="P28" s="1" t="n">
+        <v>4835</v>
+      </c>
+      <c r="R28" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q28" s="1" t="n">
-        <v>4835</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="L29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="O29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q29" s="1" t="n">
+      <c r="P29" s="1" t="n">
         <v>495</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N30" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="O30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q30" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="P30" s="1" t="n">
         <v>531</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="1" t="s">
+      <c r="O31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P31" s="1" t="n">
+        <v>1020</v>
+      </c>
+      <c r="R31" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q31" s="1" t="n">
-        <v>1020</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="L32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="O32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="P32" s="1" t="n">
+        <v>718</v>
+      </c>
+      <c r="R32" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q32" s="1" t="n">
-        <v>718</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="L33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="O33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="P33" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="R33" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q33" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="L34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="O34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="P34" s="1" t="n">
+        <v>1116</v>
+      </c>
+      <c r="R34" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q34" s="1" t="n">
-        <v>1116</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="N35" s="1" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q35" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="P35" s="1" t="n">
         <v>7468</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="L36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="N36" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="O36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="P36" s="1" t="n">
+        <v>6352</v>
+      </c>
+      <c r="R36" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q36" s="1" t="n">
-        <v>6352</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I37" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="N37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P37" s="1" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="R37" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q37" s="1" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="L38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M38" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="N38" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N38" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="O38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P38" s="1" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="R38" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q38" s="1" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L39" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="L39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="N39" s="1" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q39" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="P39" s="1" t="n">
         <v>15.7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L40" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="M40" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q40" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="P40" s="1" t="n">
         <v>4.26</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q41" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="P41" s="1" t="n">
         <v>18.39</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="M42" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="N42" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="O42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L43" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M43" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="N43" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="O43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="L44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="N44" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="O44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="L45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N45" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="O45" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q45" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="P45" s="1" t="n">
         <v>5.6</v>
       </c>
-      <c r="S45" s="1" t="s">
-        <v>70</v>
+      <c r="R45" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q46" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="P46" s="1" t="n">
         <v>14.2</v>
       </c>
-      <c r="S46" s="1" t="s">
-        <v>70</v>
+      <c r="R46" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I47" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M47" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q47" s="1" t="n">
+      <c r="O47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P47" s="1" t="n">
         <v>31504</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I48" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P48" s="1" t="n">
+        <v>29969</v>
+      </c>
+      <c r="R48" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q48" s="1" t="n">
-        <v>29969</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I49" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="L49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M49" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="N49" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="N49" s="1" t="s">
+      <c r="O49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P49" s="1" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Q49" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="R49" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q49" s="1" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="S49" s="6" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="L50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N50" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="M50" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="N50" s="1" t="s">
+      <c r="O50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P50" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="Q50" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="R50" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q50" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="S50" s="6" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q51" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P51" s="1" t="n">
         <v>0.38</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I52" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P52" s="1" t="n">
+        <v>8.03</v>
+      </c>
+      <c r="Q52" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q52" s="1" t="n">
-        <v>8.03</v>
-      </c>
-      <c r="R52" s="6" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q53" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="P53" s="1" t="n">
         <v>16.18</v>
       </c>
-      <c r="R53" s="6" t="s">
-        <v>184</v>
+      <c r="Q53" s="6" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q54" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="P54" s="1" t="n">
         <v>14.7</v>
       </c>
-      <c r="R54" s="6" t="s">
-        <v>184</v>
+      <c r="Q54" s="6" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>190</v>
+        <v>71</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q55" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="P55" s="1" t="n">
         <v>15.39</v>
       </c>
-      <c r="R55" s="6" t="s">
-        <v>184</v>
+      <c r="Q55" s="6" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I56" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K56" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="L56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N56" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="L56" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="O56" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q56" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="P56" s="1" t="n">
         <v>2092</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q57" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="P57" s="1" t="n">
         <v>37.65</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J58" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" s="1" t="s">
+      <c r="K58" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="L58" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="M58" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="N58" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="N58" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="O58" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q58" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="P58" s="1" t="n">
         <v>6.64</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I59" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L59" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="M59" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L59" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="N59" s="1" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q59" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="P59" s="1" t="n">
         <v>11.72</v>
       </c>
-      <c r="S59" s="1" t="s">
-        <v>51</v>
+      <c r="R59" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>209</v>
+        <v>64</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q60" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="P60" s="1" t="n">
         <v>0.68</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q61" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="P61" s="1" t="n">
         <v>8.66</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>213</v>
+        <v>64</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q62" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="P62" s="1" t="n">
         <v>19.9</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>215</v>
+        <v>64</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q63" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="P63" s="1" t="n">
         <v>673.09</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I64" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K64" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="L64" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="M64" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="N64" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="O64" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="O64" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q64" s="1" t="n">
+      <c r="P64" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="L65" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M65" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="N65" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="N65" s="1" t="s">
+      <c r="O65" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="O65" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q65" s="1" t="n">
+      <c r="P65" s="1" t="n">
         <v>1.1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I66" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="O66" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="P66" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
       <c r="F67" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
       <c r="I67" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9" t="s">
+      <c r="L67" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="M67" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="M67" s="9" t="s">
+      <c r="N67" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="N67" s="9" t="s">
+      <c r="O67" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P67" s="9" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="Q67" s="11" t="s">
         <v>233</v>
-      </c>
-      <c r="O67" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="P67" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q67" s="9" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="R67" s="11" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
       <c r="F68" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="L68" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="M68" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="M68" s="9" t="s">
+      <c r="N68" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="N68" s="9" t="s">
+      <c r="O68" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P68" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="11" t="s">
         <v>233</v>
-      </c>
-      <c r="O68" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="P68" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q68" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R68" s="11" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="L69" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="M69" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="M69" s="9" t="s">
+      <c r="N69" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="N69" s="9" t="s">
+      <c r="O69" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P69" s="9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q69" s="11" t="s">
         <v>233</v>
-      </c>
-      <c r="O69" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="P69" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q69" s="9" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="R69" s="11" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
       <c r="F70" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="L70" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="M70" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="M70" s="9" t="s">
+      <c r="N70" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="N70" s="9" t="s">
+      <c r="O70" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P70" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="11" t="s">
         <v>233</v>
-      </c>
-      <c r="O70" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="P70" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q70" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R70" s="11" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I71" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K71" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="K71" s="1" t="s">
+      <c r="L71" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="M71" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="M71" s="1" t="s">
+      <c r="N71" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="N71" s="1" t="s">
+      <c r="O71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P71" s="1" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q71" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q71" s="1" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I72" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K72" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="L72" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="M72" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="N72" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N72" s="1" t="s">
+      <c r="O72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P72" s="1" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="Q72" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O72" s="1" t="s">
+      <c r="R72" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q72" s="1" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="R72" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S72" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="L73" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M73" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M73" s="1" t="s">
+      <c r="N73" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N73" s="1" t="s">
+      <c r="O73" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P73" s="1" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="Q73" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O73" s="1" t="s">
+      <c r="R73" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q73" s="1" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="R73" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S73" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="L74" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M74" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M74" s="1" t="s">
+      <c r="N74" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N74" s="1" t="s">
+      <c r="O74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O74" s="1" t="s">
+      <c r="R74" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R74" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S74" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="L75" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M75" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M75" s="1" t="s">
+      <c r="N75" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N75" s="1" t="s">
+      <c r="O75" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P75" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q75" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O75" s="1" t="s">
+      <c r="R75" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q75" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="R75" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S75" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="L76" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M76" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M76" s="1" t="s">
+      <c r="N76" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N76" s="1" t="s">
+      <c r="O76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P76" s="1" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="Q76" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O76" s="1" t="s">
+      <c r="R76" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q76" s="1" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="R76" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S76" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="L77" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M77" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M77" s="1" t="s">
+      <c r="N77" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N77" s="1" t="s">
+      <c r="O77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P77" s="1" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="Q77" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O77" s="1" t="s">
+      <c r="R77" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P77" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q77" s="1" t="n">
-        <v>27.39</v>
-      </c>
-      <c r="R77" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S77" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="L78" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M78" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M78" s="1" t="s">
+      <c r="N78" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N78" s="1" t="s">
+      <c r="O78" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O78" s="1" t="s">
+      <c r="R78" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P78" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R78" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S78" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L79" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M79" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M79" s="1" t="s">
+      <c r="N79" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N79" s="1" t="s">
+      <c r="O79" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P79" s="1" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="Q79" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O79" s="1" t="s">
+      <c r="R79" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P79" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q79" s="1" t="n">
-        <v>18.04</v>
-      </c>
-      <c r="R79" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S79" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="L80" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M80" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M80" s="1" t="s">
+      <c r="N80" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N80" s="1" t="s">
+      <c r="O80" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P80" s="1" t="n">
+        <v>35.34</v>
+      </c>
+      <c r="Q80" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O80" s="1" t="s">
+      <c r="R80" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P80" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q80" s="1" t="n">
-        <v>35.34</v>
-      </c>
-      <c r="R80" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S80" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="L81" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M81" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M81" s="1" t="s">
+      <c r="N81" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N81" s="1" t="s">
+      <c r="O81" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O81" s="1" t="s">
+      <c r="R81" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q81" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R81" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S81" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="L82" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M82" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M82" s="1" t="s">
+      <c r="N82" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N82" s="1" t="s">
+      <c r="O82" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O82" s="1" t="s">
+      <c r="R82" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P82" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q82" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R82" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S82" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="L83" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M83" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M83" s="1" t="s">
+      <c r="N83" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N83" s="1" t="s">
+      <c r="O83" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P83" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O83" s="1" t="s">
+      <c r="R83" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P83" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q83" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="R83" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S83" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="L84" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M84" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M84" s="1" t="s">
+      <c r="N84" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N84" s="1" t="s">
+      <c r="O84" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P84" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q84" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O84" s="1" t="s">
+      <c r="R84" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P84" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q84" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="R84" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S84" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="L85" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M85" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M85" s="1" t="s">
+      <c r="N85" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N85" s="1" t="s">
+      <c r="O85" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P85" s="1" t="n">
+        <v>1744.66</v>
+      </c>
+      <c r="Q85" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O85" s="1" t="s">
+      <c r="R85" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P85" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q85" s="1" t="n">
-        <v>1744.66</v>
-      </c>
-      <c r="R85" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S85" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="L86" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M86" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M86" s="1" t="s">
+      <c r="N86" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N86" s="1" t="s">
+      <c r="O86" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O86" s="1" t="s">
+      <c r="R86" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P86" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q86" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R86" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S86" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="L87" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M87" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M87" s="1" t="s">
+      <c r="N87" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N87" s="1" t="s">
+      <c r="O87" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O87" s="1" t="s">
+      <c r="R87" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P87" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q87" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R87" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S87" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I88" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P88" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="K88" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="N88" s="1" t="s">
+      <c r="Q88" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O88" s="1" t="s">
+      <c r="R88" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P88" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q88" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="R88" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S88" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="L89" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M89" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M89" s="1" t="s">
+      <c r="N89" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N89" s="1" t="s">
+      <c r="O89" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O89" s="1" t="s">
+      <c r="R89" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P89" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q89" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R89" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S89" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="L90" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M90" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M90" s="1" t="s">
+      <c r="N90" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N90" s="1" t="s">
+      <c r="O90" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O90" s="1" t="s">
+      <c r="R90" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P90" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q90" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R90" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S90" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="L91" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M91" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M91" s="1" t="s">
+      <c r="N91" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N91" s="1" t="s">
+      <c r="O91" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O91" s="1" t="s">
+      <c r="R91" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P91" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q91" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R91" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S91" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="L92" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M92" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M92" s="1" t="s">
+      <c r="N92" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N92" s="1" t="s">
+      <c r="O92" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P92" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O92" s="1" t="s">
+      <c r="R92" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P92" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q92" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="R92" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S92" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="L93" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M93" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M93" s="1" t="s">
+      <c r="N93" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N93" s="1" t="s">
+      <c r="O93" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P93" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O93" s="1" t="s">
+      <c r="R93" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P93" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q93" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="R93" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S93" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="L94" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M94" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M94" s="1" t="s">
+      <c r="N94" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N94" s="1" t="s">
+      <c r="O94" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P94" s="1" t="n">
+        <v>148.18</v>
+      </c>
+      <c r="Q94" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O94" s="1" t="s">
+      <c r="R94" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P94" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q94" s="1" t="n">
-        <v>148.18</v>
-      </c>
-      <c r="R94" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S94" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="L95" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M95" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M95" s="1" t="s">
+      <c r="N95" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N95" s="1" t="s">
+      <c r="O95" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O95" s="1" t="s">
+      <c r="R95" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P95" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q95" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R95" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S95" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="L96" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M96" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M96" s="1" t="s">
+      <c r="N96" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N96" s="1" t="s">
+      <c r="O96" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O96" s="1" t="s">
+      <c r="R96" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P96" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q96" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R96" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S96" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>306</v>
+        <v>249</v>
       </c>
       <c r="L97" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M97" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M97" s="1" t="s">
+      <c r="N97" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N97" s="1" t="s">
+      <c r="O97" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P97" s="1" t="n">
+        <v>165.18</v>
+      </c>
+      <c r="Q97" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O97" s="1" t="s">
+      <c r="R97" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P97" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q97" s="1" t="n">
-        <v>165.18</v>
-      </c>
-      <c r="R97" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S97" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>308</v>
+        <v>249</v>
       </c>
       <c r="L98" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M98" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M98" s="1" t="s">
+      <c r="N98" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N98" s="1" t="s">
+      <c r="O98" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O98" s="1" t="s">
+      <c r="R98" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P98" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q98" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R98" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S98" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>310</v>
+        <v>249</v>
       </c>
       <c r="L99" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M99" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M99" s="1" t="s">
+      <c r="N99" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N99" s="1" t="s">
+      <c r="O99" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="O99" s="1" t="s">
+      <c r="R99" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="P99" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q99" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R99" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S99" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I100" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="K100" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="K100" s="1" t="s">
+      <c r="L100" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L100" s="1" t="s">
+      <c r="M100" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="M100" s="1" t="s">
+      <c r="N100" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="N100" s="1" t="s">
+      <c r="O100" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P100" s="1" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="Q100" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="O100" s="1" t="s">
+      <c r="R100" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="P100" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q100" s="1" t="n">
-        <v>10.23</v>
-      </c>
-      <c r="R100" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="S100" s="6" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="L101" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M101" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="M101" s="1" t="s">
+      <c r="N101" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="N101" s="1" t="s">
+      <c r="O101" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P101" s="1" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="Q101" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="O101" s="1" t="s">
+      <c r="R101" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="P101" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q101" s="1" t="n">
-        <v>19.16</v>
-      </c>
-      <c r="R101" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="S101" s="6" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="L102" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M102" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="M102" s="1" t="s">
+      <c r="N102" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="N102" s="1" t="s">
+      <c r="O102" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P102" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q102" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="O102" s="1" t="s">
+      <c r="R102" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="P102" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q102" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="R102" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="S102" s="6" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I103" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K103" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="K103" s="1" t="s">
+      <c r="L103" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="L103" s="1" t="s">
+      <c r="M103" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="N103" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="M103" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="N103" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="O103" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="P103" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q103" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="P103" s="1" t="n">
         <v>0.31</v>
       </c>
+      <c r="Q103" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="R103" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="S103" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="L104" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="N104" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="M104" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="N104" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="O104" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="P104" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q104" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="P104" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q104" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="R104" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="S104" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="L105" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="N105" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="M105" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="N105" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="O105" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="P105" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q105" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="P105" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="Q105" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="R105" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="S105" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I106" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="K106" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="K106" s="1" t="s">
+      <c r="L106" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="L106" s="1" t="s">
+      <c r="M106" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N106" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="M106" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="O106" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="P106" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q106" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="P106" s="1" t="n">
         <v>0.84</v>
       </c>
+      <c r="Q106" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="R106" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="S106" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L107" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N107" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="M107" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="N107" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="O107" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="P107" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q107" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="P107" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q107" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="R107" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="S107" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="L108" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N108" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="M108" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="O108" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="P108" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q108" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="P108" s="1" t="n">
         <v>58</v>
       </c>
+      <c r="Q108" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="R108" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="S108" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I109" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="K109" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="K109" s="1" t="s">
+      <c r="L109" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="L109" s="1" t="s">
+      <c r="M109" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="M109" s="1" t="s">
+      <c r="N109" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="N109" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="O109" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="P109" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q109" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="P109" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="Q109" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="R109" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="S109" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="L110" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="M110" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="M110" s="1" t="s">
+      <c r="N110" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="N110" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="O110" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="P110" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q110" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="P110" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Q110" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="R110" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="S110" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="L111" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="M111" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="M111" s="1" t="s">
+      <c r="N111" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="N111" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="O111" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="P111" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q111" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="P111" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="Q111" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="R111" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="S111" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I112" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="K112" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="K112" s="1" t="s">
+      <c r="L112" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N112" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="L112" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="M112" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="N112" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="O112" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="P112" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q112" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="P112" s="1" t="n">
         <v>4.99</v>
       </c>
+      <c r="Q112" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="R112" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="S112" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="P113" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q113" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="P113" s="1" t="n">
         <v>17.76</v>
       </c>
+      <c r="Q113" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="R113" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="S113" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="P114" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q114" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="P114" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="Q114" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="R114" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="S114" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I115" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K115" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="K115" s="1" t="s">
+      <c r="L115" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="L115" s="8" t="s">
+      <c r="M115" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="M115" s="1" t="s">
+      <c r="N115" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="N115" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="O115" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="P115" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q115" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="P115" s="1" t="n">
         <v>13.12</v>
       </c>
+      <c r="Q115" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="R115" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="S115" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="L116" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="K116" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M116" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="M116" s="1" t="s">
+      <c r="N116" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="N116" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="O116" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="P116" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q116" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="P116" s="1" t="n">
         <v>27.39</v>
       </c>
+      <c r="Q116" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="R116" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="S116" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="L117" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="K117" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M117" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="M117" s="1" t="s">
+      <c r="N117" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="N117" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="O117" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="P117" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q117" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="P117" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q117" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="R117" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="S117" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I118" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="K118" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="K118" s="1" t="s">
+      <c r="L118" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="L118" s="1" t="s">
+      <c r="M118" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="M118" s="1" t="s">
+      <c r="N118" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="N118" s="1" t="s">
+      <c r="O118" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P118" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q118" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="O118" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="P118" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q118" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="R118" s="6" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="L119" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="M119" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="M119" s="1" t="s">
+      <c r="N119" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="N119" s="1" t="s">
+      <c r="O119" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P119" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q119" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="O119" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="P119" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q119" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="R119" s="6" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="L120" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="M120" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="M120" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="N120" s="1" t="s">
+      <c r="O120" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P120" s="1" t="n">
+        <v>133.42</v>
+      </c>
+      <c r="Q120" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="P120" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q120" s="1" t="n">
-        <v>133.42</v>
-      </c>
-      <c r="R120" s="6" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="L121" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="M121" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="M121" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="N121" s="1" t="s">
+      <c r="O121" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P121" s="1" t="n">
+        <v>41.05</v>
+      </c>
+      <c r="Q121" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="P121" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q121" s="1" t="n">
-        <v>41.05</v>
-      </c>
-      <c r="R121" s="6" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="J122" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="F122" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I122" s="1" t="s">
+      <c r="L122" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="K122" s="1" t="s">
+      <c r="M122" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="M122" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="N122" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="P122" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q122" s="1" t="n">
+      <c r="O122" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P122" s="1" t="n">
         <v>1.17</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="N123" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="P123" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q123" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P123" s="1" t="n">
         <v>0.54</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="K124" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="N124" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="P124" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q124" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P124" s="1" t="n">
         <v>-0.06</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="K125" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="N125" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="P125" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q125" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P125" s="1" t="n">
         <v>0.59</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I126" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="K126" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="K126" s="1" t="s">
+      <c r="L126" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="L126" s="1" t="s">
+      <c r="M126" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="N126" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="M126" s="1" t="s">
+      <c r="O126" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="P126" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q126" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="N126" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="O126" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="P126" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q126" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="R126" s="1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I127" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="K127" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="K127" s="1" t="s">
+      <c r="L127" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="L127" s="1" t="s">
+      <c r="M127" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="M127" s="1" t="s">
+      <c r="N127" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="N127" s="1" t="s">
+      <c r="O127" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="O127" s="1" t="s">
+      <c r="P127" s="1" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="Q127" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="P127" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q127" s="1" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="R127" s="1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="L128" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="M128" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="M128" s="1" t="s">
+      <c r="N128" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="N128" s="1" t="s">
+      <c r="O128" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="O128" s="1" t="s">
+      <c r="P128" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q128" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="P128" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q128" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="R128" s="1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="L129" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="M129" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="M129" s="1" t="s">
+      <c r="N129" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="N129" s="1" t="s">
+      <c r="O129" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="O129" s="1" t="s">
+      <c r="P129" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q129" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="P129" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q129" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="R129" s="1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="L130" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="M130" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="M130" s="1" t="s">
+      <c r="N130" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="N130" s="1" t="s">
+      <c r="O130" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="O130" s="1" t="s">
+      <c r="P130" s="1" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="Q130" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="P130" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q130" s="1" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="R130" s="1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="L131" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="M131" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="M131" s="1" t="s">
+      <c r="N131" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="N131" s="1" t="s">
+      <c r="O131" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="O131" s="1" t="s">
+      <c r="P131" s="1" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="Q131" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="P131" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q131" s="1" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="R131" s="1" t="s">
-        <v>406</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R49" r:id="rId1" display="The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect &quot;real&quot; numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure."/>
-    <hyperlink ref="S49" r:id="rId2" display="For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau."/>
-    <hyperlink ref="R50" r:id="rId3" display="The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect &quot;real&quot; numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure."/>
-    <hyperlink ref="S50" r:id="rId4" display="For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau."/>
+    <hyperlink ref="Q49" r:id="rId1" display="The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect &quot;real&quot; numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure."/>
+    <hyperlink ref="R49" r:id="rId2" display="For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau."/>
+    <hyperlink ref="Q50" r:id="rId3" display="The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect &quot;real&quot; numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure."/>
+    <hyperlink ref="R50" r:id="rId4" display="For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau."/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/data_final/dictionaries/T_Dict.xlsx
+++ b/data_final/dictionaries/T_Dict.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="431">
   <si>
     <t xml:space="preserve">Theme</t>
   </si>
@@ -948,6 +948,132 @@
   </si>
   <si>
     <t xml:space="preserve">Count of naltrexone providers in 30 minute biking time threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MetRm30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methadone access 30 minutes (RAAM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MetRm60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methadone access 60 minutes (RAAM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MetRm90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methadone access 90 minutes (RAAM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NalRm30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naltrexone access 30 minutes (RAAM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NalRm60</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Naltrexone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> access 60 minutes (RAAM)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">NalRm90</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Naltrexone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> access 90 minutes (RAAM)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">BupRm30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buprenorphine access 30 minutes (RAAM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BupRm60</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Buprenorphine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> access 60 minutes (RAAM)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">BupRm90</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Buprenorphine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> access 90 minutes (RAAM)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">FqhcMinDis</t>
@@ -1270,7 +1396,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1300,6 +1426,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1356,7 +1488,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1405,6 +1537,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1422,10 +1558,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ131"/>
+  <dimension ref="A1:AMJ140"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q104" activeCellId="0" sqref="Q104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5550,6 +5686,18 @@
       <c r="A100" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="B100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F100" s="2" t="s">
         <v>15</v>
       </c>
@@ -5559,109 +5707,82 @@
       <c r="J100" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="K100" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="O100" s="1" t="s">
         <v>76</v>
       </c>
       <c r="P100" s="1" t="n">
-        <v>10.23</v>
-      </c>
-      <c r="Q100" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="R100" s="6" t="s">
-        <v>316</v>
-      </c>
+        <v>1.232</v>
+      </c>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="B101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F101" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H101" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I101" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="L101" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="M101" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="N101" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="O101" s="1" t="s">
         <v>76</v>
       </c>
       <c r="P101" s="1" t="n">
-        <v>19.16</v>
-      </c>
-      <c r="Q101" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="R101" s="6" t="s">
-        <v>316</v>
-      </c>
+        <v>1.232</v>
+      </c>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="B102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="N102" s="1" t="s">
         <v>314</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="P102" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q102" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="R102" s="6" t="s">
-        <v>316</v>
-      </c>
+        <v>1.232</v>
+      </c>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
@@ -5671,35 +5792,19 @@
         <v>15</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="N103" s="1" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="O103" s="1" t="s">
         <v>76</v>
       </c>
       <c r="P103" s="1" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Q103" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="R103" s="6" t="s">
-        <v>316</v>
-      </c>
+        <v>1.232</v>
+      </c>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="6"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
@@ -5708,39 +5813,20 @@
       <c r="F104" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H104" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I104" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="N104" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
+      </c>
+      <c r="J104" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="O104" s="1" t="s">
         <v>76</v>
       </c>
       <c r="P104" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q104" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="R104" s="6" t="s">
-        <v>316</v>
-      </c>
+        <v>1.232</v>
+      </c>
+      <c r="Q104" s="6"/>
+      <c r="R104" s="6"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
@@ -5750,35 +5836,19 @@
         <v>15</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="N105" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
+      </c>
+      <c r="J105" s="12" t="s">
+        <v>320</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="P105" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q105" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="R105" s="6" t="s">
-        <v>316</v>
-      </c>
+        <v>1.232</v>
+      </c>
+      <c r="Q105" s="6"/>
+      <c r="R105" s="6"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
@@ -5788,35 +5858,19 @@
         <v>15</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="O106" s="1" t="s">
         <v>76</v>
       </c>
       <c r="P106" s="1" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Q106" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="R106" s="6" t="s">
-        <v>316</v>
-      </c>
+        <v>1.232</v>
+      </c>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="6"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
@@ -5825,39 +5879,20 @@
       <c r="F107" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H107" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I107" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="N107" s="1" t="s">
-        <v>334</v>
+        <v>323</v>
+      </c>
+      <c r="J107" s="12" t="s">
+        <v>324</v>
       </c>
       <c r="O107" s="1" t="s">
         <v>76</v>
       </c>
       <c r="P107" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q107" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="R107" s="6" t="s">
-        <v>316</v>
-      </c>
+        <v>1.232</v>
+      </c>
+      <c r="Q107" s="6"/>
+      <c r="R107" s="6"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
@@ -5867,35 +5902,19 @@
         <v>15</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
+      </c>
+      <c r="J108" s="12" t="s">
+        <v>326</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="P108" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="Q108" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="R108" s="6" t="s">
-        <v>316</v>
-      </c>
+        <v>1.232</v>
+      </c>
+      <c r="Q108" s="6"/>
+      <c r="R108" s="6"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
@@ -5905,34 +5924,34 @@
         <v>15</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="O109" s="1" t="s">
         <v>76</v>
       </c>
       <c r="P109" s="1" t="n">
-        <v>0.2</v>
+        <v>10.23</v>
       </c>
       <c r="Q109" s="6" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="R109" s="6" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5946,34 +5965,34 @@
         <v>15</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="O110" s="1" t="s">
         <v>76</v>
       </c>
       <c r="P110" s="1" t="n">
-        <v>0</v>
+        <v>19.16</v>
       </c>
       <c r="Q110" s="6" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="R110" s="6" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5984,34 +6003,34 @@
         <v>15</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="O111" s="1" t="s">
         <v>48</v>
       </c>
       <c r="P111" s="1" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="Q111" s="6" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="R111" s="6" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6022,34 +6041,34 @@
         <v>15</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>342</v>
       </c>
       <c r="M112" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="N112" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="N112" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="O112" s="1" t="s">
         <v>76</v>
       </c>
       <c r="P112" s="1" t="n">
-        <v>4.99</v>
+        <v>0.31</v>
       </c>
       <c r="Q112" s="6" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="R112" s="6" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6063,34 +6082,34 @@
         <v>15</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>342</v>
       </c>
       <c r="M113" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="N113" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="N113" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="O113" s="1" t="s">
         <v>76</v>
       </c>
       <c r="P113" s="1" t="n">
-        <v>17.76</v>
+        <v>0</v>
       </c>
       <c r="Q113" s="6" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="R113" s="6" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6101,34 +6120,34 @@
         <v>15</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>342</v>
       </c>
       <c r="M114" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="N114" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="N114" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="O114" s="1" t="s">
         <v>48</v>
       </c>
       <c r="P114" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q114" s="6" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="R114" s="6" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6139,34 +6158,34 @@
         <v>15</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="K115" s="8" t="s">
-        <v>359</v>
+        <v>349</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="O115" s="1" t="s">
         <v>76</v>
       </c>
       <c r="P115" s="1" t="n">
-        <v>13.12</v>
+        <v>0.84</v>
       </c>
       <c r="Q115" s="6" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="R115" s="6" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6180,34 +6199,34 @@
         <v>15</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="K116" s="8" t="s">
-        <v>359</v>
+        <v>354</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="O116" s="1" t="s">
         <v>76</v>
       </c>
       <c r="P116" s="1" t="n">
-        <v>27.39</v>
+        <v>0</v>
       </c>
       <c r="Q116" s="6" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="R116" s="6" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6218,34 +6237,34 @@
         <v>15</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="K117" s="8" t="s">
-        <v>359</v>
+        <v>356</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="O117" s="1" t="s">
         <v>48</v>
       </c>
       <c r="P117" s="1" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="Q117" s="6" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="R117" s="6" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6255,35 +6274,35 @@
       <c r="F118" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H118" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I118" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="P118" s="1" t="n">
-        <v>13</v>
+        <v>0.2</v>
       </c>
       <c r="Q118" s="6" t="s">
-        <v>373</v>
+        <v>333</v>
+      </c>
+      <c r="R118" s="6" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6293,32 +6312,38 @@
       <c r="F119" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H119" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I119" s="1" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="P119" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q119" s="6" t="s">
-        <v>373</v>
+        <v>333</v>
+      </c>
+      <c r="R119" s="6" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6328,32 +6353,35 @@
       <c r="F120" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H120" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I120" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="P120" s="1" t="n">
-        <v>133.42</v>
+        <v>3</v>
       </c>
       <c r="Q120" s="6" t="s">
-        <v>373</v>
+        <v>333</v>
+      </c>
+      <c r="R120" s="6" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6364,33 +6392,39 @@
         <v>15</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="K121" s="1" t="s">
         <v>369</v>
       </c>
       <c r="L121" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="N121" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="M121" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="O121" s="1" t="s">
         <v>76</v>
       </c>
       <c r="P121" s="1" t="n">
-        <v>41.05</v>
+        <v>4.99</v>
       </c>
       <c r="Q121" s="6" t="s">
-        <v>373</v>
+        <v>333</v>
+      </c>
+      <c r="R121" s="6" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>380</v>
+        <v>195</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>15</v>
@@ -6399,149 +6433,194 @@
         <v>15</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>384</v>
+        <v>361</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="O122" s="1" t="s">
         <v>76</v>
       </c>
       <c r="P122" s="1" t="n">
-        <v>1.17</v>
+        <v>17.76</v>
+      </c>
+      <c r="Q122" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="R122" s="6" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>380</v>
+        <v>195</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H123" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I123" s="1" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>386</v>
+        <v>374</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>384</v>
+        <v>361</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="P123" s="1" t="n">
-        <v>0.54</v>
+        <v>4</v>
+      </c>
+      <c r="Q123" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="R123" s="6" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K124" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N124" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="L124" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="M124" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="O124" s="1" t="s">
         <v>76</v>
       </c>
       <c r="P124" s="1" t="n">
-        <v>-0.06</v>
+        <v>13.12</v>
+      </c>
+      <c r="Q124" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="R124" s="6" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="K125" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N125" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="L125" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="M125" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="O125" s="1" t="s">
         <v>76</v>
       </c>
       <c r="P125" s="1" t="n">
-        <v>0.59</v>
+        <v>27.39</v>
+      </c>
+      <c r="Q125" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="R125" s="6" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K126" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N126" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="F126" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L126" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="M126" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="N126" s="1" t="s">
-        <v>395</v>
-      </c>
       <c r="O126" s="1" t="s">
-        <v>220</v>
+        <v>48</v>
       </c>
       <c r="P126" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q126" s="1" t="s">
-        <v>396</v>
+        <v>1</v>
+      </c>
+      <c r="Q126" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="R126" s="6" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>380</v>
+        <v>195</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>15</v>
@@ -6550,174 +6629,465 @@
         <v>15</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>403</v>
+        <v>48</v>
       </c>
       <c r="P127" s="1" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="Q127" s="1" t="s">
-        <v>404</v>
+        <v>13</v>
+      </c>
+      <c r="Q127" s="6" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>380</v>
+        <v>195</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>403</v>
+        <v>48</v>
       </c>
       <c r="P128" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Q128" s="1" t="s">
-        <v>404</v>
+        <v>4</v>
+      </c>
+      <c r="Q128" s="6" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>380</v>
+        <v>195</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H129" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I129" s="1" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="N129" s="1" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>403</v>
+        <v>76</v>
       </c>
       <c r="P129" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q129" s="1" t="s">
-        <v>404</v>
+        <v>133.42</v>
+      </c>
+      <c r="Q129" s="6" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>380</v>
+        <v>195</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H130" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I130" s="1" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="N130" s="1" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>403</v>
+        <v>76</v>
       </c>
       <c r="P130" s="1" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="Q130" s="1" t="s">
-        <v>404</v>
+        <v>41.05</v>
+      </c>
+      <c r="Q130" s="6" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H131" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I131" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P131" s="1" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P132" s="1" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P133" s="1" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P134" s="1" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="K135" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="J131" s="1" t="s">
+      <c r="L135" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="K131" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="L131" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="M131" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="N131" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="O131" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="P131" s="1" t="n">
+      <c r="M135" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="P135" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q135" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="P136" s="1" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="Q136" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="P137" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q137" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="P138" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q138" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="O139" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="P139" s="1" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="Q139" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="N140" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="O140" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="P140" s="1" t="n">
         <v>0.38</v>
       </c>
-      <c r="Q131" s="1" t="s">
-        <v>404</v>
+      <c r="Q140" s="1" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/data_final/dictionaries/T_Dict.xlsx
+++ b/data_final/dictionaries/T_Dict.xlsx
@@ -433,9 +433,9 @@
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="30" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
     <col width="25" customWidth="1" min="11" max="11"/>
     <col width="25" customWidth="1" min="12" max="12"/>
     <col width="25" customWidth="1" min="13" max="13"/>
@@ -443,7 +443,8 @@
     <col width="25" customWidth="1" min="15" max="15"/>
     <col width="25" customWidth="1" min="16" max="16"/>
     <col width="25" customWidth="1" min="17" max="17"/>
-    <col width="100" customWidth="1" min="18" max="18"/>
+    <col width="25" customWidth="1" min="18" max="18"/>
+    <col width="100" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -479,65 +480,69 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Analysis</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Longitudinal</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Metadata Location</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Source Long</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>OEPS v1 Table</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Example</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Data Limitations</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
       </c>
-      <c r="S1" s="1" t="n"/>
       <c r="T1" s="1" t="n"/>
       <c r="U1" s="1" t="n"/>
       <c r="V1" s="1" t="n"/>
@@ -577,45 +582,46 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>HEROP_ID</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>HEROP_ID</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>A derived unique id corresponding to the relevant geographic unit.</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
         <is>
           <t>Healthy Regions &amp; Policies Lab, UIUC</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
+      <c r="N2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>050US01001-2018</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr">
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
         <is>
           <t>The HEROP_ID is generated as follows: Summary Level Code + "US" + GEOID + “-” + Year</t>
         </is>
@@ -652,45 +658,46 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>GEOID</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>GEOID</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Unique identifer for the geography unit to which this value should be attached</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
         <is>
           <t>Tiger/Line 2018; Tiger/Line 2010</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
+      <c r="N3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>36061</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -708,53 +715,54 @@
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
         <is>
           <t>AreaSqMi</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Land Area (Square Miles)</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Land area of geography in sq miles</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>InfoGroup, 2018</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>66452.74</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
 The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -787,57 +795,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>TotPop</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Total Population</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Total population</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>1632480</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>For more information about how these data have been used in homelessness and housing stability research, please refer to https://www.census.gov/newsroom/press-releases/2020/special-operations-homelessness.html or https://www.americanprogress.org/issues/poverty/reports/2020/10/05/491122/count-people-where-they-are/.</t>
         </is>
@@ -874,57 +883,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>Age18_64</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Population: Age 18-64</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Total adult population under age 65</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>1139347</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -957,57 +967,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>Age0_4</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Population: Age 0-4</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Total population between age 0-4</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>79897</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1040,57 +1051,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>Age5_14</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Population: Age 5-14</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Total population between age 5-14</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>122034</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1123,57 +1135,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>Age15_19</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Population: Age 15-19</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>Total population between age 15-19</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>68706</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1206,57 +1219,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>Age20_24</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Population: Age 20-24</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Total population between age 20-24</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>114772</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1289,57 +1303,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>Age15_44</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>Population: Age 15-44</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>Total population between age 15-44</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>784568</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1372,57 +1387,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>Age55_59</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>Population: Age 55-59</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>Total population between age 55-59</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>94082</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1455,57 +1471,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>Age60_64</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>Population: Age 60-64</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>Total population between age 60-64</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>90711</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1538,57 +1555,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>AgeOv65</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>Population: Age 65+</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>Total population at or over age 65</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>257362</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1621,57 +1639,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>Age15_24P</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>% Population: Age 15-24</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>Percentage of population between ages of 15 &amp; 24</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>11.24</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1704,57 +1723,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>Und45P</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>% Population: Age under 45</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t xml:space="preserve">	Percentage of population below 45 years of age</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>60.43</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1787,57 +1807,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>Ovr65P</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>% Population: Age 65+</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t xml:space="preserve">	Percentage of population over 65</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>15.77</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1870,57 +1891,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>ChildrenP</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Children %</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>Percentage of population under age 18</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>0.14</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1950,48 +1972,49 @@
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
         <is>
           <t>Age45_49</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Population: Age 45-49</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>Total population between age 45-49</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; 2010 Decennial Census; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>467768</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr">
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr">
         <is>
           <t>1990 and 2000 data from respective decennial censuses downloaded from IPUMS NHGIS and aggregated upwards.</t>
         </is>
@@ -2025,48 +2048,49 @@
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
         <is>
           <t>Age50_54</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>Population: Age 50-54</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>Total population between age 50-54</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; 2010 Decennial Census; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>476486</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr">
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
         <is>
           <t>1990 and 2000 data from respective decennial censuses downloaded from IPUMS NHGIS and aggregated upwards.</t>
         </is>
@@ -2092,48 +2116,49 @@
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
         <is>
           <t>AgeOv18</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>Population: Age 18+</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>Total population at or over age 18</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; 2010 Decennial Census</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>5661461</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2151,52 +2176,53 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
         <is>
           <t>Age45_54</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>Population: Age 45-54</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>Total population between age 45-54</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>105</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>Data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function, with county subdivisions as the underlying population weights.</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>The 1980 Census data does not allow for disaggregation into Age45_49 and Age50_54 variables, so this variable is used instead. The data itself is from its respective decennial census as downloaded from IPUMS NHGIS and crosswalked to 2010 census tracts using Longitudinal Tract Database crosswalk files. For more on the crosswalk files, see https://s4.ad.brown.edu/Projects/Diversity/researcher/bridging.htm</t>
         </is>
@@ -2218,48 +2244,49 @@
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
         <is>
           <t>TotPopHh</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Total Population in Households</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>Total number of people in households</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>7151776</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2277,48 +2304,49 @@
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
         <is>
           <t>NonRelFhhP</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>% Nonrelatives in Family Households</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>Percent of people living in family households that are not related to family</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>3.35</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2336,48 +2364,49 @@
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
         <is>
           <t>NonRelNfhhP</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>% Nonrelatives in Non-family Households</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>Percent of people living in non-family households that are not related</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>25.61</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2395,48 +2424,49 @@
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
         <is>
           <t>TotWrkE</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>Count of Working Population</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>Estimated count of working population</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>3513856</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2469,57 +2499,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>NoHsP</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>% Population without High School Degree</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>Percentage of population 25 years and over, less than a high school degree</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Other_Demographic_2018.md</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; ACS 2012, 5-Year; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>13.01</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2545,48 +2576,49 @@
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
         <is>
           <t>DisbP</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>% Population with Disability</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>Percentage of civilian non institutionalized population with a disability</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Other_Demographic_2018.md</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>12.7</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr">
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
         <is>
           <t>Data from 2000 Census downloaded at county level from NHGIS and aggregated upwards.</t>
         </is>
@@ -2623,57 +2655,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>WhiteP</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>% White Population</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>Percentage of population with race identified as white alone</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>56.2</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2706,57 +2739,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>BlackP</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>% Black/African American Population</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>Percentage of population with race identified as Black or African American alone</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>14.81</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2789,57 +2823,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>HispP</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>% Hispanic/Latinx Population</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>Percentage of population with ethnicity identified as of Hispanic or Latinx origin</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>25.95</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2872,57 +2907,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>AmIndP</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>% Native American/Alaska Native Population</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>Percentage of population with race identified as Native American or Alaska Native alone</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>0.43</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2955,57 +2991,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>AsianP</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>% Asian Population</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>Percentage of population with race identified as Asian alone</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>12.03</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3038,57 +3075,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>PacIsP</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>% Native Hawaiian &amp; Other PI Population</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>Percentage of population with race identified as Native Hawaiian and Other Pacific Islander alone</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>0.05</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3121,57 +3159,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>OtherP</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>% Other (race) Population</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>Percentage of Population with race not mentioned in any of the options above (includes two race or more races)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>16.48</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3193,48 +3232,49 @@
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
         <is>
           <t>TotVetPop</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>Total Veteran Population</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>Total Veteran population</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/VetPop.md</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="N36" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>537713</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3256,48 +3296,49 @@
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
         <is>
           <t>VetP</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>% Veteran Population</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>Percent of population that are veterans</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/VetPop.md</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>ACS 2017, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="N37" t="inlineStr">
         <is>
           <t>American Community Survey 2013-2017 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>9.58</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3331,36 +3372,37 @@
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
         <is>
           <t>MetRm30</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>MetRm30</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>Methadone access 30 minutes (RAAM)</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="O38" t="inlineStr">
+      <c r="N38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>1.232</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3394,36 +3436,37 @@
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
         <is>
           <t>MetRm60</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>MetRm60</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>Methadone access 60 minutes (RAAM)</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="O39" t="inlineStr">
+      <c r="N39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>1.232</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3457,36 +3500,37 @@
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr">
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
         <is>
           <t>MetRm90</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>MetRm90</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>Methadone access 90 minutes (RAAM)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="O40" t="inlineStr">
+      <c r="N40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>1.232</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3504,36 +3548,37 @@
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
         <is>
           <t>NalRm30</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>NalRm30</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>Naltrexone access 30 minutes (RAAM)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="O41" t="inlineStr">
+      <c r="N41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="Q41" t="inlineStr">
         <is>
           <t>1.232</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3551,36 +3596,37 @@
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr">
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
         <is>
           <t>NalRm60</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>NalRm60</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>Naltrexone access 60 minutes (RAAM)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="O42" t="inlineStr">
+      <c r="N42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>1.232</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3598,36 +3644,37 @@
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
         <is>
           <t>NalRm90</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>NalRm90</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>Naltrexone access 90 minutes (RAAM)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="O43" t="inlineStr">
+      <c r="N43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>1.232</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3645,36 +3692,37 @@
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
         <is>
           <t>BupRm30</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>BupRm30</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>Buprenorphine access 30 minutes (RAAM)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="O44" t="inlineStr">
+      <c r="N44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="Q44" t="inlineStr">
         <is>
           <t>1.232</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3692,36 +3740,37 @@
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
         <is>
           <t>BupRm60</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>BupRm60</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>Buprenorphine access 60 minutes (RAAM)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="O45" t="inlineStr">
+      <c r="N45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>1.232</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3739,36 +3788,37 @@
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr">
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
         <is>
           <t>BupRm90</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>BupRm90</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>Buprenorphine access 90 minutes (RAAM)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
-      <c r="O46" t="inlineStr">
+      <c r="N46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>1.232</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3786,52 +3836,53 @@
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
         <is>
           <t>FqhcMinDis</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>Distance (mi) to nearest FQHC</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>Euclidean distance* from tract/zip centroid to nearest FQHC, in miles</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>US Covid Atlas via HRSA, 2020</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="N47" t="inlineStr">
         <is>
           <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>10.23</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R47" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -3852,53 +3903,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
         <is>
           <t>FqhcTmDr</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>Driving time (min) to nearest FQHC</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>Driving time from tract/zip origin centroid to the nearest tract/zip FQHC destination centroid, in minutes</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>US Covid Atlas via HRSA, 2020</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="N48" t="inlineStr">
         <is>
           <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="P48" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>19.16</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
+      <c r="R48" t="inlineStr">
         <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr">
+      <c r="S48" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -3920,52 +3976,53 @@
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr">
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
         <is>
           <t>FqhcCntDr</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>Count of FQHCs (30-min drive)</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>Count of FQHCs within a 30-minute driving threshold</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>US Covid Atlas via HRSA, 2020</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="N49" t="inlineStr">
         <is>
           <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="P49" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
+      <c r="S49" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -3987,52 +4044,53 @@
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
         <is>
           <t>MoudMinDis</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>Distance (mi) to nearest MOUD (any)</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>Euclidean distance (miles) to nearest MOUD (all types)</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="N50" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="Q50" t="inlineStr">
         <is>
           <t>0.81</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
+      <c r="R50" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4054,52 +4112,53 @@
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr">
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
         <is>
           <t>BupMinDis</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>Distance (mi) to nearest Buprenorphine Provider</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>Euclidean distance (miles) to nearest buprenorphine provider</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="N51" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="Q51" t="inlineStr">
         <is>
           <t>0.81</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
+      <c r="R51" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr">
+      <c r="S51" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4120,53 +4179,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr">
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
         <is>
           <t>BupTmDr</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>Driving Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>Driving time (minutes) to nearest buprenorphine provider</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="N52" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="P52" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr">
+      <c r="Q52" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
+      <c r="R52" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr">
+      <c r="S52" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4188,52 +4252,53 @@
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
         <is>
           <t>BupCntDr30</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>Count of Buprenorphine Providers (30-min drive)</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>Count of methadone providers in 30 minute drive time threshold</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="N53" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="P53" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
+      <c r="Q53" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr">
+      <c r="R53" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr">
+      <c r="S53" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4255,52 +4320,53 @@
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
         <is>
           <t>MetMinDis</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>Distance (mi) to nearest Methadone Provider</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>Euclidean distance (miles) to nearest methadone provider</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="N54" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="P54" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr">
+      <c r="Q54" t="inlineStr">
         <is>
           <t>13.22</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr">
+      <c r="R54" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R54" t="inlineStr">
+      <c r="S54" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4321,53 +4387,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr">
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
         <is>
           <t>MetTmDr</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>Driving Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>Driving time (minutes) to nearest methadone provider</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="L55" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="N55" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
+      <c r="P55" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr">
+      <c r="Q55" t="inlineStr">
         <is>
           <t>27.39</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr">
+      <c r="R55" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R55" t="inlineStr">
+      <c r="S55" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4389,52 +4460,53 @@
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr">
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
         <is>
           <t>MetCntDr30</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>Count of Methadone Providers (30-min drive)</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>Count of methadone providers in 30 minute drive time threshold</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="L56" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="N56" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="P56" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr">
+      <c r="Q56" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr">
+      <c r="R56" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr">
+      <c r="S56" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4456,52 +4528,53 @@
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
         <is>
           <t>NalMinDis</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>Distance (mi) to nearest Naltrexone Provider</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>Euclidean distance (miles) to nearest naltrexone/Vivitrol provider</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="L57" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="N57" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="P57" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr">
+      <c r="Q57" t="inlineStr">
         <is>
           <t>18.04</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr">
+      <c r="R57" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R57" t="inlineStr">
+      <c r="S57" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4522,53 +4595,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr">
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
         <is>
           <t>NalTmDr</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>Driving Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>Driving time (minutes) to nearest naltrexone provider</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="L58" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="N58" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="P58" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr">
+      <c r="Q58" t="inlineStr">
         <is>
           <t>35.34</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
+      <c r="R58" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R58" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4590,52 +4668,53 @@
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr">
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
         <is>
           <t>NalCntDr30</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>Count of Naltrexone Providers (30-min drive)</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>Count of naltrexone providers in 30 minute drive time threshold</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="L59" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="N59" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="P59" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
+      <c r="Q59" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr">
+      <c r="R59" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R59" t="inlineStr">
+      <c r="S59" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4656,53 +4735,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr">
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
         <is>
           <t>BupTmWk</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>Walking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>Walking time (minutes) to nearest buprenorphine provider</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="L60" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
+      <c r="N60" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="P60" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P60" t="inlineStr">
+      <c r="Q60" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr">
+      <c r="R60" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R60" t="inlineStr">
+      <c r="S60" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4724,52 +4808,53 @@
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr">
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
         <is>
           <t>BupCntWk60</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>Count of Buprenorphine Providers (60-min walk)</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>Count of buprenorphine providers in 60 minute walking time threshold</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="L61" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="N61" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
+      <c r="P61" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr">
+      <c r="Q61" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr">
+      <c r="R61" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R61" t="inlineStr">
+      <c r="S61" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4791,52 +4876,53 @@
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr">
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
         <is>
           <t>BupCntWk30</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>Count of Buprenorphine Providers (30-min walk)</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>Count of buprenorphine providers in 30 minute walking time threshold</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
+      <c r="N62" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
+      <c r="P62" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P62" t="inlineStr">
+      <c r="Q62" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q62" t="inlineStr">
+      <c r="R62" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R62" t="inlineStr">
+      <c r="S62" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4857,53 +4943,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr">
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
         <is>
           <t>MetTmWk</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>Walking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>Walking time (minutes) to nearest methadone provider</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="L63" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
+      <c r="N63" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr">
+      <c r="P63" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr">
+      <c r="Q63" t="inlineStr">
         <is>
           <t>1744.66</t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr">
+      <c r="R63" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R63" t="inlineStr">
+      <c r="S63" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4925,52 +5016,53 @@
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr">
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
         <is>
           <t>MetCntWk30</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>Count of Methadone Providers (60-min walk)</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>Count of methadone providers in 60 minute walking time threshold</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="L64" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="N64" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr">
+      <c r="P64" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P64" t="inlineStr">
+      <c r="Q64" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q64" t="inlineStr">
+      <c r="R64" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R64" t="inlineStr">
+      <c r="S64" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -4992,52 +5084,53 @@
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr">
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
         <is>
           <t>MetCntWk60</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>Count of Methadone Providers (30-min walk)</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>Count of methadone providers in 30 minute walking time threshold</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="L65" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
+      <c r="N65" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr">
+      <c r="P65" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P65" t="inlineStr">
+      <c r="Q65" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q65" t="inlineStr">
+      <c r="R65" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R65" t="inlineStr">
+      <c r="S65" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -5058,49 +5151,54 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr">
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
         <is>
           <t>NalTmWk</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>Walking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>Walking time (minutes) to nearest naltrexone provider</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="L66" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="M66" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
+      <c r="N66" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr">
+      <c r="P66" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr">
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R66" t="inlineStr">
+      <c r="S66" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -5122,52 +5220,53 @@
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr">
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
         <is>
           <t>NalCntWk60</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>Count of Naltrexone Providers (60-min walk)</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>Count of naltrexone providers in 60 minute walking time threshold</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="L67" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="M67" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
+      <c r="N67" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr">
+      <c r="P67" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P67" t="inlineStr">
+      <c r="Q67" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q67" t="inlineStr">
+      <c r="R67" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R67" t="inlineStr">
+      <c r="S67" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -5189,52 +5288,53 @@
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr">
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
         <is>
           <t>NalCntWk30</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>Count of Naltrexone Providers (30-min walk)</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>Count of naltrexone providers in 30 minute walking time threshold</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
+      <c r="L68" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="M68" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
+      <c r="N68" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
+      <c r="P68" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P68" t="inlineStr">
+      <c r="Q68" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q68" t="inlineStr">
+      <c r="R68" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R68" t="inlineStr">
+      <c r="S68" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -5255,53 +5355,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr">
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
         <is>
           <t>BupTmBk</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>Biking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>Biking time (minutes) to nearest buprenorphine provider</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="L69" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="M69" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
+      <c r="N69" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr">
+      <c r="P69" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P69" t="inlineStr">
+      <c r="Q69" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q69" t="inlineStr">
+      <c r="R69" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R69" t="inlineStr">
+      <c r="S69" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -5323,52 +5428,53 @@
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr">
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
         <is>
           <t>BupCntBk60</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>Count of Buprenorphine Providers (60-min bike)</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>Count of buprenorphine providers in 60 minute biking time threshold</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
+      <c r="L70" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="M70" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
+      <c r="N70" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="P70" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P70" t="inlineStr">
+      <c r="Q70" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Q70" t="inlineStr">
+      <c r="R70" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R70" t="inlineStr">
+      <c r="S70" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -5390,52 +5496,53 @@
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr">
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
         <is>
           <t>BupCntBk30</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>Count of Buprenorphine Providers (30-min bike)</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>Count of buprenorphine providers in 30 minute biking time threshold</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="L71" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="M71" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
+      <c r="N71" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr">
+      <c r="P71" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P71" t="inlineStr">
+      <c r="Q71" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Q71" t="inlineStr">
+      <c r="R71" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R71" t="inlineStr">
+      <c r="S71" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -5456,53 +5563,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr">
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
         <is>
           <t>MetTmBk</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>Biking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>Biking time (minutes) to nearest methadone provider</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="L72" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="M72" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
+      <c r="N72" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr">
+      <c r="P72" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P72" t="inlineStr">
+      <c r="Q72" t="inlineStr">
         <is>
           <t>148.18</t>
         </is>
       </c>
-      <c r="Q72" t="inlineStr">
+      <c r="R72" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R72" t="inlineStr">
+      <c r="S72" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -5524,52 +5636,53 @@
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr">
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
         <is>
           <t>MetCntBk60</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>Count of Methadone Providers (60-min bike)</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>Count of methadone providers in 60 minute biking time threshold</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="L73" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="M73" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
+      <c r="N73" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr">
+      <c r="P73" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P73" t="inlineStr">
+      <c r="Q73" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q73" t="inlineStr">
+      <c r="R73" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R73" t="inlineStr">
+      <c r="S73" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -5591,52 +5704,53 @@
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr">
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
         <is>
           <t>MetCntBk30</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>Count of methadone providers (30-min bike)</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>Count of methadone providers in 30 minute biking time threshold</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="L74" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="M74" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
+      <c r="N74" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr">
+      <c r="P74" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P74" t="inlineStr">
+      <c r="Q74" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q74" t="inlineStr">
+      <c r="R74" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R74" t="inlineStr">
+      <c r="S74" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -5657,53 +5771,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr">
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
         <is>
           <t>NalTmBk</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>Biking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>Biking time (minutes) to nearest naltrexone provider</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
+      <c r="L75" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="M75" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
+      <c r="N75" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr">
+      <c r="P75" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P75" t="inlineStr">
+      <c r="Q75" t="inlineStr">
         <is>
           <t>165.18</t>
         </is>
       </c>
-      <c r="Q75" t="inlineStr">
+      <c r="R75" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R75" t="inlineStr">
+      <c r="S75" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -5725,52 +5844,53 @@
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr">
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
         <is>
           <t>NalCntBk60</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>Count of Naltrexone Providers (60-min bike)</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>Count of naltrexone providers in 60 minute biking time threshold</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="L76" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="M76" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
+      <c r="N76" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr">
+      <c r="P76" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P76" t="inlineStr">
+      <c r="Q76" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q76" t="inlineStr">
+      <c r="R76" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R76" t="inlineStr">
+      <c r="S76" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -5792,52 +5912,53 @@
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr">
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
         <is>
           <t>NalCntBk30</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>Count of Naltrexone Providers (30-min bike)</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>Count of naltrexone providers in 30 minute biking time threshold</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="L77" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="M77" t="inlineStr">
         <is>
           <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
+      <c r="N77" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr">
+      <c r="P77" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P77" t="inlineStr">
+      <c r="Q77" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q77" t="inlineStr">
+      <c r="R77" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
-      <c r="R77" t="inlineStr">
+      <c r="S77" t="inlineStr">
         <is>
           <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
@@ -5859,52 +5980,53 @@
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr">
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
         <is>
           <t>MhMinDis</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
           <t>Distance (mi) to nearest Mental Health Provider</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>Euclidean distance* from tract/zip centroid to nearest mental health provider, in miles</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="L78" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="M78" t="inlineStr">
         <is>
           <t>SAMHSA, 2020</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
+      <c r="N78" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr">
+      <c r="P78" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P78" t="inlineStr">
+      <c r="Q78" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="Q78" t="inlineStr">
+      <c r="R78" t="inlineStr">
         <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R78" t="inlineStr">
+      <c r="S78" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -5925,53 +6047,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr">
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
         <is>
           <t>MhTmDr</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="J79" t="inlineStr">
         <is>
           <t>Driving Time (min) to nearest Mental Health Provider</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>Driving time from tract/zip origin centroid to the nearest tract/zip mental health provider destination centroid, in minutes</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="L79" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="M79" t="inlineStr">
         <is>
           <t>SAMHSA, 2020</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
+      <c r="N79" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr">
+      <c r="P79" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P79" t="inlineStr">
+      <c r="Q79" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q79" t="inlineStr">
+      <c r="R79" t="inlineStr">
         <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R79" t="inlineStr">
+      <c r="S79" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -5993,52 +6120,53 @@
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr">
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
         <is>
           <t>MhCntDr</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="J80" t="inlineStr">
         <is>
           <t>Count of Mental Health Providers (30-min drive)</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>Count of MH providers within a 30-minute driving threshold</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="L80" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="M80" t="inlineStr">
         <is>
           <t>SAMHSA, 2020</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
+      <c r="N80" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr">
+      <c r="P80" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P80" t="inlineStr">
+      <c r="Q80" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Q80" t="inlineStr">
+      <c r="R80" t="inlineStr">
         <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R80" t="inlineStr">
+      <c r="S80" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -6060,52 +6188,53 @@
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr">
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
         <is>
           <t>OtpMinDis</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
+      <c r="J81" t="inlineStr">
         <is>
           <t>Distance (mi) to nearest Opioid Treatment Program (OTP)</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>Euclidean distance* from tract/zip centroid to nearest OTP service location, in miles</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="L81" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="M81" t="inlineStr">
         <is>
           <t>SAMSHA, 2021</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr">
+      <c r="N81" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr">
+      <c r="P81" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P81" t="inlineStr">
+      <c r="Q81" t="inlineStr">
         <is>
           <t>13.12</t>
         </is>
       </c>
-      <c r="Q81" t="inlineStr">
+      <c r="R81" t="inlineStr">
         <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R81" t="inlineStr">
+      <c r="S81" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -6126,49 +6255,54 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr">
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
         <is>
           <t>OtpTmDr</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
+      <c r="J82" t="inlineStr">
         <is>
           <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>Driving time from tract/zip origin centroid to the nearest tract/zip OTP destination centroid, in minutes</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
+      <c r="L82" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="M82" t="inlineStr">
         <is>
           <t>SAMSHA, 2021</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr">
+      <c r="N82" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
         </is>
       </c>
-      <c r="O82" t="inlineStr">
+      <c r="P82" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P82" t="inlineStr">
+      <c r="Q82" t="inlineStr">
         <is>
           <t>27.39</t>
         </is>
       </c>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr">
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -6190,48 +6324,49 @@
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr">
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
         <is>
           <t>OtpCntDr</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
+      <c r="J83" t="inlineStr">
         <is>
           <t>Count of Opioid Treatment Programs (OTP) (30-min drive)</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>Count of OTPs within a 30-minute driving threshold</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="L83" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="M83" t="inlineStr">
         <is>
           <t>SAMSHA, 2021</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr">
+      <c r="N83" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
         </is>
       </c>
-      <c r="O83" t="inlineStr">
+      <c r="P83" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P83" t="inlineStr">
+      <c r="Q83" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr">
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -6253,52 +6388,53 @@
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr">
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
         <is>
           <t>RxMinDis</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>Distance (mi) to nearest Pharmacy</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>Euclidean distance* from tract/zip centroid to nearest pharmacy, in miles</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="L84" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="M84" t="inlineStr">
         <is>
           <t>InfoGroup, 2019</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr">
+      <c r="N84" t="inlineStr">
         <is>
           <t>InfoGroup, 2019</t>
         </is>
       </c>
-      <c r="O84" t="inlineStr">
+      <c r="P84" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P84" t="inlineStr">
+      <c r="Q84" t="inlineStr">
         <is>
           <t>0.84</t>
         </is>
       </c>
-      <c r="Q84" t="inlineStr">
+      <c r="R84" t="inlineStr">
         <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R84" t="inlineStr">
+      <c r="S84" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -6319,53 +6455,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr">
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
         <is>
           <t>RxTmDr</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t xml:space="preserve">Driving Time (min) to nearest Pharmacy </t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>Driving time from tract/zip origin centroid to the nearest tract/zip pharmacy destination centroid, in minutes</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="L85" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="M85" t="inlineStr">
         <is>
           <t>InfoGroup, 2019</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr">
+      <c r="N85" t="inlineStr">
         <is>
           <t>InfoGroup, 2019</t>
         </is>
       </c>
-      <c r="O85" t="inlineStr">
+      <c r="P85" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P85" t="inlineStr">
+      <c r="Q85" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q85" t="inlineStr">
+      <c r="R85" t="inlineStr">
         <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R85" t="inlineStr">
+      <c r="S85" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -6387,52 +6528,53 @@
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr">
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
         <is>
           <t>RxCntDr</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>Count of Pharmacies (30-min drive)</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>Count of pharmacies within a 30-minute driving threshold</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="L86" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="M86" t="inlineStr">
         <is>
           <t>InfoGroup, 2019</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr">
+      <c r="N86" t="inlineStr">
         <is>
           <t>InfoGroup, 2019</t>
         </is>
       </c>
-      <c r="O86" t="inlineStr">
+      <c r="P86" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P86" t="inlineStr">
+      <c r="Q86" t="inlineStr">
         <is>
           <t>58</t>
         </is>
       </c>
-      <c r="Q86" t="inlineStr">
+      <c r="R86" t="inlineStr">
         <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R86" t="inlineStr">
+      <c r="S86" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -6454,52 +6596,53 @@
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr">
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
         <is>
           <t>SutMinDis</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="J87" t="inlineStr">
         <is>
           <t>Distance (mi) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>Euclidean distance* from tract/zip centroid to nearest SUT service location, in miles</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="L87" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="M87" t="inlineStr">
         <is>
           <t>SAMHSA, 2020</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr">
+      <c r="N87" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
-      <c r="O87" t="inlineStr">
+      <c r="P87" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P87" t="inlineStr">
+      <c r="Q87" t="inlineStr">
         <is>
           <t>4.99</t>
         </is>
       </c>
-      <c r="Q87" t="inlineStr">
+      <c r="R87" t="inlineStr">
         <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R87" t="inlineStr">
+      <c r="S87" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -6520,53 +6663,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr">
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
         <is>
           <t>SutTmDr</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>Driving time (min) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>Driving time from tract/zip origin centroid to the nearest tract/zip SUT destination centroid, in minutes</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="L88" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="M88" t="inlineStr">
         <is>
           <t>SAMHSA, 2020</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr">
+      <c r="N88" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
-      <c r="O88" t="inlineStr">
+      <c r="P88" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P88" t="inlineStr">
+      <c r="Q88" t="inlineStr">
         <is>
           <t>17.76</t>
         </is>
       </c>
-      <c r="Q88" t="inlineStr">
+      <c r="R88" t="inlineStr">
         <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R88" t="inlineStr">
+      <c r="S88" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -6588,52 +6736,53 @@
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr">
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
         <is>
           <t>SutCntDr</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>Count of Substance Use Treatment (SUT) facility (30-min drive)</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>Count of SUT services within a 30-minute driving threshold</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="L89" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="M89" t="inlineStr">
         <is>
           <t>SAMHSA, 2020</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr">
+      <c r="N89" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
-      <c r="O89" t="inlineStr">
+      <c r="P89" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P89" t="inlineStr">
+      <c r="Q89" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Q89" t="inlineStr">
+      <c r="R89" t="inlineStr">
         <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R89" t="inlineStr">
+      <c r="S89" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -6655,52 +6804,53 @@
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr">
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
         <is>
           <t>HospMinDis</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="J90" t="inlineStr">
         <is>
           <t>Distance (mi) to nearest Hospital</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>Euclidean distance* from tract/zip centroid to nearest hospital, in miles</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="L90" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="M90" t="inlineStr">
         <is>
           <t>CovidCareMap, 2020</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr">
+      <c r="N90" t="inlineStr">
         <is>
           <t>CovidCareMap, 2020</t>
         </is>
       </c>
-      <c r="O90" t="inlineStr">
+      <c r="P90" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P90" t="inlineStr">
+      <c r="Q90" t="inlineStr">
         <is>
           <t>0.31</t>
         </is>
       </c>
-      <c r="Q90" t="inlineStr">
+      <c r="R90" t="inlineStr">
         <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R90" t="inlineStr">
+      <c r="S90" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -6721,53 +6871,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr">
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
         <is>
           <t>HospTmDr</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>Driving time (min) to nearest Hospital</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>Driving time from tract/zip origin centroid to the nearest tract/zip hospital destination centroid, in minutes</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="L91" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="M91" t="inlineStr">
         <is>
           <t>CovidCareMap, 2020</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr">
+      <c r="N91" t="inlineStr">
         <is>
           <t>CovidCareMap, 2020</t>
         </is>
       </c>
-      <c r="O91" t="inlineStr">
+      <c r="P91" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P91" t="inlineStr">
+      <c r="Q91" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q91" t="inlineStr">
+      <c r="R91" t="inlineStr">
         <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R91" t="inlineStr">
+      <c r="S91" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -6789,52 +6944,53 @@
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr">
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
         <is>
           <t>HospCntDr</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>Count of Hospitals (30-min drive)</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>Count of hospitals within a 30-minute driving threshold</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="L92" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="M92" t="inlineStr">
         <is>
           <t>CovidCareMap, 2020</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr">
+      <c r="N92" t="inlineStr">
         <is>
           <t>CovidCareMap, 2020</t>
         </is>
       </c>
-      <c r="O92" t="inlineStr">
+      <c r="P92" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P92" t="inlineStr">
+      <c r="Q92" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Q92" t="inlineStr">
+      <c r="R92" t="inlineStr">
         <is>
           <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
-      <c r="R92" t="inlineStr">
+      <c r="S92" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
@@ -6856,53 +7012,54 @@
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr">
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
         <is>
           <t>AlcTot</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>Total Alcohol Outlets</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>Total number of alcohol outlets</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="L93" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="M93" t="inlineStr">
         <is>
           <t>InfoGroup, 2018</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr">
+      <c r="N93" t="inlineStr">
         <is>
           <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
-      <c r="O93" t="inlineStr">
+      <c r="P93" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P93" t="inlineStr">
+      <c r="Q93" t="inlineStr">
         <is>
           <t>421</t>
         </is>
       </c>
-      <c r="Q93" t="inlineStr">
+      <c r="R93" t="inlineStr">
         <is>
           <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
 The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
         </is>
       </c>
-      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6920,53 +7077,54 @@
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr">
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
         <is>
           <t>AlcDens</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>Alcohol Outlets Density</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>Number of alcohol outlets per square mile</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="L94" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="M94" t="inlineStr">
         <is>
           <t>InfoGroup, 2018</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr">
+      <c r="N94" t="inlineStr">
         <is>
           <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
-      <c r="O94" t="inlineStr">
+      <c r="P94" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P94" t="inlineStr">
+      <c r="Q94" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="Q94" t="inlineStr">
+      <c r="R94" t="inlineStr">
         <is>
           <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
 The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
         </is>
       </c>
-      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6984,53 +7142,54 @@
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr">
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
         <is>
           <t>AlcPerCap</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>Alcohol Outlets per Capita</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>Number of alcohol outlets per capita</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="L95" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="M95" t="inlineStr">
         <is>
           <t>InfoGroup, 2018</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr">
+      <c r="N95" t="inlineStr">
         <is>
           <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
-      <c r="O95" t="inlineStr">
+      <c r="P95" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P95" t="inlineStr">
+      <c r="Q95" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q95" t="inlineStr">
+      <c r="R95" t="inlineStr">
         <is>
           <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
 The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
         </is>
       </c>
-      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7048,52 +7207,53 @@
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr">
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
         <is>
           <t>TotPcp</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>Count of Primary Care Physicians (PCPs)</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr">
+      <c r="K96" t="inlineStr">
         <is>
           <t>Number of primary care providers in area</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr">
+      <c r="L96" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Health_PCPs.md</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="M96" t="inlineStr">
         <is>
           <t>Dartmouth Atlas, 2010</t>
         </is>
       </c>
-      <c r="M96" t="inlineStr">
+      <c r="N96" t="inlineStr">
         <is>
           <t>Dartmouth Atlas' Primary Care Service Area Project, 2010</t>
         </is>
       </c>
-      <c r="O96" t="inlineStr">
+      <c r="P96" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P96" t="inlineStr">
+      <c r="Q96" t="inlineStr">
         <is>
           <t>5904</t>
         </is>
       </c>
-      <c r="Q96" t="inlineStr">
+      <c r="R96" t="inlineStr">
         <is>
           <t>Does not include U.S. territories Puerto Rico, Guam, Northern Mariana Islands, American Samoa, Virgin Islands, or Washington, D.C.</t>
         </is>
       </c>
-      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7111,52 +7271,53 @@
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr">
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
         <is>
           <t>TotSp</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="J97" t="inlineStr">
         <is>
           <t>Count of Specialty Physicians</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="K97" t="inlineStr">
         <is>
           <t>Number of specialty physicians in area</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="L97" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Health_PCPs.md</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="M97" t="inlineStr">
         <is>
           <t>Dartmouth Atlas, 2010</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr">
+      <c r="N97" t="inlineStr">
         <is>
           <t>Dartmouth Atlas' Primary Care Service Area Project, 2010</t>
         </is>
       </c>
-      <c r="O97" t="inlineStr">
+      <c r="P97" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P97" t="inlineStr">
+      <c r="Q97" t="inlineStr">
         <is>
           <t>9499</t>
         </is>
       </c>
-      <c r="Q97" t="inlineStr">
+      <c r="R97" t="inlineStr">
         <is>
           <t>Does not include U.S. territories Puerto Rico, Guam, Northern Mariana Islands, American Samoa, Virgin Islands, or Washington, D.C.</t>
         </is>
       </c>
-      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7173,53 +7334,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr">
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
         <is>
           <t>PcpPer100k</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>Primary Care Physicians (PCP) per 100k</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>PCPs per total Population X 100,000</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr">
+      <c r="L98" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Health_PCPs.md</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="M98" t="inlineStr">
         <is>
           <t>Dartmouth Atlas, 2010</t>
         </is>
       </c>
-      <c r="M98" t="inlineStr">
+      <c r="N98" t="inlineStr">
         <is>
           <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project</t>
         </is>
       </c>
-      <c r="O98" t="inlineStr">
+      <c r="P98" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P98" t="inlineStr">
+      <c r="Q98" t="inlineStr">
         <is>
           <t>133.42</t>
         </is>
       </c>
-      <c r="Q98" t="inlineStr">
+      <c r="R98" t="inlineStr">
         <is>
           <t>Does not include U.S. territories Puerto Rico, Guam, Northern Mariana Islands, American Samoa, Virgin Islands, or Washington, D.C.</t>
         </is>
       </c>
-      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7237,52 +7403,53 @@
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr">
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
         <is>
           <t>SpPer100k</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>Specialty Physicians per 100k</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr">
+      <c r="K99" t="inlineStr">
         <is>
           <t>Specialty Physicians per total Population X 100,000</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr">
+      <c r="L99" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Health_PCPs.md</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="M99" t="inlineStr">
         <is>
           <t>Dartmouth Atlas, 2010</t>
         </is>
       </c>
-      <c r="M99" t="inlineStr">
+      <c r="N99" t="inlineStr">
         <is>
           <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project</t>
         </is>
       </c>
-      <c r="O99" t="inlineStr">
+      <c r="P99" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P99" t="inlineStr">
+      <c r="Q99" t="inlineStr">
         <is>
           <t>41.05</t>
         </is>
       </c>
-      <c r="Q99" t="inlineStr">
+      <c r="R99" t="inlineStr">
         <is>
           <t>Does not include U.S. territories Puerto Rico, Guam, Northern Mariana Islands, American Samoa, Virgin Islands, or Washington, D.C.</t>
         </is>
       </c>
-      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7315,57 +7482,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
           <t>TotUnits</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
+      <c r="J100" t="inlineStr">
         <is>
           <t>Total Occupied Housing Units</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr">
+      <c r="K100" t="inlineStr">
         <is>
           <t>Count of total occupied housing units</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="L100" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
         </is>
       </c>
-      <c r="L100" t="inlineStr">
+      <c r="M100" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; Census 2010; Social Explorer</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr">
+      <c r="N100" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012; Social Explorer Historic Census Data on 2010 Geometries</t>
         </is>
       </c>
-      <c r="O100" t="inlineStr">
+      <c r="P100" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P100" t="inlineStr">
+      <c r="Q100" t="inlineStr">
         <is>
           <t>874237</t>
         </is>
       </c>
-      <c r="Q100" t="inlineStr">
+      <c r="R100" t="inlineStr">
         <is>
           <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
         </is>
       </c>
-      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7398,57 +7566,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
           <t>VacantP</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
+      <c r="J101" t="inlineStr">
         <is>
           <t>Vacant Housing Units %</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr">
+      <c r="K101" t="inlineStr">
         <is>
           <t>Percentage of vacant housing units</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr">
+      <c r="L101" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
         </is>
       </c>
-      <c r="L101" t="inlineStr">
+      <c r="M101" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr">
+      <c r="N101" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5 Year Estimate; Social Explorer Historic Data on 2010 Geographies</t>
         </is>
       </c>
-      <c r="O101" t="inlineStr">
+      <c r="P101" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P101" t="inlineStr">
+      <c r="Q101" t="inlineStr">
         <is>
           <t>13.28</t>
         </is>
       </c>
-      <c r="Q101" t="inlineStr">
+      <c r="R101" t="inlineStr">
         <is>
           <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
         </is>
       </c>
-      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7466,48 +7635,49 @@
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr">
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
         <is>
           <t>MobileP</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
+      <c r="J102" t="inlineStr">
         <is>
           <t>Mobile Homes %</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
+      <c r="K102" t="inlineStr">
         <is>
           <t>Percentage of total housing units categorized as mobile housing structures</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr">
+      <c r="L102" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
         </is>
       </c>
-      <c r="L102" t="inlineStr">
+      <c r="M102" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M102" t="inlineStr">
+      <c r="N102" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate</t>
         </is>
       </c>
-      <c r="O102" t="inlineStr">
+      <c r="P102" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P102" t="inlineStr">
+      <c r="Q102" t="inlineStr">
         <is>
           <t>6.39</t>
         </is>
       </c>
-      <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7525,48 +7695,49 @@
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr">
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
         <is>
           <t>LngTermP</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
+      <c r="J103" t="inlineStr">
         <is>
           <t>Long-Term Occupancy %</t>
         </is>
       </c>
-      <c r="J103" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>Percentage of population who moved into their current housing more than 20 years ago</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr">
+      <c r="L103" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
         </is>
       </c>
-      <c r="L103" t="inlineStr">
+      <c r="M103" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr">
+      <c r="N103" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate</t>
         </is>
       </c>
-      <c r="O103" t="inlineStr">
+      <c r="P103" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P103" t="inlineStr">
+      <c r="Q103" t="inlineStr">
         <is>
           <t>19.99</t>
         </is>
       </c>
-      <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7584,48 +7755,49 @@
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr">
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
         <is>
           <t>RentalP</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>Rentals %</t>
         </is>
       </c>
-      <c r="J104" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>Percentage of occupied housing units that are rented</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr">
+      <c r="L104" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
         </is>
       </c>
-      <c r="L104" t="inlineStr">
+      <c r="M104" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M104" t="inlineStr">
+      <c r="N104" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate</t>
         </is>
       </c>
-      <c r="O104" t="inlineStr">
+      <c r="P104" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P104" t="inlineStr">
+      <c r="Q104" t="inlineStr">
         <is>
           <t>37.28</t>
         </is>
       </c>
-      <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7643,48 +7815,49 @@
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr">
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
         <is>
           <t>UnitDens</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr">
+      <c r="J105" t="inlineStr">
         <is>
           <t>Housing Unit Density</t>
         </is>
       </c>
-      <c r="J105" t="inlineStr">
+      <c r="K105" t="inlineStr">
         <is>
           <t>Number of housing units per square mile of land area</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr">
+      <c r="L105" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
         </is>
       </c>
-      <c r="L105" t="inlineStr">
+      <c r="M105" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr">
+      <c r="N105" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimate</t>
         </is>
       </c>
-      <c r="O105" t="inlineStr">
+      <c r="P105" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P105" t="inlineStr">
+      <c r="Q105" t="inlineStr">
         <is>
           <t>46.11</t>
         </is>
       </c>
-      <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7702,48 +7875,49 @@
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr">
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
         <is>
           <t>NoIntP</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr">
+      <c r="J106" t="inlineStr">
         <is>
           <t>Households without Internet Access %</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr">
+      <c r="K106" t="inlineStr">
         <is>
           <t>Percentage of Households without Internet access</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr">
+      <c r="L106" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Internet_2019.md</t>
         </is>
       </c>
-      <c r="L106" t="inlineStr">
+      <c r="M106" t="inlineStr">
         <is>
           <t>ACS, 2019</t>
         </is>
       </c>
-      <c r="M106" t="inlineStr">
+      <c r="N106" t="inlineStr">
         <is>
           <t>American Community Survey 2015-2019 5 Year Estimate</t>
         </is>
       </c>
-      <c r="O106" t="inlineStr">
+      <c r="P106" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P106" t="inlineStr">
+      <c r="Q106" t="inlineStr">
         <is>
           <t>8.79</t>
         </is>
       </c>
-      <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7761,52 +7935,53 @@
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr">
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
         <is>
           <t>Ndvi</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr">
+      <c r="J107" t="inlineStr">
         <is>
           <t>NDVI Average</t>
         </is>
       </c>
-      <c r="J107" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>Average normalized difference vegetation index, a measure of greenness used to determine the amount of vegetation in an area, value from all pixel values in each Census tract</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr">
+      <c r="L107" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/NDVI.md</t>
         </is>
       </c>
-      <c r="L107" t="inlineStr">
+      <c r="M107" t="inlineStr">
         <is>
           <t>Sentinel-2 MSI, 2018</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr">
+      <c r="N107" t="inlineStr">
         <is>
           <t>Sentinel 2 MSI: MultiSpectral Instrument Level-1 C</t>
         </is>
       </c>
-      <c r="O107" t="inlineStr">
+      <c r="P107" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P107" t="inlineStr">
+      <c r="Q107" t="inlineStr">
         <is>
           <t>0.06</t>
         </is>
       </c>
-      <c r="Q107" t="inlineStr">
+      <c r="R107" t="inlineStr">
         <is>
           <t>Despite removing identified influences of cloud interferences, there may still be clouds or other atmospheric conditions that alter pixel values used in calculations. See the original source for greater documentation of these effects. Furthermore, summarizing NDVI to the census tract simplifies inter-census tract variability.</t>
         </is>
       </c>
-      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7824,48 +7999,49 @@
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr">
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
         <is>
           <t>Ruca1</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr">
+      <c r="J108" t="inlineStr">
         <is>
           <t>Primary RUCA Code</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr">
+      <c r="K108" t="inlineStr">
         <is>
           <t>Primary RUCA Code</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr">
+      <c r="L108" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
         </is>
       </c>
-      <c r="L108" t="inlineStr">
+      <c r="M108" t="inlineStr">
         <is>
           <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
         </is>
       </c>
-      <c r="M108" t="inlineStr">
+      <c r="N108" t="inlineStr">
         <is>
           <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
-      <c r="O108" t="inlineStr">
+      <c r="P108" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="P108" t="inlineStr">
+      <c r="Q108" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7883,48 +8059,49 @@
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr">
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
         <is>
           <t>Ruca2</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr">
+      <c r="J109" t="inlineStr">
         <is>
           <t>Secondary RUCA Code</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr">
+      <c r="K109" t="inlineStr">
         <is>
           <t>Secondary RUCA Code</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr">
+      <c r="L109" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
         </is>
       </c>
-      <c r="L109" t="inlineStr">
+      <c r="M109" t="inlineStr">
         <is>
           <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
         </is>
       </c>
-      <c r="M109" t="inlineStr">
+      <c r="N109" t="inlineStr">
         <is>
           <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
-      <c r="O109" t="inlineStr">
+      <c r="P109" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="P109" t="inlineStr">
+      <c r="Q109" t="inlineStr">
         <is>
           <t>1.1</t>
         </is>
       </c>
-      <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7941,49 +8118,54 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr">
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
         <is>
           <t>Rurality</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr">
+      <c r="J110" t="inlineStr">
         <is>
           <t>Urban-Suburban-Rural</t>
         </is>
       </c>
-      <c r="J110" t="inlineStr">
+      <c r="K110" t="inlineStr">
         <is>
           <t>Urban/Suburban/Rural</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr">
+      <c r="L110" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
         </is>
       </c>
-      <c r="L110" t="inlineStr">
+      <c r="M110" t="inlineStr">
         <is>
           <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr">
+      <c r="N110" t="inlineStr">
         <is>
           <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
-      <c r="O110" t="inlineStr">
+      <c r="P110" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="P110" t="inlineStr">
+      <c r="Q110" t="inlineStr">
         <is>
           <t>Urban</t>
         </is>
       </c>
-      <c r="Q110" t="inlineStr"/>
       <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8016,57 +8198,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
           <t>PovP</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr">
+      <c r="J111" t="inlineStr">
         <is>
           <t>Poverty %</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr">
+      <c r="K111" t="inlineStr">
         <is>
           <t>Number of individuals earning below the poverty income threshold as a percentage of the total population</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr">
+      <c r="L111" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
         </is>
       </c>
-      <c r="L111" t="inlineStr">
+      <c r="M111" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr">
+      <c r="N111" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
-      <c r="O111" t="inlineStr">
+      <c r="P111" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P111" t="inlineStr">
+      <c r="Q111" t="inlineStr">
         <is>
           <t>16.6</t>
         </is>
       </c>
-      <c r="Q111" t="inlineStr">
+      <c r="R111" t="inlineStr">
         <is>
           <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
         </is>
       </c>
-      <c r="R111" t="inlineStr">
+      <c r="S111" t="inlineStr">
         <is>
           <t>For complete definitions of ACS variables described above, please refer to the American Community Survey &amp; Puerto Rico Community Survey 2018 Subject Definitions.</t>
         </is>
@@ -8103,57 +8286,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
           <t>UnempP</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
+      <c r="J112" t="inlineStr">
         <is>
           <t>Unemployment %</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr">
+      <c r="K112" t="inlineStr">
         <is>
           <t>The number of unemployed individuals as a percentage of the civilian labor force</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr">
+      <c r="L112" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
         </is>
       </c>
-      <c r="L112" t="inlineStr">
+      <c r="M112" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
         </is>
       </c>
-      <c r="M112" t="inlineStr">
+      <c r="N112" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
-      <c r="O112" t="inlineStr">
+      <c r="P112" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P112" t="inlineStr">
+      <c r="Q112" t="inlineStr">
         <is>
           <t>5.7</t>
         </is>
       </c>
-      <c r="Q112" t="inlineStr">
+      <c r="R112" t="inlineStr">
         <is>
           <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
         </is>
       </c>
-      <c r="R112" t="inlineStr">
+      <c r="S112" t="inlineStr">
         <is>
           <t>For complete definitions of ACS variables described above, please refer to the American Community Survey &amp; Puerto Rico Community Survey 2018 Subject Definitions.</t>
         </is>
@@ -8179,48 +8363,49 @@
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr">
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
         <is>
           <t>MedInc</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr">
+      <c r="J113" t="inlineStr">
         <is>
           <t>Median Income</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr">
+      <c r="K113" t="inlineStr">
         <is>
           <t>Median income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr">
+      <c r="L113" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
         </is>
       </c>
-      <c r="L113" t="inlineStr">
+      <c r="M113" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
-      <c r="M113" t="inlineStr">
+      <c r="N113" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
-      <c r="O113" t="inlineStr">
+      <c r="P113" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P113" t="inlineStr">
+      <c r="Q113" t="inlineStr">
         <is>
           <t>34148</t>
         </is>
       </c>
-      <c r="Q113" t="inlineStr"/>
       <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8242,48 +8427,49 @@
         </is>
       </c>
       <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr">
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
         <is>
           <t>PciE</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
+      <c r="J114" t="inlineStr">
         <is>
           <t>Per Capita Income</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr">
+      <c r="K114" t="inlineStr">
         <is>
           <t>Per capita income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr">
+      <c r="L114" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
         </is>
       </c>
-      <c r="L114" t="inlineStr">
+      <c r="M114" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
-      <c r="M114" t="inlineStr">
+      <c r="N114" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
-      <c r="O114" t="inlineStr">
+      <c r="P114" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P114" t="inlineStr">
+      <c r="Q114" t="inlineStr">
         <is>
           <t>36888</t>
         </is>
       </c>
-      <c r="Q114" t="inlineStr"/>
       <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8301,52 +8487,53 @@
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr">
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
         <is>
           <t>ForDqP</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr">
+      <c r="J115" t="inlineStr">
         <is>
           <t>Foreclosure &amp; Delinquency %</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr">
+      <c r="K115" t="inlineStr">
         <is>
           <t>Estimated percent of mortgages to start foreclosure process or be seriously delinquent during the 2008 Recession</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr">
+      <c r="L115" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/ForeclosureRate.md</t>
         </is>
       </c>
-      <c r="L115" t="inlineStr">
+      <c r="M115" t="inlineStr">
         <is>
           <t>HUD, 2018</t>
         </is>
       </c>
-      <c r="M115" t="inlineStr">
+      <c r="N115" t="inlineStr">
         <is>
           <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program</t>
         </is>
       </c>
-      <c r="O115" t="inlineStr">
+      <c r="P115" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P115" t="inlineStr">
+      <c r="Q115" t="inlineStr">
         <is>
           <t>5.53</t>
         </is>
       </c>
-      <c r="Q115" t="inlineStr">
+      <c r="R115" t="inlineStr">
         <is>
           <t>The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect "real" numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure.</t>
         </is>
       </c>
-      <c r="R115" t="inlineStr">
+      <c r="S115" t="inlineStr">
         <is>
           <t>For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau.</t>
         </is>
@@ -8368,52 +8555,53 @@
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr">
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
         <is>
           <t>ForDqTot</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr">
+      <c r="J116" t="inlineStr">
         <is>
           <t>Foreclosure &amp; Delinquency Count</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr">
+      <c r="K116" t="inlineStr">
         <is>
           <t>Estimated number of mortgages to start foreclosure process or be seriously delinquent during the 2008 Recession</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr">
+      <c r="L116" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/ForeclosureRate.md</t>
         </is>
       </c>
-      <c r="L116" t="inlineStr">
+      <c r="M116" t="inlineStr">
         <is>
           <t>HUD, 2018</t>
         </is>
       </c>
-      <c r="M116" t="inlineStr">
+      <c r="N116" t="inlineStr">
         <is>
           <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program</t>
         </is>
       </c>
-      <c r="O116" t="inlineStr">
+      <c r="P116" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P116" t="inlineStr">
+      <c r="Q116" t="inlineStr">
         <is>
           <t>48.09</t>
         </is>
       </c>
-      <c r="Q116" t="inlineStr">
+      <c r="R116" t="inlineStr">
         <is>
           <t>The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect "real" numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure.</t>
         </is>
       </c>
-      <c r="R116" t="inlineStr">
+      <c r="S116" t="inlineStr">
         <is>
           <t>For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau.</t>
         </is>
@@ -8439,48 +8627,49 @@
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr">
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
         <is>
           <t>GiniCoeff</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr">
+      <c r="J117" t="inlineStr">
         <is>
           <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr">
+      <c r="K117" t="inlineStr">
         <is>
           <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
-      <c r="K117" t="inlineStr">
+      <c r="L117" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/ForeclosureRate.md</t>
         </is>
       </c>
-      <c r="L117" t="inlineStr">
+      <c r="M117" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
-      <c r="M117" t="inlineStr">
+      <c r="N117" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
-      <c r="O117" t="inlineStr">
+      <c r="P117" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P117" t="inlineStr">
+      <c r="Q117" t="inlineStr">
         <is>
           <t>0.46</t>
         </is>
       </c>
-      <c r="Q117" t="inlineStr"/>
       <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8498,52 +8687,53 @@
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr">
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr">
         <is>
           <t>EduP</t>
         </is>
       </c>
-      <c r="I118" t="inlineStr">
+      <c r="J118" t="inlineStr">
         <is>
           <t>Employed % - Education</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr">
+      <c r="K118" t="inlineStr">
         <is>
           <t>Percentage of population employed in educational services industry</t>
         </is>
       </c>
-      <c r="K118" t="inlineStr">
+      <c r="L118" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
-      <c r="L118" t="inlineStr">
+      <c r="M118" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M118" t="inlineStr">
+      <c r="N118" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
-      <c r="O118" t="inlineStr">
+      <c r="P118" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P118" t="inlineStr">
+      <c r="Q118" t="inlineStr">
         <is>
           <t>8.44</t>
         </is>
       </c>
-      <c r="Q118" t="inlineStr">
+      <c r="R118" t="inlineStr">
         <is>
           <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
         </is>
       </c>
-      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8561,52 +8751,53 @@
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr">
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
         <is>
           <t>HghRskP</t>
         </is>
       </c>
-      <c r="I119" t="inlineStr">
+      <c r="J119" t="inlineStr">
         <is>
           <t>Employed % - High Risk of Injury</t>
         </is>
       </c>
-      <c r="J119" t="inlineStr">
+      <c r="K119" t="inlineStr">
         <is>
           <t>Percentage of population employed in following industries: agriculture, forestry, fishing and hunting, mining, quarrying, oil and gas extraction, construction, manufacturing, utilities</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr">
+      <c r="L119" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
-      <c r="L119" t="inlineStr">
+      <c r="M119" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M119" t="inlineStr">
+      <c r="N119" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
-      <c r="O119" t="inlineStr">
+      <c r="P119" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P119" t="inlineStr">
+      <c r="Q119" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Q119" t="inlineStr">
+      <c r="R119" t="inlineStr">
         <is>
           <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
         </is>
       </c>
-      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8624,52 +8815,53 @@
         </is>
       </c>
       <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr">
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr">
         <is>
           <t>HltCrP</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr">
+      <c r="J120" t="inlineStr">
         <is>
           <t>Employed % - Health Care</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t>Percentage of population employed in health care and social assistance industries</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr">
+      <c r="L120" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
-      <c r="L120" t="inlineStr">
+      <c r="M120" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M120" t="inlineStr">
+      <c r="N120" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
-      <c r="O120" t="inlineStr">
+      <c r="P120" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P120" t="inlineStr">
+      <c r="Q120" t="inlineStr">
         <is>
           <t>13.13</t>
         </is>
       </c>
-      <c r="Q120" t="inlineStr">
+      <c r="R120" t="inlineStr">
         <is>
           <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
         </is>
       </c>
-      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8687,52 +8879,53 @@
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr">
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
         <is>
           <t>RetailP</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr">
+      <c r="J121" t="inlineStr">
         <is>
           <t>Employed % - Retail</t>
         </is>
       </c>
-      <c r="J121" t="inlineStr">
+      <c r="K121" t="inlineStr">
         <is>
           <t>Percentage of population employed in retail trade industry</t>
         </is>
       </c>
-      <c r="K121" t="inlineStr">
+      <c r="L121" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
-      <c r="L121" t="inlineStr">
+      <c r="M121" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M121" t="inlineStr">
+      <c r="N121" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
-      <c r="O121" t="inlineStr">
+      <c r="P121" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P121" t="inlineStr">
+      <c r="Q121" t="inlineStr">
         <is>
           <t>11.7</t>
         </is>
       </c>
-      <c r="Q121" t="inlineStr">
+      <c r="R121" t="inlineStr">
         <is>
           <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
         </is>
       </c>
-      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8750,48 +8943,49 @@
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr">
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr">
         <is>
           <t>EssnWrkE</t>
         </is>
       </c>
-      <c r="I122" t="inlineStr">
+      <c r="J122" t="inlineStr">
         <is>
           <t>Count of Essential Workers</t>
         </is>
       </c>
-      <c r="J122" t="inlineStr">
+      <c r="K122" t="inlineStr">
         <is>
           <t>Estimated count of population employed in essential occupations.</t>
         </is>
       </c>
-      <c r="K122" t="inlineStr">
+      <c r="L122" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byOccupation_2018.md</t>
         </is>
       </c>
-      <c r="L122" t="inlineStr">
+      <c r="M122" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M122" t="inlineStr">
+      <c r="N122" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
-      <c r="O122" t="inlineStr">
+      <c r="P122" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P122" t="inlineStr">
+      <c r="Q122" t="inlineStr">
         <is>
           <t>1509709</t>
         </is>
       </c>
-      <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8809,48 +9003,49 @@
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr">
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr">
         <is>
           <t>EssnWrkP</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr">
+      <c r="J123" t="inlineStr">
         <is>
           <t>Essential Workers %</t>
         </is>
       </c>
-      <c r="J123" t="inlineStr">
+      <c r="K123" t="inlineStr">
         <is>
           <t>Percentage of population employed in essential occupations.</t>
         </is>
       </c>
-      <c r="K123" t="inlineStr">
+      <c r="L123" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byOccupation_2018.md</t>
         </is>
       </c>
-      <c r="L123" t="inlineStr">
+      <c r="M123" t="inlineStr">
         <is>
           <t>ACS 2018, 5-Year</t>
         </is>
       </c>
-      <c r="M123" t="inlineStr">
+      <c r="N123" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
-      <c r="O123" t="inlineStr">
+      <c r="P123" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P123" t="inlineStr">
+      <c r="Q123" t="inlineStr">
         <is>
           <t>42.96</t>
         </is>
       </c>
-      <c r="Q123" t="inlineStr"/>
       <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8867,49 +9062,54 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr">
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr">
         <is>
           <t>SocEcAdvIn</t>
         </is>
       </c>
-      <c r="I124" t="inlineStr">
+      <c r="J124" t="inlineStr">
         <is>
           <t>Socioeconomic Advantage Index</t>
         </is>
       </c>
-      <c r="J124" t="inlineStr">
+      <c r="K124" t="inlineStr">
         <is>
           <t>Raw Socioeconomic Advantage Index (https://sdohatlas.github.io/)</t>
         </is>
       </c>
-      <c r="K124" t="inlineStr">
+      <c r="L124" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SDOH_2014.md</t>
         </is>
       </c>
-      <c r="L124" t="inlineStr">
+      <c r="M124" t="inlineStr">
         <is>
           <t>GeoDa Data and Lab; SDOH Atlas</t>
         </is>
       </c>
-      <c r="M124" t="inlineStr">
+      <c r="N124" t="inlineStr">
         <is>
           <t>GeoDa Data and Lab; Spatial Deterimants of Health Atlas</t>
         </is>
       </c>
-      <c r="O124" t="inlineStr">
+      <c r="P124" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P124" t="inlineStr">
+      <c r="Q124" t="inlineStr">
         <is>
           <t>1.17</t>
         </is>
       </c>
-      <c r="Q124" t="inlineStr"/>
       <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8926,49 +9126,54 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr">
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr">
         <is>
           <t>LimMobInd</t>
         </is>
       </c>
-      <c r="I125" t="inlineStr">
+      <c r="J125" t="inlineStr">
         <is>
           <t>Limited Moblility Index</t>
         </is>
       </c>
-      <c r="J125" t="inlineStr">
+      <c r="K125" t="inlineStr">
         <is>
           <t>Raw Limited Mobility Index (https://sdohatlas.github.io/)</t>
         </is>
       </c>
-      <c r="K125" t="inlineStr">
+      <c r="L125" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SDOH_2014.md</t>
         </is>
       </c>
-      <c r="L125" t="inlineStr">
+      <c r="M125" t="inlineStr">
         <is>
           <t>GeoDa Data and Lab; SDOH Atlas</t>
         </is>
       </c>
-      <c r="M125" t="inlineStr">
+      <c r="N125" t="inlineStr">
         <is>
           <t>GeoDa Data and Lab; Spatial Deterimants of Health Atlas</t>
         </is>
       </c>
-      <c r="O125" t="inlineStr">
+      <c r="P125" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P125" t="inlineStr">
+      <c r="Q125" t="inlineStr">
         <is>
           <t>0.54</t>
         </is>
       </c>
-      <c r="Q125" t="inlineStr"/>
       <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8985,49 +9190,54 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr">
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr">
         <is>
           <t>UrbCoreInd</t>
         </is>
       </c>
-      <c r="I126" t="inlineStr">
+      <c r="J126" t="inlineStr">
         <is>
           <t>Urban Core Opportunity Index</t>
         </is>
       </c>
-      <c r="J126" t="inlineStr">
+      <c r="K126" t="inlineStr">
         <is>
           <t>Raw Urban Core Opportunity Index (https://sdohatlas.github.io/)</t>
         </is>
       </c>
-      <c r="K126" t="inlineStr">
+      <c r="L126" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SDOH_2014.md</t>
         </is>
       </c>
-      <c r="L126" t="inlineStr">
+      <c r="M126" t="inlineStr">
         <is>
           <t>GeoDa Data and Lab; SDOH Atlas</t>
         </is>
       </c>
-      <c r="M126" t="inlineStr">
+      <c r="N126" t="inlineStr">
         <is>
           <t>GeoDa Data and Lab; Spatial Deterimants of Health Atlas</t>
         </is>
       </c>
-      <c r="O126" t="inlineStr">
+      <c r="P126" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P126" t="inlineStr">
+      <c r="Q126" t="inlineStr">
         <is>
           <t>-0.06</t>
         </is>
       </c>
-      <c r="Q126" t="inlineStr"/>
       <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -9044,49 +9254,54 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr">
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
         <is>
           <t>MicaInd</t>
         </is>
       </c>
-      <c r="I127" t="inlineStr">
+      <c r="J127" t="inlineStr">
         <is>
           <t>Mixed Immigrant Cohesion and Accesibility (MICA) Index</t>
         </is>
       </c>
-      <c r="J127" t="inlineStr">
+      <c r="K127" t="inlineStr">
         <is>
           <t>Raw Mixed Immigrant Cohesion and Accessibility (MICA) Index (https://sdohatlas.github.io/)</t>
         </is>
       </c>
-      <c r="K127" t="inlineStr">
+      <c r="L127" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SDOH_2014.md</t>
         </is>
       </c>
-      <c r="L127" t="inlineStr">
+      <c r="M127" t="inlineStr">
         <is>
           <t>GeoDa Data and Lab; SDOH Atlas</t>
         </is>
       </c>
-      <c r="M127" t="inlineStr">
+      <c r="N127" t="inlineStr">
         <is>
           <t>GeoDa Data and Lab; Spatial Deterimants of Health Atlas</t>
         </is>
       </c>
-      <c r="O127" t="inlineStr">
+      <c r="P127" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P127" t="inlineStr">
+      <c r="Q127" t="inlineStr">
         <is>
           <t>0.59</t>
         </is>
       </c>
-      <c r="Q127" t="inlineStr"/>
       <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9104,52 +9319,53 @@
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr">
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
         <is>
           <t>NeighbTyp</t>
         </is>
       </c>
-      <c r="I128" t="inlineStr">
+      <c r="J128" t="inlineStr">
         <is>
           <t>Neighborhood Type</t>
         </is>
       </c>
-      <c r="J128" t="inlineStr">
+      <c r="K128" t="inlineStr">
         <is>
           <t>Categorical, one of seven neighborhood (tract-level) typologies: 1 = Rural Affordable; 2 = Suburban Affluent; 3 = Suburban Affordable; 4 = Extreme Poverty; 5 = Multilingual Working; 6 = Urban Core Opportunity; 7 = Sparse Areas</t>
         </is>
       </c>
-      <c r="K128" t="inlineStr">
+      <c r="L128" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SDOH_2014.md</t>
         </is>
       </c>
-      <c r="L128" t="inlineStr">
+      <c r="M128" t="inlineStr">
         <is>
           <t>Kolak et al., 2020</t>
         </is>
       </c>
-      <c r="M128" t="inlineStr">
+      <c r="N128" t="inlineStr">
         <is>
           <t>Kolak et al., 2020</t>
         </is>
       </c>
-      <c r="O128" t="inlineStr">
+      <c r="P128" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="P128" t="inlineStr">
+      <c r="Q128" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Q128" t="inlineStr">
+      <c r="R128" t="inlineStr">
         <is>
           <t>Some tracts are not assigned with any typologies because data are missing for factor analysis.</t>
         </is>
       </c>
-      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -9166,53 +9382,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr">
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr">
         <is>
           <t>SviTh1</t>
         </is>
       </c>
-      <c r="I129" t="inlineStr">
+      <c r="J129" t="inlineStr">
         <is>
           <t>Social Vulnerability Index (SVI) 1</t>
         </is>
       </c>
-      <c r="J129" t="inlineStr">
+      <c r="K129" t="inlineStr">
         <is>
           <t>SVI Ranking, Theme 1: Socioeconomic</t>
         </is>
       </c>
-      <c r="K129" t="inlineStr">
+      <c r="L129" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI_2018.md</t>
         </is>
       </c>
-      <c r="L129" t="inlineStr">
+      <c r="M129" t="inlineStr">
         <is>
           <t>CDC, 2018</t>
         </is>
       </c>
-      <c r="M129" t="inlineStr">
+      <c r="N129" t="inlineStr">
         <is>
           <t>Centers for Disease Control, 2018</t>
         </is>
       </c>
-      <c r="O129" t="inlineStr">
+      <c r="P129" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P129" t="inlineStr">
+      <c r="Q129" t="inlineStr">
         <is>
           <t>0.43</t>
         </is>
       </c>
-      <c r="Q129" t="inlineStr">
+      <c r="R129" t="inlineStr">
         <is>
           <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
         </is>
       </c>
-      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -9230,52 +9451,53 @@
         </is>
       </c>
       <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr">
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr">
         <is>
           <t>SviTh2</t>
         </is>
       </c>
-      <c r="I130" t="inlineStr">
+      <c r="J130" t="inlineStr">
         <is>
           <t>Social Vulnerability Index (SVI) 2</t>
         </is>
       </c>
-      <c r="J130" t="inlineStr">
+      <c r="K130" t="inlineStr">
         <is>
           <t>SVI Ranking, Theme 2: Household Composition &amp; Disability</t>
         </is>
       </c>
-      <c r="K130" t="inlineStr">
+      <c r="L130" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI_2018.md</t>
         </is>
       </c>
-      <c r="L130" t="inlineStr">
+      <c r="M130" t="inlineStr">
         <is>
           <t>CDC, 2018</t>
         </is>
       </c>
-      <c r="M130" t="inlineStr">
+      <c r="N130" t="inlineStr">
         <is>
           <t>Centers for Disease Control, 2018</t>
         </is>
       </c>
-      <c r="O130" t="inlineStr">
+      <c r="P130" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P130" t="inlineStr">
+      <c r="Q130" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
-      <c r="Q130" t="inlineStr">
+      <c r="R130" t="inlineStr">
         <is>
           <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
         </is>
       </c>
-      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9293,52 +9515,53 @@
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr">
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
         <is>
           <t>SviTh3</t>
         </is>
       </c>
-      <c r="I131" t="inlineStr">
+      <c r="J131" t="inlineStr">
         <is>
           <t>Social Vulnerability Index (SVI) 3</t>
         </is>
       </c>
-      <c r="J131" t="inlineStr">
+      <c r="K131" t="inlineStr">
         <is>
           <t>SVI Ranking, Theme 3: Minority Status &amp; Language</t>
         </is>
       </c>
-      <c r="K131" t="inlineStr">
+      <c r="L131" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI_2018.md</t>
         </is>
       </c>
-      <c r="L131" t="inlineStr">
+      <c r="M131" t="inlineStr">
         <is>
           <t>CDC, 2018</t>
         </is>
       </c>
-      <c r="M131" t="inlineStr">
+      <c r="N131" t="inlineStr">
         <is>
           <t>Centers for Disease Control, 2018</t>
         </is>
       </c>
-      <c r="O131" t="inlineStr">
+      <c r="P131" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P131" t="inlineStr">
+      <c r="Q131" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="Q131" t="inlineStr">
+      <c r="R131" t="inlineStr">
         <is>
           <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
         </is>
       </c>
-      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9355,53 +9578,58 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr">
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr">
         <is>
           <t>SviTh4</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr">
+      <c r="J132" t="inlineStr">
         <is>
           <t>Social Vulnerability Index (SVI) 4</t>
         </is>
       </c>
-      <c r="J132" t="inlineStr">
+      <c r="K132" t="inlineStr">
         <is>
           <t>SVI Ranking, Theme 4: Housing Type &amp; Transportation</t>
         </is>
       </c>
-      <c r="K132" t="inlineStr">
+      <c r="L132" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI_2018.md</t>
         </is>
       </c>
-      <c r="L132" t="inlineStr">
+      <c r="M132" t="inlineStr">
         <is>
           <t>CDC, 2018</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr">
+      <c r="N132" t="inlineStr">
         <is>
           <t>Centers for Disease Control, 2018</t>
         </is>
       </c>
-      <c r="O132" t="inlineStr">
+      <c r="P132" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P132" t="inlineStr">
+      <c r="Q132" t="inlineStr">
         <is>
           <t>0.61</t>
         </is>
       </c>
-      <c r="Q132" t="inlineStr">
+      <c r="R132" t="inlineStr">
         <is>
           <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
         </is>
       </c>
-      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9419,52 +9647,53 @@
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr">
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr">
         <is>
           <t>SviSmryRnk</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr">
+      <c r="J133" t="inlineStr">
         <is>
           <t>Social Vulnerability Index (SVI) Summary Ranking</t>
         </is>
       </c>
-      <c r="J133" t="inlineStr">
+      <c r="K133" t="inlineStr">
         <is>
           <t>Overall summary ranking</t>
         </is>
       </c>
-      <c r="K133" t="inlineStr">
+      <c r="L133" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI_2018.md</t>
         </is>
       </c>
-      <c r="L133" t="inlineStr">
+      <c r="M133" t="inlineStr">
         <is>
           <t>CDC, 2018</t>
         </is>
       </c>
-      <c r="M133" t="inlineStr">
+      <c r="N133" t="inlineStr">
         <is>
           <t>Centers for Disease Control, 2018</t>
         </is>
       </c>
-      <c r="O133" t="inlineStr">
+      <c r="P133" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="P133" t="inlineStr">
+      <c r="Q133" t="inlineStr">
         <is>
           <t>0.38</t>
         </is>
       </c>
-      <c r="Q133" t="inlineStr">
+      <c r="R133" t="inlineStr">
         <is>
           <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
         </is>
       </c>
-      <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_final/dictionaries/T_Dict.xlsx
+++ b/data_final/dictionaries/T_Dict.xlsx
@@ -557,75 +557,64 @@
           <t>Geography</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>HEROP_ID</t>
+          <t>AreaSqMi</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>HEROP_ID</t>
+          <t>Land Area (Square Miles)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>A derived unique id corresponding to the relevant geographic unit.</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
+          <t>Land area of geography in sq miles</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Healthy Regions &amp; Policies Lab, UIUC</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
+          <t>InfoGroup, 2018</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>050US01001-2018</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>The HEROP_ID is generated as follows: Summary Level Code + "US" + GEOID + “-” + Year</t>
-        </is>
-      </c>
+          <t>66452.74</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
+The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -666,23 +655,27 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>GEOID</t>
+          <t>HEROP_ID</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>GEOID</t>
+          <t>HEROP_ID</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Unique identifer for the geography unit to which this value should be attached</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
+          <t>A derived unique id corresponding to the relevant geographic unit.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Geographic_Boundaries.md</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Tiger/Line 2018; Tiger/Line 2010</t>
+          <t>Healthy Regions &amp; Policies Lab, UIUC</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -693,11 +686,15 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>36061</t>
+          <t>050US01001-2018</t>
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>The HEROP_ID is generated as follows: Summary Level Code + "US" + GEOID</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -705,63 +702,74 @@
           <t>Geography</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>AreaSqMi</t>
+          <t>GEOID</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Land Area (Square Miles)</t>
+          <t>GEOID</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Land area of geography in sq miles</t>
+          <t>Unique identifer for the geography unit to which this value should be attached</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Geographic_Boundaries.md</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>InfoGroup, 2018</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
-        </is>
-      </c>
+          <t>Tiger/Line 2018; Tiger/Line 2010</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>66452.74</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
-The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
-        </is>
-      </c>
+          <t>36061</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -1825,7 +1833,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Percentage of population over 65</t>
+          <t>Percentage of population over 65</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2414,58 +2422,82 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TotWrkE</t>
+          <t>NoHsP</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Count of Working Population</t>
+          <t>% Population without High School Degree</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Estimated count of working population</t>
+          <t>Percentage of population 25 years and over, less than a high school degree</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Other_Demographic_2018.md</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>3513856</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr"/>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+        </is>
+      </c>
       <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -2474,16 +2506,8 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
           <t>x</t>
@@ -2500,24 +2524,20 @@
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>NoHsP</t>
+          <t>DisbP</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>% Population without High School Degree</t>
+          <t>% Population with Disability</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Percentage of population 25 years and over, less than a high school degree</t>
+          <t>Percentage of civilian non institutionalized population with a disability</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2527,7 +2547,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2542,15 +2562,15 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>13.01</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
+          <t>12.7</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Data from 2000 Census downloaded at county level from NHGIS and aggregated upwards.</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2558,8 +2578,16 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>x</t>
@@ -2576,35 +2604,39 @@
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>DisbP</t>
+          <t>WhiteP</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>% Population with Disability</t>
+          <t>% White Population</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Percentage of civilian non institutionalized population with a disability</t>
+          <t>Percentage of population with race identified as white alone</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Other_Demographic_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2614,15 +2646,15 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>12.7</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>Data from 2000 Census downloaded at county level from NHGIS and aggregated upwards.</t>
-        </is>
-      </c>
+          <t>56.2</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2663,17 +2695,17 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>WhiteP</t>
+          <t>BlackP</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>% White Population</t>
+          <t>% Black/African American Population</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as white alone</t>
+          <t>Percentage of population with race identified as Black or African American alone</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2698,7 +2730,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>14.81</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2747,17 +2779,17 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>BlackP</t>
+          <t>HispP</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>% Black/African American Population</t>
+          <t>% Hispanic/Latinx Population</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Black or African American alone</t>
+          <t>Percentage of population with ethnicity identified as of Hispanic or Latinx origin</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2782,7 +2814,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>14.81</t>
+          <t>25.95</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2831,17 +2863,17 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>HispP</t>
+          <t>AmIndP</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>% Hispanic/Latinx Population</t>
+          <t>% Native American/Alaska Native Population</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Percentage of population with ethnicity identified as of Hispanic or Latinx origin</t>
+          <t>Percentage of population with race identified as Native American or Alaska Native alone</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2866,7 +2898,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>25.95</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2915,17 +2947,17 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>AmIndP</t>
+          <t>AsianP</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>% Native American/Alaska Native Population</t>
+          <t>% Asian Population</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Native American or Alaska Native alone</t>
+          <t>Percentage of population with race identified as Asian alone</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2950,7 +2982,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>12.03</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2999,17 +3031,17 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>AsianP</t>
+          <t>PacIsP</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>% Asian Population</t>
+          <t>% Native Hawaiian &amp; Other PI Population</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Asian alone</t>
+          <t>Percentage of population with race identified as Native Hawaiian and Other Pacific Islander alone</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3034,7 +3066,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>12.03</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3083,17 +3115,17 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>PacIsP</t>
+          <t>OtherP</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>% Native Hawaiian &amp; Other PI Population</t>
+          <t>% Other (race) Population</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Native Hawaiian and Other Pacific Islander alone</t>
+          <t>Percentage of Population with race not mentioned in any of the options above (includes two race or more races)</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3118,7 +3150,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>16.48</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3134,21 +3166,9 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>x</t>
@@ -3160,56 +3180,48 @@
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>OtherP</t>
+          <t>TotVetPop</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>% Other (race) Population</t>
+          <t>Total Veteran Population</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Percentage of Population with race not mentioned in any of the options above (includes two race or more races)</t>
+          <t>Total Veteran population</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/VetPop.md</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>16.48</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
+          <t>537713</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -3235,17 +3247,17 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>TotVetPop</t>
+          <t>VetP</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Total Veteran Population</t>
+          <t>% Veteran Population</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Total Veteran population</t>
+          <t>Percent of population that are veterans</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3255,22 +3267,22 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>ACS 2017, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>American Community Survey 2013-2017 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>537713</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="R36" t="inlineStr"/>
@@ -3279,12 +3291,24 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Social</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+          <t>Environment</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>x</t>
@@ -3299,34 +3323,22 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>VetP</t>
+          <t>MetRm30</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>% Veteran Population</t>
+          <t>Methadone access 30 minutes (RAAM)</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Percent of population that are veterans</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/VetPop.md</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>ACS 2017, 5-Year; ACS 2012, 5-Year</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>American Community Survey 2013-2017 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates</t>
-        </is>
-      </c>
+          <t>Methadone access 30 minutes (RAAM)</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>number</t>
@@ -3334,7 +3346,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>1.232</t>
         </is>
       </c>
       <c r="R37" t="inlineStr"/>
@@ -3375,17 +3387,17 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>MetRm30</t>
+          <t>MetRm60</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>MetRm30</t>
+          <t>Methadone access 60 minutes (RAAM)</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Methadone access 30 minutes (RAAM)</t>
+          <t>Methadone access 60 minutes (RAAM)</t>
         </is>
       </c>
       <c r="L38" t="inlineStr"/>
@@ -3439,17 +3451,17 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>MetRm60</t>
+          <t>MetRm90</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>MetRm60</t>
+          <t>Methadone access 90 minutes (RAAM)</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Methadone access 60 minutes (RAAM)</t>
+          <t>Methadone access 90 minutes (RAAM)</t>
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
@@ -3474,26 +3486,10 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
           <t>x</t>
@@ -3503,17 +3499,17 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>MetRm90</t>
+          <t>NalRm30</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>MetRm90</t>
+          <t>Naltrexone access 30 minutes (RAAM)</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Methadone access 90 minutes (RAAM)</t>
+          <t>Naltrexone access 30 minutes (RAAM)</t>
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
@@ -3551,17 +3547,17 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>NalRm30</t>
+          <t>NalRm60</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>NalRm30</t>
+          <t>Naltrexone access 60 minutes (RAAM)</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Naltrexone access 30 minutes (RAAM)</t>
+          <t>Naltrexone access 60 minutes (RAAM)</t>
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
@@ -3599,17 +3595,17 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>NalRm60</t>
+          <t>NalRm90</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>NalRm60</t>
+          <t>Naltrexone access 90 minutes (RAAM)</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Naltrexone access 60 minutes (RAAM)</t>
+          <t>Naltrexone access 90 minutes (RAAM)</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
@@ -3647,17 +3643,17 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>NalRm90</t>
+          <t>BupRm30</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>NalRm90</t>
+          <t>Buprenorphine access 30 minutes (RAAM)</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Naltrexone access 90 minutes (RAAM)</t>
+          <t>Buprenorphine access 30 minutes (RAAM)</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
@@ -3695,17 +3691,17 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>BupRm30</t>
+          <t>BupRm60</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>BupRm30</t>
+          <t>Buprenorphine access 60 minutes (RAAM)</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Buprenorphine access 30 minutes (RAAM)</t>
+          <t>Buprenorphine access 60 minutes (RAAM)</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
@@ -3743,17 +3739,17 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>BupRm60</t>
+          <t>BupRm90</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>BupRm60</t>
+          <t>Buprenorphine access 90 minutes (RAAM)</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Buprenorphine access 60 minutes (RAAM)</t>
+          <t>Buprenorphine access 90 minutes (RAAM)</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
@@ -3791,22 +3787,34 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>BupRm90</t>
+          <t>FqhcMinDis</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>BupRm90</t>
+          <t>Distance (mi) to nearest FQHC</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Buprenorphine access 90 minutes (RAAM)</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
+          <t>Euclidean distance* from tract/zip centroid to nearest FQHC, in miles</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>US Covid Atlas via HRSA, 2020</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>number</t>
@@ -3814,11 +3822,19 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>1.232</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3835,21 +3851,25 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>FqhcMinDis</t>
+          <t>FqhcTmDr</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest FQHC</t>
+          <t>Driving time (min) to nearest FQHC</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest FQHC, in miles</t>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip FQHC destination centroid, in minutes</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3874,7 +3894,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>10.23</t>
+          <t>19.16</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -3903,25 +3923,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>FqhcTmDr</t>
+          <t>FqhcCntDr</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Driving time (min) to nearest FQHC</t>
+          <t>Count of FQHCs (30-min drive)</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip FQHC destination centroid, in minutes</t>
+          <t>Count of FQHCs within a 30-minute driving threshold</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3941,12 +3957,12 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>19.16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -3979,52 +3995,52 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>FqhcCntDr</t>
+          <t>MoudMinDis</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Count of FQHCs (30-min drive)</t>
+          <t>Distance (mi) to nearest MOUD (any)</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Count of FQHCs within a 30-minute driving threshold</t>
+          <t>Euclidean distance (miles) to nearest MOUD (all types)</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA, 2020</t>
+          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
+          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
+          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
       </c>
     </row>
@@ -4047,17 +4063,17 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>MoudMinDis</t>
+          <t>BupMinDis</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest MOUD (any)</t>
+          <t>Distance (mi) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Euclidean distance (miles) to nearest MOUD (all types)</t>
+          <t>Euclidean distance (miles) to nearest buprenorphine provider</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4111,21 +4127,25 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>BupMinDis</t>
+          <t>BupTmDr</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Buprenorphine Provider</t>
+          <t>Driving Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Euclidean distance (miles) to nearest buprenorphine provider</t>
+          <t>Driving time (minutes) to nearest buprenorphine provider</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4150,7 +4170,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4179,25 +4199,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>BupTmDr</t>
+          <t>BupCntDr30</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Buprenorphine Provider</t>
+          <t>Count of Buprenorphine Providers (30-min drive)</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Driving time (minutes) to nearest buprenorphine provider</t>
+          <t>Count of methadone providers in 30 minute drive time threshold</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4217,12 +4233,12 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4255,17 +4271,17 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>BupCntDr30</t>
+          <t>MetMinDis</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (30-min drive)</t>
+          <t>Distance (mi) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 30 minute drive time threshold</t>
+          <t>Euclidean distance (miles) to nearest methadone provider</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4285,12 +4301,12 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13.22</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4319,21 +4335,25 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>MetMinDis</t>
+          <t>MetTmDr</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Methadone Provider</t>
+          <t>Driving Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Euclidean distance (miles) to nearest methadone provider</t>
+          <t>Driving time (minutes) to nearest methadone provider</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4358,7 +4378,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>13.22</t>
+          <t>27.39</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4387,25 +4407,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>MetTmDr</t>
+          <t>MetCntDr30</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Methadone Provider</t>
+          <t>Count of Methadone Providers (30-min drive)</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Driving time (minutes) to nearest methadone provider</t>
+          <t>Count of methadone providers in 30 minute drive time threshold</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4425,12 +4441,12 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>27.39</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -4463,17 +4479,17 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>MetCntDr30</t>
+          <t>NalMinDis</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (30-min drive)</t>
+          <t>Distance (mi) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 30 minute drive time threshold</t>
+          <t>Euclidean distance (miles) to nearest naltrexone/Vivitrol provider</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4493,12 +4509,12 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18.04</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4527,21 +4543,25 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>NalMinDis</t>
+          <t>NalTmDr</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Naltrexone Provider</t>
+          <t>Driving Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Euclidean distance (miles) to nearest naltrexone/Vivitrol provider</t>
+          <t>Driving time (minutes) to nearest naltrexone provider</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4566,7 +4586,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>18.04</t>
+          <t>35.34</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4595,25 +4615,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>NalTmDr</t>
+          <t>NalCntDr30</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Naltrexone Provider</t>
+          <t>Count of Naltrexone Providers (30-min drive)</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Driving time (minutes) to nearest naltrexone provider</t>
+          <t>Count of naltrexone providers in 30 minute drive time threshold</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4633,12 +4649,12 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>35.34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -4667,21 +4683,25 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>NalCntDr30</t>
+          <t>BupTmWk</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min drive)</t>
+          <t>Walking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 30 minute drive time threshold</t>
+          <t>Walking time (minutes) to nearest buprenorphine provider</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4701,7 +4721,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -4735,25 +4755,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>BupTmWk</t>
+          <t>BupCntWk60</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Buprenorphine Provider</t>
+          <t>Count of Buprenorphine Providers (60-min walk)</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Walking time (minutes) to nearest buprenorphine provider</t>
+          <t>Count of buprenorphine providers in 60 minute walking time threshold</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4773,12 +4789,12 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -4811,17 +4827,17 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>BupCntWk60</t>
+          <t>BupCntWk30</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (60-min walk)</t>
+          <t>Count of Buprenorphine Providers (30-min walk)</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers in 60 minute walking time threshold</t>
+          <t>Count of buprenorphine providers in 30 minute walking time threshold</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4875,21 +4891,25 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>BupCntWk30</t>
+          <t>MetTmWk</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (30-min walk)</t>
+          <t>Walking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers in 30 minute walking time threshold</t>
+          <t>Walking time (minutes) to nearest methadone provider</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4909,12 +4929,12 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1744.66</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -4943,25 +4963,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>MetTmWk</t>
+          <t>MetCntWk30</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Methadone Provider</t>
+          <t>Count of Methadone Providers (60-min walk)</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Walking time (minutes) to nearest methadone provider</t>
+          <t>Count of methadone providers in 60 minute walking time threshold</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4981,12 +4997,12 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>1744.66</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -5019,17 +5035,17 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>MetCntWk30</t>
+          <t>MetCntWk60</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (60-min walk)</t>
+          <t>Count of Methadone Providers (30-min walk)</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 60 minute walking time threshold</t>
+          <t>Count of methadone providers in 30 minute walking time threshold</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5083,21 +5099,25 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>MetCntWk60</t>
+          <t>NalTmWk</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (30-min walk)</t>
+          <t>Walking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 30 minute walking time threshold</t>
+          <t>Walking time (minutes) to nearest naltrexone provider</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5117,14 +5137,10 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
@@ -5151,25 +5167,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>NalTmWk</t>
+          <t>NalCntWk60</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Naltrexone Provider</t>
+          <t>Count of Naltrexone Providers (60-min walk)</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Walking time (minutes) to nearest naltrexone provider</t>
+          <t>Count of naltrexone providers in 60 minute walking time threshold</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5189,10 +5201,14 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="Q66" t="inlineStr"/>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="R66" t="inlineStr">
         <is>
           <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
@@ -5223,17 +5239,17 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>NalCntWk60</t>
+          <t>NalCntWk30</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (60-min walk)</t>
+          <t>Count of Naltrexone Providers (30-min walk)</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 60 minute walking time threshold</t>
+          <t>Count of naltrexone providers in 30 minute walking time threshold</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5287,21 +5303,25 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>NalCntWk30</t>
+          <t>BupTmBk</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min walk)</t>
+          <t>Biking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 30 minute walking time threshold</t>
+          <t>Biking time (minutes) to nearest buprenorphine provider</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5321,7 +5341,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
@@ -5355,25 +5375,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>BupTmBk</t>
+          <t>BupCntBk60</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Buprenorphine Provider</t>
+          <t>Count of Buprenorphine Providers (60-min bike)</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Biking time (minutes) to nearest buprenorphine provider</t>
+          <t>Count of buprenorphine providers in 60 minute biking time threshold</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5393,12 +5409,12 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -5431,17 +5447,17 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>BupCntBk60</t>
+          <t>BupCntBk30</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (60-min bike)</t>
+          <t>Count of Buprenorphine Providers (30-min bike)</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers in 60 minute biking time threshold</t>
+          <t>Count of buprenorphine providers in 30 minute biking time threshold</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5466,7 +5482,7 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -5495,21 +5511,25 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>BupCntBk30</t>
+          <t>MetTmBk</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (30-min bike)</t>
+          <t>Biking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers in 30 minute biking time threshold</t>
+          <t>Biking time (minutes) to nearest methadone provider</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5529,12 +5549,12 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>148.18</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -5563,25 +5583,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>MetTmBk</t>
+          <t>MetCntBk60</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Methadone Provider</t>
+          <t>Count of Methadone Providers (60-min bike)</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Biking time (minutes) to nearest methadone provider</t>
+          <t>Count of methadone providers in 60 minute biking time threshold</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5601,12 +5617,12 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>148.18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -5639,17 +5655,17 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>MetCntBk60</t>
+          <t>MetCntBk30</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (60-min bike)</t>
+          <t>Count of methadone providers (30-min bike)</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 60 minute biking time threshold</t>
+          <t>Count of methadone providers in 30 minute biking time threshold</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5703,21 +5719,25 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>MetCntBk30</t>
+          <t>NalTmBk</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Count of methadone providers (30-min bike)</t>
+          <t>Biking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 30 minute biking time threshold</t>
+          <t>Biking time (minutes) to nearest naltrexone provider</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5737,12 +5757,12 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>165.18</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -5771,25 +5791,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>NalTmBk</t>
+          <t>NalCntBk60</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Naltrexone Provider</t>
+          <t>Count of Naltrexone Providers (60-min bike)</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Biking time (minutes) to nearest naltrexone provider</t>
+          <t>Count of naltrexone providers in 60 minute biking time threshold</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5809,12 +5825,12 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>165.18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -5847,17 +5863,17 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>NalCntBk60</t>
+          <t>NalCntBk30</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (60-min bike)</t>
+          <t>Count of Naltrexone Providers (30-min bike)</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 60 minute biking time threshold</t>
+          <t>Count of naltrexone providers in 30 minute biking time threshold</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5915,52 +5931,52 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>NalCntBk30</t>
+          <t>MhMinDis</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min bike)</t>
+          <t>Distance (mi) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 30 minute biking time threshold</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest mental health provider, in miles</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
+          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
+          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
       </c>
     </row>
@@ -5979,21 +5995,25 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>MhMinDis</t>
+          <t>MhTmDr</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Mental Health Provider</t>
+          <t>Driving Time (min) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest mental health provider, in miles</t>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip mental health provider destination centroid, in minutes</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6018,7 +6038,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -6047,25 +6067,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>MhTmDr</t>
+          <t>MhCntDr</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Mental Health Provider</t>
+          <t>Count of Mental Health Providers (30-min drive)</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip mental health provider destination centroid, in minutes</t>
+          <t>Count of MH providers within a 30-minute driving threshold</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6085,12 +6101,12 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -6123,42 +6139,42 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>MhCntDr</t>
+          <t>OtpMinDis</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Count of Mental Health Providers (30-min drive)</t>
+          <t>Distance (mi) to nearest Opioid Treatment Program (OTP)</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Count of MH providers within a 30-minute driving threshold</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest OTP service location, in miles</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>SAMSHA, 2021</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13.12</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6187,21 +6203,25 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>OtpMinDis</t>
+          <t>OtpTmDr</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Opioid Treatment Program (OTP)</t>
+          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest OTP service location, in miles</t>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip OTP destination centroid, in minutes</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6226,14 +6246,10 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>13.12</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
@@ -6255,25 +6271,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>OtpTmDr</t>
+          <t>OtpCntDr</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
+          <t>Count of Opioid Treatment Programs (OTP) (30-min drive)</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip OTP destination centroid, in minutes</t>
+          <t>Count of OTPs within a 30-minute driving threshold</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6293,12 +6305,12 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>27.39</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R82" t="inlineStr"/>
@@ -6327,45 +6339,49 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>OtpCntDr</t>
+          <t>RxMinDis</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Count of Opioid Treatment Programs (OTP) (30-min drive)</t>
+          <t>Distance (mi) to nearest Pharmacy</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Count of OTPs within a 30-minute driving threshold</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest pharmacy, in miles</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>SAMSHA, 2021</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R83" t="inlineStr"/>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
+        </is>
+      </c>
       <c r="S83" t="inlineStr">
         <is>
           <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
@@ -6387,21 +6403,25 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>RxMinDis</t>
+          <t>RxTmDr</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Pharmacy</t>
+          <t>Driving Time (min) to nearest Pharmacy</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest pharmacy, in miles</t>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip pharmacy destination centroid, in minutes</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6426,7 +6446,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -6455,25 +6475,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>RxTmDr</t>
+          <t>RxCntDr</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Driving Time (min) to nearest Pharmacy </t>
+          <t>Count of Pharmacies (30-min drive)</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip pharmacy destination centroid, in minutes</t>
+          <t>Count of pharmacies within a 30-minute driving threshold</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -6493,12 +6509,12 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>58</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -6531,42 +6547,42 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>RxCntDr</t>
+          <t>SutMinDis</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Count of Pharmacies (30-min drive)</t>
+          <t>Distance (mi) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Count of pharmacies within a 30-minute driving threshold</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest SUT service location, in miles</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -6595,21 +6611,25 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>SutMinDis</t>
+          <t>SutTmDr</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Distance (mi) to Substance Use Treatment (SUT) facility</t>
+          <t>Driving time (min) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest SUT service location, in miles</t>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip SUT destination centroid, in minutes</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -6634,7 +6654,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>17.76</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -6663,25 +6683,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>SutTmDr</t>
+          <t>SutCntDr</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Driving time (min) to Substance Use Treatment (SUT) facility</t>
+          <t>Count of Substance Use Treatment (SUT) facility (30-min drive)</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip SUT destination centroid, in minutes</t>
+          <t>Count of SUT services within a 30-minute driving threshold</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6701,12 +6717,12 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>17.76</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -6739,42 +6755,42 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>SutCntDr</t>
+          <t>HospMinDis</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Count of Substance Use Treatment (SUT) facility (30-min drive)</t>
+          <t>Distance (mi) to nearest Hospital</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Count of SUT services within a 30-minute driving threshold</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest hospital, in miles</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -6803,21 +6819,25 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>HospMinDis</t>
+          <t>HospTmDr</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Hospital</t>
+          <t>Driving time (min) to nearest Hospital</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest hospital, in miles</t>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip hospital destination centroid, in minutes</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -6842,7 +6862,7 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -6871,25 +6891,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>HospTmDr</t>
+          <t>HospCntDr</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Driving time (min) to nearest Hospital</t>
+          <t>Count of Hospitals (30-min drive)</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip hospital destination centroid, in minutes</t>
+          <t>Count of hospitals within a 30-minute driving threshold</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -6909,12 +6925,12 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -6947,32 +6963,32 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>HospCntDr</t>
+          <t>AlcTot</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Count of Hospitals (30-min drive)</t>
+          <t>Total Alcohol Outlets</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Count of hospitals within a 30-minute driving threshold</t>
+          <t>Total number of alcohol outlets</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>InfoGroup, 2018</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -6982,19 +6998,16 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>421</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
+The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7015,17 +7028,17 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>AlcTot</t>
+          <t>AlcDens</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Total Alcohol Outlets</t>
+          <t>Alcohol Outlets Density</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Total number of alcohol outlets</t>
+          <t>Number of alcohol outlets per square mile</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -7045,12 +7058,12 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -7080,17 +7093,17 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>AlcDens</t>
+          <t>AlcPerCap</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Alcohol Outlets Density</t>
+          <t>Alcohol Outlets per Capita</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Number of alcohol outlets per square mile</t>
+          <t>Number of alcohol outlets per capita</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -7115,7 +7128,7 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -7145,48 +7158,47 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>AlcPerCap</t>
+          <t>TotPcp</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Alcohol Outlets per Capita</t>
+          <t>Count of Primary Care Physicians (PCPs)</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Number of alcohol outlets per capita</t>
+          <t>Number of primary care providers in area</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Health_PCPs.md</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>InfoGroup, 2018</t>
+          <t>Dartmouth Atlas, 2010</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
+          <t>Dartmouth Atlas' Primary Care Service Area Project, 2010</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5904</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
-The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
+          <t>Does not include U.S. territories Puerto Rico, Guam, Northern Mariana Islands, American Samoa, Virgin Islands, or Washington, D.C.</t>
         </is>
       </c>
       <c r="S95" t="inlineStr"/>
@@ -7210,17 +7222,17 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>TotPcp</t>
+          <t>TotSp</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Count of Primary Care Physicians (PCPs)</t>
+          <t>Count of Specialty Physicians</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Number of primary care providers in area</t>
+          <t>Number of specialty physicians in area</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -7245,7 +7257,7 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>5904</t>
+          <t>9499</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -7270,21 +7282,25 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>TotSp</t>
+          <t>PcpPer100k</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Count of Specialty Physicians</t>
+          <t>Primary Care Physicians (PCP) per 100k</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Number of specialty physicians in area</t>
+          <t>PCPs per total Population X 100,000</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -7299,17 +7315,17 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas' Primary Care Service Area Project, 2010</t>
+          <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>9499</t>
+          <t>133.42</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -7334,25 +7350,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>PcpPer100k</t>
+          <t>SpPer100k</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Primary Care Physicians (PCP) per 100k</t>
+          <t>Specialty Physicians per 100k</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>PCPs per total Population X 100,000</t>
+          <t>Specialty Physicians per total Population X 100,000</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -7377,7 +7389,7 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>133.42</t>
+          <t>41.05</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -7393,60 +7405,80 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F99" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>SpPer100k</t>
+          <t>TotUnits</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Specialty Physicians per 100k</t>
+          <t>Total Occupied Housing Units</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Specialty Physicians per total Population X 100,000</t>
+          <t>Count of total occupied housing units</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Health_PCPs.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas, 2010</t>
+          <t>ACS 2018, 5-Year; Census 2010; Social Explorer</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012; Social Explorer Historic Census Data on 2010 Geometries</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>41.05</t>
+          <t>874237</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Does not include U.S. territories Puerto Rico, Guam, Northern Mariana Islands, American Samoa, Virgin Islands, or Washington, D.C.</t>
+          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
         </is>
       </c>
       <c r="S99" t="inlineStr"/>
@@ -7490,17 +7522,17 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>TotUnits</t>
+          <t>VacantP</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Total Occupied Housing Units</t>
+          <t>Vacant Housing Units %</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Count of total occupied housing units</t>
+          <t>Percentage of vacant housing units</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -7510,22 +7542,22 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; Social Explorer</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012; Social Explorer Historic Census Data on 2010 Geometries</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5 Year Estimate; Social Explorer Historic Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>874237</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
@@ -7541,50 +7573,30 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>VacantP</t>
+          <t>MobileP</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Vacant Housing Units %</t>
+          <t>Mobile Homes %</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Percentage of vacant housing units</t>
+          <t>Percentage of total housing units categorized as mobile housing structures</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -7594,12 +7606,12 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5 Year Estimate; Social Explorer Historic Data on 2010 Geographies</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -7609,14 +7621,10 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>13.28</t>
-        </is>
-      </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
-        </is>
-      </c>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
     </row>
     <row r="102">
@@ -7638,17 +7646,17 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>MobileP</t>
+          <t>LngTermP</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Mobile Homes %</t>
+          <t>Long-Term Occupancy %</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Percentage of total housing units categorized as mobile housing structures</t>
+          <t>Percentage of population who moved into their current housing more than 20 years ago</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -7673,7 +7681,7 @@
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>19.99</t>
         </is>
       </c>
       <c r="R102" t="inlineStr"/>
@@ -7698,17 +7706,17 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>LngTermP</t>
+          <t>RentalP</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Long-Term Occupancy %</t>
+          <t>Rentals %</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Percentage of population who moved into their current housing more than 20 years ago</t>
+          <t>Percentage of occupied housing units that are rented</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -7733,7 +7741,7 @@
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>19.99</t>
+          <t>37.28</t>
         </is>
       </c>
       <c r="R103" t="inlineStr"/>
@@ -7758,17 +7766,17 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>RentalP</t>
+          <t>UnitDens</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Rentals %</t>
+          <t>Housing Unit Density</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Percentage of occupied housing units that are rented</t>
+          <t>Number of housing units per square mile of land area</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -7793,7 +7801,7 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>37.28</t>
+          <t>46.11</t>
         </is>
       </c>
       <c r="R104" t="inlineStr"/>
@@ -7818,32 +7826,32 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>UnitDens</t>
+          <t>NoIntP</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Housing Unit Density</t>
+          <t>Households without Internet Access %</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Number of housing units per square mile of land area</t>
+          <t>Percentage of Households without Internet access</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Internet_2019.md</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>ACS, 2019</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate</t>
+          <t>American Community Survey 2015-2019 5 Year Estimate</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
@@ -7853,7 +7861,7 @@
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>46.11</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="R105" t="inlineStr"/>
@@ -7878,32 +7886,32 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>NoIntP</t>
+          <t>Ndvi</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Households without Internet Access %</t>
+          <t>NDVI Average</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Percentage of Households without Internet access</t>
+          <t>Average normalized difference vegetation index, a measure of greenness used to determine the amount of vegetation in an area, value from all pixel values in each Census tract</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Internet_2019.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/NDVI.md</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>ACS, 2019</t>
+          <t>Sentinel-2 MSI, 2018</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>American Community Survey 2015-2019 5 Year Estimate</t>
+          <t>Sentinel 2 MSI: MultiSpectral Instrument Level-1 C</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
@@ -7913,10 +7921,14 @@
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="R106" t="inlineStr"/>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>Despite removing identified influences of cloud interferences, there may still be clouds or other atmospheric conditions that alter pixel values used in calculations. See the original source for greater documentation of these effects. Furthermore, summarizing NDVI to the census tract simplifies inter-census tract variability.</t>
+        </is>
+      </c>
       <c r="S106" t="inlineStr"/>
     </row>
     <row r="107">
@@ -7938,49 +7950,45 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Ndvi</t>
+          <t>Ruca1</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>NDVI Average</t>
+          <t>Primary RUCA Code</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Average normalized difference vegetation index, a measure of greenness used to determine the amount of vegetation in an area, value from all pixel values in each Census tract</t>
+          <t>Primary RUCA Code</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/NDVI.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>Sentinel-2 MSI, 2018</t>
+          <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>Sentinel 2 MSI: MultiSpectral Instrument Level-1 C</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="R107" t="inlineStr">
-        <is>
-          <t>Despite removing identified influences of cloud interferences, there may still be clouds or other atmospheric conditions that alter pixel values used in calculations. See the original source for greater documentation of these effects. Furthermore, summarizing NDVI to the census tract simplifies inter-census tract variability.</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr"/>
     </row>
     <row r="108">
@@ -8002,17 +8010,17 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Ruca1</t>
+          <t>Ruca2</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Primary RUCA Code</t>
+          <t>Secondary RUCA Code</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Primary RUCA Code</t>
+          <t>Secondary RUCA Code</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -8037,7 +8045,7 @@
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="R108" t="inlineStr"/>
@@ -8058,21 +8066,25 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Ruca2</t>
+          <t>Rurality</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Secondary RUCA Code</t>
+          <t>Urban-Suburban-Rural</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Secondary RUCA Code</t>
+          <t>Urban/Suburban/Rural</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -8097,7 +8109,7 @@
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="R109" t="inlineStr"/>
@@ -8106,66 +8118,90 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Environment</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F110" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Rurality</t>
+          <t>PovP</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Urban-Suburban-Rural</t>
+          <t>Poverty %</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural</t>
+          <t>Number of individuals earning below the poverty income threshold as a percentage of the total population</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr"/>
+          <t>16.6</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>For complete definitions of ACS variables described above, please refer to the American Community Survey &amp; Puerto Rico Community Survey 2018 Subject Definitions.</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8206,17 +8242,17 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>PovP</t>
+          <t>UnempP</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Poverty %</t>
+          <t>Unemployment %</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Number of individuals earning below the poverty income threshold as a percentage of the total population</t>
+          <t>The number of unemployed individuals as a percentage of the civilian labor force</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -8241,7 +8277,7 @@
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>16.6</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -8261,21 +8297,9 @@
           <t>Economic</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
           <t>x</t>
@@ -8287,24 +8311,20 @@
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>UnempP</t>
+          <t>MedInc</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Unemployment %</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>The number of unemployed individuals as a percentage of the civilian labor force</t>
+          <t>Median income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -8314,34 +8334,26 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="R112" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
-        </is>
-      </c>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>For complete definitions of ACS variables described above, please refer to the American Community Survey &amp; Puerto Rico Community Survey 2018 Subject Definitions.</t>
-        </is>
-      </c>
+          <t>34148</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8366,17 +8378,17 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>MedInc</t>
+          <t>PciE</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Median Income</t>
+          <t>Per Capita Income</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Median income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
+          <t>Per capita income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -8401,7 +8413,7 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>34148</t>
+          <t>36888</t>
         </is>
       </c>
       <c r="R113" t="inlineStr"/>
@@ -8416,11 +8428,7 @@
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
         <is>
           <t>x</t>
@@ -8430,46 +8438,54 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>PciE</t>
+          <t>ForDqP</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Per Capita Income</t>
+          <t>Foreclosure &amp; Delinquency %</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Per capita income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
+          <t>Estimated percent of mortgages to start foreclosure process or be seriously delinquent during the 2008 Recession</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/ForeclosureRate.md</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>HUD, 2018</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>36888</t>
-        </is>
-      </c>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect "real" numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure.</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau.</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8490,17 +8506,17 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>ForDqP</t>
+          <t>ForDqTot</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency %</t>
+          <t>Foreclosure &amp; Delinquency Count</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Estimated percent of mortgages to start foreclosure process or be seriously delinquent during the 2008 Recession</t>
+          <t>Estimated number of mortgages to start foreclosure process or be seriously delinquent during the 2008 Recession</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -8525,7 +8541,7 @@
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>48.09</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -8548,7 +8564,11 @@
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F116" t="inlineStr">
         <is>
           <t>x</t>
@@ -8558,17 +8578,17 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>ForDqTot</t>
+          <t>GiniCoeff</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency Count</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Estimated number of mortgages to start foreclosure process or be seriously delinquent during the 2008 Recession</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -8578,12 +8598,12 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>HUD, 2018</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
@@ -8593,19 +8613,11 @@
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>48.09</t>
-        </is>
-      </c>
-      <c r="R116" t="inlineStr">
-        <is>
-          <t>The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect "real" numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure.</t>
-        </is>
-      </c>
-      <c r="S116" t="inlineStr">
-        <is>
-          <t>For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau.</t>
-        </is>
-      </c>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8616,11 +8628,7 @@
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
           <t>x</t>
@@ -8630,42 +8638,42 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>GiniCoeff</t>
+          <t>TotWrkE</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>Count of Working Population</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>Estimated count of working population</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/ForeclosureRate.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>3513856</t>
         </is>
       </c>
       <c r="R117" t="inlineStr"/>
